--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T16:31:57+00:00</t>
+    <t>2023-03-19T13:34:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T13:34:55+00:00</t>
+    <t>2023-03-19T13:45:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T13:45:53+00:00</t>
+    <t>2023-03-19T13:54:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T13:54:37+00:00</t>
+    <t>2023-03-19T13:59:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T13:59:04+00:00</t>
+    <t>2023-03-19T14:12:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T14:12:08+00:00</t>
+    <t>2023-03-19T14:24:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T14:24:01+00:00</t>
+    <t>2023-03-19T14:30:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T14:30:17+00:00</t>
+    <t>2023-03-19T14:44:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T14:44:32+00:00</t>
+    <t>2023-03-19T15:09:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:09:40+00:00</t>
+    <t>2023-03-19T15:54:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:54:08+00:00</t>
+    <t>2023-03-19T16:05:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-20T11:16:14+00:00</t>
+    <t>2023-03-21T09:14:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-21T09:14:35+00:00</t>
+    <t>2023-03-21T16:58:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-21T16:58:14+00:00</t>
+    <t>2023-03-22T10:52:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T10:52:43+00:00</t>
+    <t>2023-03-23T14:47:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T14:47:57+00:00</t>
+    <t>2023-03-23T15:06:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T15:06:11+00:00</t>
+    <t>2023-03-23T15:06:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T15:06:38+00:00</t>
+    <t>2023-03-23T16:08:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T16:08:18+00:00</t>
+    <t>2023-03-24T13:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-24T13:28:56+00:00</t>
+    <t>2023-03-25T16:57:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -54,7 +54,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-11T09:02:19+00:00</t>
+    <t>2023-07-11T09:02:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24055" uniqueCount="1185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24052" uniqueCount="1179">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-11T09:02:50+00:00</t>
+    <t>2023-07-21T12:08:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2265,7 +2265,7 @@
     <t>List.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://interopsante.org/fhir/StructureDefinition/FrPatient) &lt;&lt;contained&gt;&gt;
+    <t xml:space="preserve">Reference(http://interopsante.org/fhir/StructureDefinition/FrPatient)
 </t>
   </si>
   <si>
@@ -2521,11 +2521,7 @@
     <t>DocumentReference.meta.versionId</t>
   </si>
   <si>
-    <t>Numéro de version de la fiche d’un document attribués par le système cible. La valeur de la métadonnée version est égale à 1 pour la première version de la fiche.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-constr-cdr-maj:Elément requis lorsque le flux envoyé correspond à une mise à jour des données d’une fiche {f:meta/f:versionId}</t>
+    <t>Numéro de version de la fiche d’un document attribué par le système cible. La valeur de la métadonnée version est égale à 1 pour la première version de la fiche. Cet élément est requis lorsque le flux envoyé correspond à une mise à jour des données d’une fiche.</t>
   </si>
   <si>
     <t>DocumentReference.meta.lastUpdated</t>
@@ -2559,10 +2555,6 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t>Patient {http://interopsante.org/fhir/StructureDefinition/FrPatient}
-DevicePractitionerRole {https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-organizationalRole-rass|https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-professionalRole-rass}Organization {https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/organization-rass}Practitioner {https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitioner-rass}</t>
-  </si>
-  <si>
     <t>Contained, inline Resources</t>
   </si>
   <si>
@@ -2662,9 +2654,6 @@
   </si>
   <si>
     <t>Key metadata element describing the document that describes he exact type of document. Helps humans to assess whether the document is of interest when viewing a list of documents.</t>
-  </si>
-  <si>
-    <t>XDS typeCode CI-SIS</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J07-XdsTypeCode-CISIS/FHIR/JDV-J07-XdsTypeCode-CISIS</t>
@@ -2712,7 +2701,7 @@
     <t>DocumentReference.subject</t>
   </si>
   <si>
-    <t>Représente l'identifiant du patient.</t>
+    <t>Référence vers le patient concerné par le document.</t>
   </si>
   <si>
     <t>Who or what the document is about. The document can be about a person, (patient or healthcare practitioner), a device (e.g. a machine) or even a group of subjects (such as a document about a herd of farm animals, or a set of patients that share a common exposure).</t>
@@ -3288,6 +3277,10 @@
     <t>DocumentReference.context.sourcePatientInfo</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(http://interopsante.org/fhir/StructureDefinition/FrPatient) &lt;&lt;contained&gt;&gt;
+</t>
+  </si>
+  <si>
     <t>Référence vers la ressource Patient titulaire du dossier.</t>
   </si>
   <si>
@@ -3429,8 +3422,7 @@
     <t>Kind of document (LOINC if possible)</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://interopsante.org/fhir/StructureDefinition/FrPatient)
-</t>
+    <t>XDS typeCode CI-SIS</t>
   </si>
   <si>
     <t>Patient concerné par ce document. La ressource référencée peut être présente sous l’élément DocumentReference.contained ou via le champ identifier.</t>
@@ -3490,10 +3482,6 @@
   </si>
   <si>
     <t>https://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.Comprehensive.SubmissionSet</t>
-  </si>
-  <si>
-    <t>Practitioner {https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitioner-rass}
-Organization {https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/organization-rass}Patient {http://interopsante.org/fhir/StructureDefinition/FrPatient}PractitionerRole {https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-organizationalRole-rass|https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-professionalRole-rass}Device</t>
   </si>
   <si>
     <t>2</t>
@@ -3537,9 +3525,6 @@
     <t>List.extension.value[x]</t>
   </si>
   <si>
-    <t>XDS contentTypeCode CI-SIS</t>
-  </si>
-  <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J03-XdsContentTypeCode-CISIS/FHIR/JDV-J03-XdsContentTypeCode-CISIS</t>
   </si>
   <si>
@@ -3579,38 +3564,42 @@
 </t>
   </si>
   <si>
-    <t>Intended recipient of the SubmissionSet</t>
-  </si>
-  <si>
-    <t>holds the identity of the organization or person the SubmissionSet is intended. For XDR and eMail (e.g. Direct) this tends to be a Practitioner or Patient with a telecom holding an email, but this is not strictly required.</t>
+    <t>Les ressources référencées sont : 1/ PractitionerRole : Dans le cas d’un destinaire professionnel, c’est le profil AsPractitionerRole représentant la situation d’exercice qui doit être référencé. Lui-même fera le lien avec le profil AsPractitionerRole représentant l’exercice professionnel et avec FrPractitioner. 2/ Organization contrainte au profil FrOrganization</t>
+  </si>
+  <si>
+    <t>List.extension:intendedRecipient.id</t>
+  </si>
+  <si>
+    <t>List.extension:intendedRecipient.extension</t>
+  </si>
+  <si>
+    <t>List.extension:intendedRecipient.url</t>
+  </si>
+  <si>
+    <t>https://profiles.ihe.net/ITI/MHD/StructureDefinition/ihe-intendedRecipient</t>
+  </si>
+  <si>
+    <t>List.extension:intendedRecipient.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|Organization|Patient|RelatedPerson|Group|Device|Location) &lt;&lt;contained&gt;&gt;
+</t>
+  </si>
+  <si>
+    <t>List.extension:intendedRecipient.value[x]:valueReference</t>
+  </si>
+  <si>
+    <t>valueReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference
+</t>
   </si>
   <si>
     <t>List.extension:isArchived</t>
   </si>
   <si>
     <t>Extension définie par ce volet pour distinguer les lots de soumission archivés des actives.</t>
-  </si>
-  <si>
-    <t>List.extension:PDSm_intendedRecipient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/pdsm/StructureDefinition/PDSmintendedrecipient}
-</t>
-  </si>
-  <si>
-    <t>Les ressources référencées sont : - PractitionerRole : Dans le cas d’un destinaire professionnel, c’est le profil PractitionerRoleOrgani zationalRoleRASS représentant la situation d’exercice qui doit être référencé. Lui-même fera le lien avec le profil PractitionerRoleProfes sionalRoleRASS représentant l’exercice professionnel et avec FrPractitioner. - Organization contrainte au profil FrOrganization</t>
-  </si>
-  <si>
-    <t>List.extension:PDSm_intendedRecipient.id</t>
-  </si>
-  <si>
-    <t>List.extension:PDSm_intendedRecipient.extension</t>
-  </si>
-  <si>
-    <t>List.extension:PDSm_intendedRecipient.url</t>
-  </si>
-  <si>
-    <t>List.extension:PDSm_intendedRecipient.value[x]</t>
   </si>
   <si>
     <t xml:space="preserve">Identifier {https://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.SubmissionSetUniqueIdIdentifier}
@@ -3643,9 +3632,6 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>Référence vers la ressource Patient contained titulaire du dossier.</t>
-  </si>
-  <si>
     <t>Représente la date et heure de soumission.</t>
   </si>
   <si>
@@ -3672,10 +3658,10 @@
 </t>
   </si>
   <si>
-    <t>Organisation auteur du document</t>
-  </si>
-  <si>
-    <t>Un lot de soumission est obligatoirement associé à un auteur. Si l’attribut “source” n’est pas renseigné, autrement dit si l’auteur est une personne morale, la cardinalité est contrainte à [1..1].</t>
+    <t>Organisation auteur du document. Un lot de soumission est obligatoirement associé à un auteur. Si l’attribut “source” n’est pas renseigné, autrement dit si l’auteur est une personne morale, la cardinalité est contrainte à [1..1].</t>
+  </si>
+  <si>
+    <t>When the author of the SubmissionSet is an Organization, this extension shall be used.</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -3715,13 +3701,6 @@
   </si>
   <si>
     <t>List.source.extension:authorOrg.value[x]:valueReference</t>
-  </si>
-  <si>
-    <t>valueReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference
-</t>
   </si>
   <si>
     <t>List.source.reference</t>
@@ -4846,7 +4825,7 @@
         <v>2</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="124">
@@ -4854,7 +4833,7 @@
         <v>4</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="125">
@@ -4870,7 +4849,7 @@
         <v>8</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="127">
@@ -4878,7 +4857,7 @@
         <v>10</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="128">
@@ -4924,7 +4903,7 @@
         <v>21</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="134">
@@ -4968,7 +4947,7 @@
         <v>31</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="140">
@@ -5000,7 +4979,7 @@
         <v>2</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="144">
@@ -5008,7 +4987,7 @@
         <v>4</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="145">
@@ -5024,7 +5003,7 @@
         <v>8</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="147">
@@ -5032,7 +5011,7 @@
         <v>10</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="148">
@@ -5078,7 +5057,7 @@
         <v>21</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="154">
@@ -5122,7 +5101,7 @@
         <v>31</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="160">
@@ -5154,7 +5133,7 @@
         <v>2</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>1180</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="164">
@@ -5162,7 +5141,7 @@
         <v>4</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>1181</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="165">
@@ -5178,7 +5157,7 @@
         <v>8</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>1182</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="167">
@@ -5186,7 +5165,7 @@
         <v>10</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>1183</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="168">
@@ -5232,7 +5211,7 @@
         <v>21</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="174">
@@ -5300,7 +5279,7 @@
         <v>546</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>1184</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="183">
@@ -5330,7 +5309,7 @@
     <col min="1" max="1" width="53.73828125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="59.765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="53.62109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="24.1640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="39.9140625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="2.2109375" customWidth="true" bestFit="true"/>
@@ -31143,7 +31122,7 @@
         <v>38</v>
       </c>
       <c r="H248" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I248" t="s" s="2">
         <v>37</v>
@@ -59923,7 +59902,7 @@
         <v>37</v>
       </c>
       <c r="AK523" t="s" s="2">
-        <v>805</v>
+        <v>56</v>
       </c>
     </row>
     <row r="524">
@@ -59931,10 +59910,10 @@
         <v>793</v>
       </c>
       <c r="B524" t="s" s="2">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C524" t="s" s="2">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D524" s="2"/>
       <c r="E524" t="s" s="2">
@@ -60036,10 +60015,10 @@
         <v>793</v>
       </c>
       <c r="B525" t="s" s="2">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C525" t="s" s="2">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D525" s="2"/>
       <c r="E525" t="s" s="2">
@@ -60141,10 +60120,10 @@
         <v>793</v>
       </c>
       <c r="B526" t="s" s="2">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C526" t="s" s="2">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D526" s="2"/>
       <c r="E526" t="s" s="2">
@@ -60246,10 +60225,10 @@
         <v>793</v>
       </c>
       <c r="B527" t="s" s="2">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C527" t="s" s="2">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D527" s="2"/>
       <c r="E527" t="s" s="2">
@@ -60351,10 +60330,10 @@
         <v>793</v>
       </c>
       <c r="B528" t="s" s="2">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C528" t="s" s="2">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D528" s="2"/>
       <c r="E528" t="s" s="2">
@@ -60456,10 +60435,10 @@
         <v>793</v>
       </c>
       <c r="B529" t="s" s="2">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C529" t="s" s="2">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D529" s="2"/>
       <c r="E529" t="s" s="2">
@@ -60561,10 +60540,10 @@
         <v>793</v>
       </c>
       <c r="B530" t="s" s="2">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C530" t="s" s="2">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D530" s="2"/>
       <c r="E530" t="s" s="2">
@@ -60666,10 +60645,10 @@
         <v>793</v>
       </c>
       <c r="B531" t="s" s="2">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C531" t="s" s="2">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D531" s="2"/>
       <c r="E531" t="s" s="2">
@@ -60771,14 +60750,14 @@
         <v>793</v>
       </c>
       <c r="B532" t="s" s="2">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C532" t="s" s="2">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D532" s="2"/>
       <c r="E532" t="s" s="2">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F532" s="2"/>
       <c r="G532" t="s" s="2">
@@ -60797,13 +60776,13 @@
         <v>37</v>
       </c>
       <c r="L532" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M532" t="s" s="2">
+        <v>815</v>
+      </c>
+      <c r="N532" t="s" s="2">
         <v>816</v>
-      </c>
-      <c r="M532" t="s" s="2">
-        <v>817</v>
-      </c>
-      <c r="N532" t="s" s="2">
-        <v>818</v>
       </c>
       <c r="O532" t="s" s="2">
         <v>668</v>
@@ -60876,10 +60855,10 @@
         <v>793</v>
       </c>
       <c r="B533" t="s" s="2">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C533" t="s" s="2">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D533" s="2"/>
       <c r="E533" t="s" s="2">
@@ -60977,13 +60956,13 @@
         <v>793</v>
       </c>
       <c r="B534" t="s" s="2">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C534" t="s" s="2">
+        <v>817</v>
+      </c>
+      <c r="D534" t="s" s="2">
         <v>819</v>
-      </c>
-      <c r="D534" t="s" s="2">
-        <v>821</v>
       </c>
       <c r="E534" t="s" s="2">
         <v>37</v>
@@ -61005,13 +60984,13 @@
         <v>37</v>
       </c>
       <c r="L534" t="s" s="2">
+        <v>820</v>
+      </c>
+      <c r="M534" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="N534" t="s" s="2">
         <v>822</v>
-      </c>
-      <c r="M534" t="s" s="2">
-        <v>823</v>
-      </c>
-      <c r="N534" t="s" s="2">
-        <v>824</v>
       </c>
       <c r="O534" s="2"/>
       <c r="P534" s="2"/>
@@ -61082,10 +61061,10 @@
         <v>793</v>
       </c>
       <c r="B535" t="s" s="2">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C535" t="s" s="2">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D535" s="2"/>
       <c r="E535" t="s" s="2">
@@ -61185,10 +61164,10 @@
         <v>793</v>
       </c>
       <c r="B536" t="s" s="2">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C536" t="s" s="2">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="D536" s="2"/>
       <c r="E536" t="s" s="2">
@@ -61214,16 +61193,16 @@
         <v>687</v>
       </c>
       <c r="M536" t="s" s="2">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="N536" t="s" s="2">
         <v>689</v>
       </c>
       <c r="O536" t="s" s="2">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="P536" t="s" s="2">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="Q536" t="s" s="2">
         <v>37</v>
@@ -61272,7 +61251,7 @@
         <v>37</v>
       </c>
       <c r="AG536" t="s" s="2">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="AH536" t="s" s="2">
         <v>38</v>
@@ -61292,10 +61271,10 @@
         <v>793</v>
       </c>
       <c r="B537" t="s" s="2">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C537" t="s" s="2">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D537" s="2"/>
       <c r="E537" t="s" s="2">
@@ -61321,10 +61300,10 @@
         <v>128</v>
       </c>
       <c r="M537" t="s" s="2">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="N537" t="s" s="2">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="O537" s="2"/>
       <c r="P537" s="2"/>
@@ -61373,7 +61352,7 @@
         <v>70</v>
       </c>
       <c r="AG537" t="s" s="2">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="AH537" t="s" s="2">
         <v>38</v>
@@ -61393,10 +61372,10 @@
         <v>793</v>
       </c>
       <c r="B538" t="s" s="2">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C538" t="s" s="2">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D538" t="s" s="2">
         <v>691</v>
@@ -61424,7 +61403,7 @@
         <v>692</v>
       </c>
       <c r="M538" t="s" s="2">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="N538" t="s" s="2">
         <v>689</v>
@@ -61478,7 +61457,7 @@
         <v>37</v>
       </c>
       <c r="AG538" t="s" s="2">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="AH538" t="s" s="2">
         <v>38</v>
@@ -61498,10 +61477,10 @@
         <v>793</v>
       </c>
       <c r="B539" t="s" s="2">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C539" t="s" s="2">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D539" s="2"/>
       <c r="E539" t="s" s="2">
@@ -61527,13 +61506,13 @@
         <v>119</v>
       </c>
       <c r="M539" t="s" s="2">
+        <v>834</v>
+      </c>
+      <c r="N539" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="O539" t="s" s="2">
         <v>836</v>
-      </c>
-      <c r="N539" t="s" s="2">
-        <v>837</v>
-      </c>
-      <c r="O539" t="s" s="2">
-        <v>838</v>
       </c>
       <c r="P539" s="2"/>
       <c r="Q539" t="s" s="2">
@@ -61563,7 +61542,7 @@
       </c>
       <c r="Z539" s="2"/>
       <c r="AA539" t="s" s="2">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="AB539" t="s" s="2">
         <v>37</v>
@@ -61581,7 +61560,7 @@
         <v>37</v>
       </c>
       <c r="AG539" t="s" s="2">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AH539" t="s" s="2">
         <v>44</v>
@@ -61601,10 +61580,10 @@
         <v>793</v>
       </c>
       <c r="B540" t="s" s="2">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C540" t="s" s="2">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D540" s="2"/>
       <c r="E540" t="s" s="2">
@@ -61630,13 +61609,13 @@
         <v>119</v>
       </c>
       <c r="M540" t="s" s="2">
+        <v>839</v>
+      </c>
+      <c r="N540" t="s" s="2">
+        <v>840</v>
+      </c>
+      <c r="O540" t="s" s="2">
         <v>841</v>
-      </c>
-      <c r="N540" t="s" s="2">
-        <v>842</v>
-      </c>
-      <c r="O540" t="s" s="2">
-        <v>843</v>
       </c>
       <c r="P540" s="2"/>
       <c r="Q540" t="s" s="2">
@@ -61665,10 +61644,10 @@
         <v>137</v>
       </c>
       <c r="Z540" t="s" s="2">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="AA540" t="s" s="2">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="AB540" t="s" s="2">
         <v>37</v>
@@ -61686,7 +61665,7 @@
         <v>37</v>
       </c>
       <c r="AG540" t="s" s="2">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="AH540" t="s" s="2">
         <v>38</v>
@@ -61706,10 +61685,10 @@
         <v>793</v>
       </c>
       <c r="B541" t="s" s="2">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C541" t="s" s="2">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D541" s="2"/>
       <c r="E541" t="s" s="2">
@@ -61735,13 +61714,13 @@
         <v>714</v>
       </c>
       <c r="M541" t="s" s="2">
+        <v>845</v>
+      </c>
+      <c r="N541" t="s" s="2">
+        <v>846</v>
+      </c>
+      <c r="O541" t="s" s="2">
         <v>847</v>
-      </c>
-      <c r="N541" t="s" s="2">
-        <v>848</v>
-      </c>
-      <c r="O541" t="s" s="2">
-        <v>849</v>
       </c>
       <c r="P541" s="2"/>
       <c r="Q541" t="s" s="2">
@@ -61769,11 +61748,9 @@
       <c r="Y541" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="Z541" t="s" s="2">
-        <v>850</v>
-      </c>
+      <c r="Z541" s="2"/>
       <c r="AA541" t="s" s="2">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="AB541" t="s" s="2">
         <v>37</v>
@@ -61791,7 +61768,7 @@
         <v>37</v>
       </c>
       <c r="AG541" t="s" s="2">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="AH541" t="s" s="2">
         <v>38</v>
@@ -61803,7 +61780,7 @@
         <v>37</v>
       </c>
       <c r="AK541" t="s" s="2">
-        <v>852</v>
+        <v>849</v>
       </c>
     </row>
     <row r="542">
@@ -61811,14 +61788,14 @@
         <v>793</v>
       </c>
       <c r="B542" t="s" s="2">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C542" t="s" s="2">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="D542" s="2"/>
       <c r="E542" t="s" s="2">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="F542" s="2"/>
       <c r="G542" t="s" s="2">
@@ -61840,13 +61817,13 @@
         <v>714</v>
       </c>
       <c r="M542" t="s" s="2">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="N542" t="s" s="2">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="O542" t="s" s="2">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="P542" s="2"/>
       <c r="Q542" t="s" s="2">
@@ -61875,10 +61852,10 @@
         <v>123</v>
       </c>
       <c r="Z542" t="s" s="2">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="AA542" t="s" s="2">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="AB542" t="s" s="2">
         <v>37</v>
@@ -61896,7 +61873,7 @@
         <v>37</v>
       </c>
       <c r="AG542" t="s" s="2">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="AH542" t="s" s="2">
         <v>38</v>
@@ -61908,7 +61885,7 @@
         <v>37</v>
       </c>
       <c r="AK542" t="s" s="2">
-        <v>860</v>
+        <v>857</v>
       </c>
     </row>
     <row r="543">
@@ -61916,10 +61893,10 @@
         <v>793</v>
       </c>
       <c r="B543" t="s" s="2">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C543" t="s" s="2">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D543" s="2"/>
       <c r="E543" t="s" s="2">
@@ -61945,10 +61922,10 @@
         <v>722</v>
       </c>
       <c r="M543" t="s" s="2">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="N543" t="s" s="2">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="O543" s="2"/>
       <c r="P543" s="2"/>
@@ -61999,19 +61976,19 @@
         <v>37</v>
       </c>
       <c r="AG543" t="s" s="2">
+        <v>858</v>
+      </c>
+      <c r="AH543" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI543" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ543" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK543" t="s" s="2">
         <v>861</v>
-      </c>
-      <c r="AH543" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI543" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ543" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AK543" t="s" s="2">
-        <v>864</v>
       </c>
     </row>
     <row r="544">
@@ -62019,14 +61996,14 @@
         <v>793</v>
       </c>
       <c r="B544" t="s" s="2">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="C544" t="s" s="2">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="D544" s="2"/>
       <c r="E544" t="s" s="2">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="F544" s="2"/>
       <c r="G544" t="s" s="2">
@@ -62048,13 +62025,13 @@
         <v>79</v>
       </c>
       <c r="M544" t="s" s="2">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="N544" t="s" s="2">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="O544" t="s" s="2">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="P544" s="2"/>
       <c r="Q544" t="s" s="2">
@@ -62104,7 +62081,7 @@
         <v>37</v>
       </c>
       <c r="AG544" t="s" s="2">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="AH544" t="s" s="2">
         <v>38</v>
@@ -62124,10 +62101,10 @@
         <v>793</v>
       </c>
       <c r="B545" t="s" s="2">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="C545" t="s" s="2">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="D545" s="2"/>
       <c r="E545" t="s" s="2">
@@ -62150,16 +62127,16 @@
         <v>45</v>
       </c>
       <c r="L545" t="s" s="2">
+        <v>868</v>
+      </c>
+      <c r="M545" t="s" s="2">
+        <v>869</v>
+      </c>
+      <c r="N545" t="s" s="2">
+        <v>870</v>
+      </c>
+      <c r="O545" t="s" s="2">
         <v>871</v>
-      </c>
-      <c r="M545" t="s" s="2">
-        <v>872</v>
-      </c>
-      <c r="N545" t="s" s="2">
-        <v>873</v>
-      </c>
-      <c r="O545" t="s" s="2">
-        <v>874</v>
       </c>
       <c r="P545" s="2"/>
       <c r="Q545" t="s" s="2">
@@ -62209,7 +62186,7 @@
         <v>37</v>
       </c>
       <c r="AG545" t="s" s="2">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="AH545" t="s" s="2">
         <v>38</v>
@@ -62221,7 +62198,7 @@
         <v>37</v>
       </c>
       <c r="AK545" t="s" s="2">
-        <v>875</v>
+        <v>872</v>
       </c>
     </row>
     <row r="546">
@@ -62229,10 +62206,10 @@
         <v>793</v>
       </c>
       <c r="B546" t="s" s="2">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="C546" t="s" s="2">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="D546" s="2"/>
       <c r="E546" t="s" s="2">
@@ -62255,16 +62232,16 @@
         <v>37</v>
       </c>
       <c r="L546" t="s" s="2">
+        <v>874</v>
+      </c>
+      <c r="M546" t="s" s="2">
+        <v>875</v>
+      </c>
+      <c r="N546" t="s" s="2">
+        <v>876</v>
+      </c>
+      <c r="O546" t="s" s="2">
         <v>877</v>
-      </c>
-      <c r="M546" t="s" s="2">
-        <v>878</v>
-      </c>
-      <c r="N546" t="s" s="2">
-        <v>879</v>
-      </c>
-      <c r="O546" t="s" s="2">
-        <v>880</v>
       </c>
       <c r="P546" s="2"/>
       <c r="Q546" t="s" s="2">
@@ -62314,7 +62291,7 @@
         <v>37</v>
       </c>
       <c r="AG546" t="s" s="2">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="AH546" t="s" s="2">
         <v>38</v>
@@ -62326,7 +62303,7 @@
         <v>37</v>
       </c>
       <c r="AK546" t="s" s="2">
-        <v>881</v>
+        <v>878</v>
       </c>
     </row>
     <row r="547">
@@ -62334,10 +62311,10 @@
         <v>793</v>
       </c>
       <c r="B547" t="s" s="2">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="C547" t="s" s="2">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="D547" s="2"/>
       <c r="E547" t="s" s="2">
@@ -62360,16 +62337,16 @@
         <v>37</v>
       </c>
       <c r="L547" t="s" s="2">
+        <v>880</v>
+      </c>
+      <c r="M547" t="s" s="2">
+        <v>881</v>
+      </c>
+      <c r="N547" t="s" s="2">
+        <v>882</v>
+      </c>
+      <c r="O547" t="s" s="2">
         <v>883</v>
-      </c>
-      <c r="M547" t="s" s="2">
-        <v>884</v>
-      </c>
-      <c r="N547" t="s" s="2">
-        <v>885</v>
-      </c>
-      <c r="O547" t="s" s="2">
-        <v>886</v>
       </c>
       <c r="P547" s="2"/>
       <c r="Q547" t="s" s="2">
@@ -62419,7 +62396,7 @@
         <v>37</v>
       </c>
       <c r="AG547" t="s" s="2">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="AH547" t="s" s="2">
         <v>38</v>
@@ -62439,10 +62416,10 @@
         <v>793</v>
       </c>
       <c r="B548" t="s" s="2">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="C548" t="s" s="2">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="D548" s="2"/>
       <c r="E548" t="s" s="2">
@@ -62468,13 +62445,13 @@
         <v>151</v>
       </c>
       <c r="M548" t="s" s="2">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="N548" t="s" s="2">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="O548" t="s" s="2">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="P548" s="2"/>
       <c r="Q548" t="s" s="2">
@@ -62524,7 +62501,7 @@
         <v>37</v>
       </c>
       <c r="AG548" t="s" s="2">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="AH548" t="s" s="2">
         <v>38</v>
@@ -62536,7 +62513,7 @@
         <v>37</v>
       </c>
       <c r="AK548" t="s" s="2">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="549">
@@ -62544,10 +62521,10 @@
         <v>793</v>
       </c>
       <c r="B549" t="s" s="2">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="C549" t="s" s="2">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="D549" s="2"/>
       <c r="E549" t="s" s="2">
@@ -62647,10 +62624,10 @@
         <v>793</v>
       </c>
       <c r="B550" t="s" s="2">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="C550" t="s" s="2">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="D550" s="2"/>
       <c r="E550" t="s" s="2">
@@ -62752,10 +62729,10 @@
         <v>793</v>
       </c>
       <c r="B551" t="s" s="2">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="C551" t="s" s="2">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="D551" s="2"/>
       <c r="E551" t="s" s="2">
@@ -62859,10 +62836,10 @@
         <v>793</v>
       </c>
       <c r="B552" t="s" s="2">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="C552" t="s" s="2">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="D552" s="2"/>
       <c r="E552" t="s" s="2">
@@ -62888,13 +62865,13 @@
         <v>119</v>
       </c>
       <c r="M552" t="s" s="2">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="N552" t="s" s="2">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="O552" t="s" s="2">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="P552" s="2"/>
       <c r="Q552" t="s" s="2">
@@ -62923,10 +62900,10 @@
         <v>137</v>
       </c>
       <c r="Z552" t="s" s="2">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="AA552" t="s" s="2">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="AB552" t="s" s="2">
         <v>37</v>
@@ -62944,7 +62921,7 @@
         <v>37</v>
       </c>
       <c r="AG552" t="s" s="2">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="AH552" t="s" s="2">
         <v>44</v>
@@ -62964,10 +62941,10 @@
         <v>793</v>
       </c>
       <c r="B553" t="s" s="2">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="C553" t="s" s="2">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="D553" s="2"/>
       <c r="E553" t="s" s="2">
@@ -62990,13 +62967,13 @@
         <v>45</v>
       </c>
       <c r="L553" t="s" s="2">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="M553" t="s" s="2">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="N553" t="s" s="2">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="O553" s="2"/>
       <c r="P553" s="2"/>
@@ -63047,7 +63024,7 @@
         <v>37</v>
       </c>
       <c r="AG553" t="s" s="2">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="AH553" t="s" s="2">
         <v>44</v>
@@ -63059,7 +63036,7 @@
         <v>37</v>
       </c>
       <c r="AK553" t="s" s="2">
-        <v>905</v>
+        <v>902</v>
       </c>
     </row>
     <row r="554">
@@ -63067,10 +63044,10 @@
         <v>793</v>
       </c>
       <c r="B554" t="s" s="2">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C554" t="s" s="2">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="D554" s="2"/>
       <c r="E554" t="s" s="2">
@@ -63096,16 +63073,16 @@
         <v>58</v>
       </c>
       <c r="M554" t="s" s="2">
+        <v>904</v>
+      </c>
+      <c r="N554" t="s" s="2">
+        <v>905</v>
+      </c>
+      <c r="O554" t="s" s="2">
+        <v>906</v>
+      </c>
+      <c r="P554" t="s" s="2">
         <v>907</v>
-      </c>
-      <c r="N554" t="s" s="2">
-        <v>908</v>
-      </c>
-      <c r="O554" t="s" s="2">
-        <v>909</v>
-      </c>
-      <c r="P554" t="s" s="2">
-        <v>910</v>
       </c>
       <c r="Q554" t="s" s="2">
         <v>37</v>
@@ -63154,7 +63131,7 @@
         <v>37</v>
       </c>
       <c r="AG554" t="s" s="2">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="AH554" t="s" s="2">
         <v>38</v>
@@ -63174,10 +63151,10 @@
         <v>793</v>
       </c>
       <c r="B555" t="s" s="2">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="C555" t="s" s="2">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="D555" s="2"/>
       <c r="E555" t="s" s="2">
@@ -63203,16 +63180,16 @@
         <v>714</v>
       </c>
       <c r="M555" t="s" s="2">
+        <v>909</v>
+      </c>
+      <c r="N555" t="s" s="2">
+        <v>910</v>
+      </c>
+      <c r="O555" t="s" s="2">
+        <v>911</v>
+      </c>
+      <c r="P555" t="s" s="2">
         <v>912</v>
-      </c>
-      <c r="N555" t="s" s="2">
-        <v>913</v>
-      </c>
-      <c r="O555" t="s" s="2">
-        <v>914</v>
-      </c>
-      <c r="P555" t="s" s="2">
-        <v>915</v>
       </c>
       <c r="Q555" t="s" s="2">
         <v>37</v>
@@ -63261,7 +63238,7 @@
         <v>37</v>
       </c>
       <c r="AG555" t="s" s="2">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="AH555" t="s" s="2">
         <v>38</v>
@@ -63273,7 +63250,7 @@
         <v>37</v>
       </c>
       <c r="AK555" t="s" s="2">
-        <v>916</v>
+        <v>913</v>
       </c>
     </row>
     <row r="556">
@@ -63281,10 +63258,10 @@
         <v>793</v>
       </c>
       <c r="B556" t="s" s="2">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="C556" t="s" s="2">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="D556" s="2"/>
       <c r="E556" t="s" s="2">
@@ -63310,10 +63287,10 @@
         <v>151</v>
       </c>
       <c r="M556" t="s" s="2">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="N556" t="s" s="2">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="O556" s="2"/>
       <c r="P556" s="2"/>
@@ -63364,7 +63341,7 @@
         <v>37</v>
       </c>
       <c r="AG556" t="s" s="2">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="AH556" t="s" s="2">
         <v>44</v>
@@ -63384,10 +63361,10 @@
         <v>793</v>
       </c>
       <c r="B557" t="s" s="2">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="C557" t="s" s="2">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="D557" s="2"/>
       <c r="E557" t="s" s="2">
@@ -63487,10 +63464,10 @@
         <v>793</v>
       </c>
       <c r="B558" t="s" s="2">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="C558" t="s" s="2">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="D558" s="2"/>
       <c r="E558" t="s" s="2">
@@ -63592,10 +63569,10 @@
         <v>793</v>
       </c>
       <c r="B559" t="s" s="2">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="C559" t="s" s="2">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="D559" s="2"/>
       <c r="E559" t="s" s="2">
@@ -63699,10 +63676,10 @@
         <v>793</v>
       </c>
       <c r="B560" t="s" s="2">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="C560" t="s" s="2">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="D560" s="2"/>
       <c r="E560" t="s" s="2">
@@ -63725,13 +63702,13 @@
         <v>45</v>
       </c>
       <c r="L560" t="s" s="2">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="M560" t="s" s="2">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="N560" t="s" s="2">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="O560" s="2"/>
       <c r="P560" s="2"/>
@@ -63782,7 +63759,7 @@
         <v>37</v>
       </c>
       <c r="AG560" t="s" s="2">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="AH560" t="s" s="2">
         <v>44</v>
@@ -63802,10 +63779,10 @@
         <v>793</v>
       </c>
       <c r="B561" t="s" s="2">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C561" t="s" s="2">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="D561" s="2"/>
       <c r="E561" t="s" s="2">
@@ -63905,10 +63882,10 @@
         <v>793</v>
       </c>
       <c r="B562" t="s" s="2">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="C562" t="s" s="2">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="D562" s="2"/>
       <c r="E562" t="s" s="2">
@@ -64010,10 +63987,10 @@
         <v>793</v>
       </c>
       <c r="B563" t="s" s="2">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="C563" t="s" s="2">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="D563" s="2"/>
       <c r="E563" t="s" s="2">
@@ -64039,14 +64016,14 @@
         <v>119</v>
       </c>
       <c r="M563" t="s" s="2">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="N563" t="s" s="2">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="O563" s="2"/>
       <c r="P563" t="s" s="2">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="Q563" t="s" s="2">
         <v>37</v>
@@ -64059,7 +64036,7 @@
         <v>37</v>
       </c>
       <c r="U563" t="s" s="2">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="V563" t="s" s="2">
         <v>37</v>
@@ -64074,10 +64051,10 @@
         <v>137</v>
       </c>
       <c r="Z563" t="s" s="2">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="AA563" t="s" s="2">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="AB563" t="s" s="2">
         <v>37</v>
@@ -64095,7 +64072,7 @@
         <v>37</v>
       </c>
       <c r="AG563" t="s" s="2">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="AH563" t="s" s="2">
         <v>38</v>
@@ -64115,10 +64092,10 @@
         <v>793</v>
       </c>
       <c r="B564" t="s" s="2">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="C564" t="s" s="2">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="D564" s="2"/>
       <c r="E564" t="s" s="2">
@@ -64144,14 +64121,14 @@
         <v>119</v>
       </c>
       <c r="M564" t="s" s="2">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="N564" t="s" s="2">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="O564" s="2"/>
       <c r="P564" t="s" s="2">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="Q564" t="s" s="2">
         <v>37</v>
@@ -64164,7 +64141,7 @@
         <v>37</v>
       </c>
       <c r="U564" t="s" s="2">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="V564" t="s" s="2">
         <v>37</v>
@@ -64200,7 +64177,7 @@
         <v>37</v>
       </c>
       <c r="AG564" t="s" s="2">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="AH564" t="s" s="2">
         <v>38</v>
@@ -64220,10 +64197,10 @@
         <v>793</v>
       </c>
       <c r="B565" t="s" s="2">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="C565" t="s" s="2">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="D565" s="2"/>
       <c r="E565" t="s" s="2">
@@ -64246,19 +64223,19 @@
         <v>37</v>
       </c>
       <c r="L565" t="s" s="2">
+        <v>941</v>
+      </c>
+      <c r="M565" t="s" s="2">
+        <v>942</v>
+      </c>
+      <c r="N565" t="s" s="2">
+        <v>943</v>
+      </c>
+      <c r="O565" t="s" s="2">
         <v>944</v>
       </c>
-      <c r="M565" t="s" s="2">
+      <c r="P565" t="s" s="2">
         <v>945</v>
-      </c>
-      <c r="N565" t="s" s="2">
-        <v>946</v>
-      </c>
-      <c r="O565" t="s" s="2">
-        <v>947</v>
-      </c>
-      <c r="P565" t="s" s="2">
-        <v>948</v>
       </c>
       <c r="Q565" t="s" s="2">
         <v>37</v>
@@ -64307,7 +64284,7 @@
         <v>37</v>
       </c>
       <c r="AG565" t="s" s="2">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="AH565" t="s" s="2">
         <v>38</v>
@@ -64327,10 +64304,10 @@
         <v>793</v>
       </c>
       <c r="B566" t="s" s="2">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="C566" t="s" s="2">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D566" s="2"/>
       <c r="E566" t="s" s="2">
@@ -64353,19 +64330,19 @@
         <v>45</v>
       </c>
       <c r="L566" t="s" s="2">
+        <v>948</v>
+      </c>
+      <c r="M566" t="s" s="2">
+        <v>949</v>
+      </c>
+      <c r="N566" t="s" s="2">
+        <v>950</v>
+      </c>
+      <c r="O566" t="s" s="2">
         <v>951</v>
       </c>
-      <c r="M566" t="s" s="2">
+      <c r="P566" t="s" s="2">
         <v>952</v>
-      </c>
-      <c r="N566" t="s" s="2">
-        <v>953</v>
-      </c>
-      <c r="O566" t="s" s="2">
-        <v>954</v>
-      </c>
-      <c r="P566" t="s" s="2">
-        <v>955</v>
       </c>
       <c r="Q566" t="s" s="2">
         <v>37</v>
@@ -64378,7 +64355,7 @@
         <v>37</v>
       </c>
       <c r="U566" t="s" s="2">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="V566" t="s" s="2">
         <v>37</v>
@@ -64414,7 +64391,7 @@
         <v>37</v>
       </c>
       <c r="AG566" t="s" s="2">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="AH566" t="s" s="2">
         <v>38</v>
@@ -64426,7 +64403,7 @@
         <v>37</v>
       </c>
       <c r="AK566" t="s" s="2">
-        <v>958</v>
+        <v>955</v>
       </c>
     </row>
     <row r="567">
@@ -64434,10 +64411,10 @@
         <v>793</v>
       </c>
       <c r="B567" t="s" s="2">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="C567" t="s" s="2">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="D567" s="2"/>
       <c r="E567" t="s" s="2">
@@ -64463,16 +64440,16 @@
         <v>145</v>
       </c>
       <c r="M567" t="s" s="2">
+        <v>957</v>
+      </c>
+      <c r="N567" t="s" s="2">
+        <v>958</v>
+      </c>
+      <c r="O567" t="s" s="2">
+        <v>959</v>
+      </c>
+      <c r="P567" t="s" s="2">
         <v>960</v>
-      </c>
-      <c r="N567" t="s" s="2">
-        <v>961</v>
-      </c>
-      <c r="O567" t="s" s="2">
-        <v>962</v>
-      </c>
-      <c r="P567" t="s" s="2">
-        <v>963</v>
       </c>
       <c r="Q567" t="s" s="2">
         <v>37</v>
@@ -64521,7 +64498,7 @@
         <v>37</v>
       </c>
       <c r="AG567" t="s" s="2">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="AH567" t="s" s="2">
         <v>38</v>
@@ -64541,10 +64518,10 @@
         <v>793</v>
       </c>
       <c r="B568" t="s" s="2">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="C568" t="s" s="2">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="D568" s="2"/>
       <c r="E568" t="s" s="2">
@@ -64567,19 +64544,19 @@
         <v>45</v>
       </c>
       <c r="L568" t="s" s="2">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="M568" t="s" s="2">
+        <v>963</v>
+      </c>
+      <c r="N568" t="s" s="2">
+        <v>964</v>
+      </c>
+      <c r="O568" t="s" s="2">
+        <v>965</v>
+      </c>
+      <c r="P568" t="s" s="2">
         <v>966</v>
-      </c>
-      <c r="N568" t="s" s="2">
-        <v>967</v>
-      </c>
-      <c r="O568" t="s" s="2">
-        <v>968</v>
-      </c>
-      <c r="P568" t="s" s="2">
-        <v>969</v>
       </c>
       <c r="Q568" t="s" s="2">
         <v>37</v>
@@ -64628,7 +64605,7 @@
         <v>37</v>
       </c>
       <c r="AG568" t="s" s="2">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="AH568" t="s" s="2">
         <v>38</v>
@@ -64648,10 +64625,10 @@
         <v>793</v>
       </c>
       <c r="B569" t="s" s="2">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="C569" t="s" s="2">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="D569" s="2"/>
       <c r="E569" t="s" s="2">
@@ -64677,14 +64654,14 @@
         <v>58</v>
       </c>
       <c r="M569" t="s" s="2">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="N569" t="s" s="2">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="O569" s="2"/>
       <c r="P569" t="s" s="2">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="Q569" t="s" s="2">
         <v>37</v>
@@ -64697,7 +64674,7 @@
         <v>37</v>
       </c>
       <c r="U569" t="s" s="2">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="V569" t="s" s="2">
         <v>37</v>
@@ -64733,7 +64710,7 @@
         <v>37</v>
       </c>
       <c r="AG569" t="s" s="2">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="AH569" t="s" s="2">
         <v>38</v>
@@ -64753,10 +64730,10 @@
         <v>793</v>
       </c>
       <c r="B570" t="s" s="2">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="C570" t="s" s="2">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="D570" s="2"/>
       <c r="E570" t="s" s="2">
@@ -64782,14 +64759,14 @@
         <v>732</v>
       </c>
       <c r="M570" t="s" s="2">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="N570" t="s" s="2">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="O570" s="2"/>
       <c r="P570" t="s" s="2">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="Q570" t="s" s="2">
         <v>37</v>
@@ -64838,7 +64815,7 @@
         <v>37</v>
       </c>
       <c r="AG570" t="s" s="2">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="AH570" t="s" s="2">
         <v>38</v>
@@ -64858,10 +64835,10 @@
         <v>793</v>
       </c>
       <c r="B571" t="s" s="2">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="C571" t="s" s="2">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D571" s="2"/>
       <c r="E571" t="s" s="2">
@@ -64887,13 +64864,13 @@
         <v>97</v>
       </c>
       <c r="M571" t="s" s="2">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="N571" t="s" s="2">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="O571" t="s" s="2">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="P571" s="2"/>
       <c r="Q571" t="s" s="2">
@@ -64922,10 +64899,10 @@
         <v>123</v>
       </c>
       <c r="Z571" t="s" s="2">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="AA571" t="s" s="2">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="AB571" t="s" s="2">
         <v>37</v>
@@ -64943,7 +64920,7 @@
         <v>37</v>
       </c>
       <c r="AG571" t="s" s="2">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="AH571" t="s" s="2">
         <v>38</v>
@@ -64955,7 +64932,7 @@
         <v>37</v>
       </c>
       <c r="AK571" t="s" s="2">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
     <row r="572">
@@ -64963,10 +64940,10 @@
         <v>793</v>
       </c>
       <c r="B572" t="s" s="2">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="C572" t="s" s="2">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="D572" s="2"/>
       <c r="E572" t="s" s="2">
@@ -64992,13 +64969,13 @@
         <v>151</v>
       </c>
       <c r="M572" t="s" s="2">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="N572" t="s" s="2">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="O572" t="s" s="2">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="P572" s="2"/>
       <c r="Q572" t="s" s="2">
@@ -65048,7 +65025,7 @@
         <v>37</v>
       </c>
       <c r="AG572" t="s" s="2">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="AH572" t="s" s="2">
         <v>38</v>
@@ -65068,10 +65045,10 @@
         <v>793</v>
       </c>
       <c r="B573" t="s" s="2">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="C573" t="s" s="2">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="D573" s="2"/>
       <c r="E573" t="s" s="2">
@@ -65171,10 +65148,10 @@
         <v>793</v>
       </c>
       <c r="B574" t="s" s="2">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="C574" t="s" s="2">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="D574" s="2"/>
       <c r="E574" t="s" s="2">
@@ -65276,10 +65253,10 @@
         <v>793</v>
       </c>
       <c r="B575" t="s" s="2">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="C575" t="s" s="2">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="D575" s="2"/>
       <c r="E575" t="s" s="2">
@@ -65383,10 +65360,10 @@
         <v>793</v>
       </c>
       <c r="B576" t="s" s="2">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="C576" t="s" s="2">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="D576" s="2"/>
       <c r="E576" t="s" s="2">
@@ -65409,13 +65386,13 @@
         <v>37</v>
       </c>
       <c r="L576" t="s" s="2">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="M576" t="s" s="2">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="N576" t="s" s="2">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="O576" s="2"/>
       <c r="P576" s="2"/>
@@ -65466,7 +65443,7 @@
         <v>37</v>
       </c>
       <c r="AG576" t="s" s="2">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="AH576" t="s" s="2">
         <v>38</v>
@@ -65486,10 +65463,10 @@
         <v>793</v>
       </c>
       <c r="B577" t="s" s="2">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="C577" t="s" s="2">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="D577" s="2"/>
       <c r="E577" t="s" s="2">
@@ -65515,13 +65492,13 @@
         <v>714</v>
       </c>
       <c r="M577" t="s" s="2">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="N577" t="s" s="2">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="O577" t="s" s="2">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="P577" s="2"/>
       <c r="Q577" t="s" s="2">
@@ -65550,10 +65527,10 @@
         <v>109</v>
       </c>
       <c r="Z577" t="s" s="2">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="AA577" t="s" s="2">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="AB577" t="s" s="2">
         <v>37</v>
@@ -65571,7 +65548,7 @@
         <v>37</v>
       </c>
       <c r="AG577" t="s" s="2">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="AH577" t="s" s="2">
         <v>38</v>
@@ -65583,7 +65560,7 @@
         <v>37</v>
       </c>
       <c r="AK577" t="s" s="2">
-        <v>1006</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="578">
@@ -65591,10 +65568,10 @@
         <v>793</v>
       </c>
       <c r="B578" t="s" s="2">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="C578" t="s" s="2">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="D578" s="2"/>
       <c r="E578" t="s" s="2">
@@ -65617,13 +65594,13 @@
         <v>45</v>
       </c>
       <c r="L578" t="s" s="2">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="M578" t="s" s="2">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="N578" t="s" s="2">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="O578" s="2"/>
       <c r="P578" s="2"/>
@@ -65674,7 +65651,7 @@
         <v>37</v>
       </c>
       <c r="AG578" t="s" s="2">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="AH578" t="s" s="2">
         <v>38</v>
@@ -65694,10 +65671,10 @@
         <v>793</v>
       </c>
       <c r="B579" t="s" s="2">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="C579" t="s" s="2">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="D579" s="2"/>
       <c r="E579" t="s" s="2">
@@ -65797,10 +65774,10 @@
         <v>793</v>
       </c>
       <c r="B580" t="s" s="2">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="C580" t="s" s="2">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="D580" s="2"/>
       <c r="E580" t="s" s="2">
@@ -65902,10 +65879,10 @@
         <v>793</v>
       </c>
       <c r="B581" t="s" s="2">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="C581" t="s" s="2">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="D581" s="2"/>
       <c r="E581" t="s" s="2">
@@ -65931,13 +65908,13 @@
         <v>732</v>
       </c>
       <c r="M581" t="s" s="2">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="N581" t="s" s="2">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="O581" t="s" s="2">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="P581" s="2"/>
       <c r="Q581" t="s" s="2">
@@ -65987,7 +65964,7 @@
         <v>37</v>
       </c>
       <c r="AG581" t="s" s="2">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="AH581" t="s" s="2">
         <v>38</v>
@@ -65996,7 +65973,7 @@
         <v>44</v>
       </c>
       <c r="AJ581" t="s" s="2">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="AK581" t="s" s="2">
         <v>56</v>
@@ -66007,10 +65984,10 @@
         <v>793</v>
       </c>
       <c r="B582" t="s" s="2">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="C582" t="s" s="2">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="D582" s="2"/>
       <c r="E582" t="s" s="2">
@@ -66036,20 +66013,20 @@
         <v>732</v>
       </c>
       <c r="M582" t="s" s="2">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="N582" t="s" s="2">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="O582" t="s" s="2">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="P582" s="2"/>
       <c r="Q582" t="s" s="2">
         <v>37</v>
       </c>
       <c r="R582" t="s" s="2">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="S582" t="s" s="2">
         <v>37</v>
@@ -66094,7 +66071,7 @@
         <v>37</v>
       </c>
       <c r="AG582" t="s" s="2">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="AH582" t="s" s="2">
         <v>38</v>
@@ -66103,7 +66080,7 @@
         <v>44</v>
       </c>
       <c r="AJ582" t="s" s="2">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="AK582" t="s" s="2">
         <v>56</v>
@@ -66114,10 +66091,10 @@
         <v>793</v>
       </c>
       <c r="B583" t="s" s="2">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="C583" t="s" s="2">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="D583" s="2"/>
       <c r="E583" t="s" s="2">
@@ -66143,10 +66120,10 @@
         <v>714</v>
       </c>
       <c r="M583" t="s" s="2">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="N583" t="s" s="2">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="O583" s="2"/>
       <c r="P583" s="2"/>
@@ -66176,10 +66153,10 @@
         <v>123</v>
       </c>
       <c r="Z583" t="s" s="2">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="AA583" t="s" s="2">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="AB583" t="s" s="2">
         <v>37</v>
@@ -66197,7 +66174,7 @@
         <v>37</v>
       </c>
       <c r="AG583" t="s" s="2">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="AH583" t="s" s="2">
         <v>38</v>
@@ -66209,7 +66186,7 @@
         <v>37</v>
       </c>
       <c r="AK583" t="s" s="2">
-        <v>1030</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="584">
@@ -66217,10 +66194,10 @@
         <v>793</v>
       </c>
       <c r="B584" t="s" s="2">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="C584" t="s" s="2">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="D584" s="2"/>
       <c r="E584" t="s" s="2">
@@ -66246,16 +66223,16 @@
         <v>714</v>
       </c>
       <c r="M584" t="s" s="2">
+        <v>1029</v>
+      </c>
+      <c r="N584" t="s" s="2">
+        <v>1030</v>
+      </c>
+      <c r="O584" t="s" s="2">
+        <v>1031</v>
+      </c>
+      <c r="P584" t="s" s="2">
         <v>1032</v>
-      </c>
-      <c r="N584" t="s" s="2">
-        <v>1033</v>
-      </c>
-      <c r="O584" t="s" s="2">
-        <v>1034</v>
-      </c>
-      <c r="P584" t="s" s="2">
-        <v>1035</v>
       </c>
       <c r="Q584" t="s" s="2">
         <v>37</v>
@@ -66283,10 +66260,10 @@
         <v>123</v>
       </c>
       <c r="Z584" t="s" s="2">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="AA584" t="s" s="2">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="AB584" t="s" s="2">
         <v>37</v>
@@ -66304,7 +66281,7 @@
         <v>37</v>
       </c>
       <c r="AG584" t="s" s="2">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="AH584" t="s" s="2">
         <v>38</v>
@@ -66316,7 +66293,7 @@
         <v>37</v>
       </c>
       <c r="AK584" t="s" s="2">
-        <v>1030</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="585">
@@ -66324,10 +66301,10 @@
         <v>793</v>
       </c>
       <c r="B585" t="s" s="2">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="C585" t="s" s="2">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="D585" s="2"/>
       <c r="E585" t="s" s="2">
@@ -66350,13 +66327,13 @@
         <v>37</v>
       </c>
       <c r="L585" t="s" s="2">
-        <v>722</v>
+        <v>1036</v>
       </c>
       <c r="M585" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="N585" t="s" s="2">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="O585" s="2"/>
       <c r="P585" s="2"/>
@@ -66407,7 +66384,7 @@
         <v>37</v>
       </c>
       <c r="AG585" t="s" s="2">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="AH585" t="s" s="2">
         <v>38</v>
@@ -66427,10 +66404,10 @@
         <v>793</v>
       </c>
       <c r="B586" t="s" s="2">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="C586" t="s" s="2">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="D586" s="2"/>
       <c r="E586" t="s" s="2">
@@ -66530,10 +66507,10 @@
         <v>793</v>
       </c>
       <c r="B587" t="s" s="2">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="C587" t="s" s="2">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="D587" s="2"/>
       <c r="E587" t="s" s="2">
@@ -66635,10 +66612,10 @@
         <v>793</v>
       </c>
       <c r="B588" t="s" s="2">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="C588" t="s" s="2">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="D588" s="2"/>
       <c r="E588" t="s" s="2">
@@ -66664,13 +66641,13 @@
         <v>58</v>
       </c>
       <c r="M588" t="s" s="2">
+        <v>1042</v>
+      </c>
+      <c r="N588" t="s" s="2">
+        <v>1043</v>
+      </c>
+      <c r="O588" t="s" s="2">
         <v>1044</v>
-      </c>
-      <c r="N588" t="s" s="2">
-        <v>1045</v>
-      </c>
-      <c r="O588" t="s" s="2">
-        <v>1046</v>
       </c>
       <c r="P588" s="2"/>
       <c r="Q588" t="s" s="2">
@@ -66720,7 +66697,7 @@
         <v>37</v>
       </c>
       <c r="AG588" t="s" s="2">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="AH588" t="s" s="2">
         <v>38</v>
@@ -66729,7 +66706,7 @@
         <v>44</v>
       </c>
       <c r="AJ588" t="s" s="2">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="AK588" t="s" s="2">
         <v>56</v>
@@ -66740,10 +66717,10 @@
         <v>793</v>
       </c>
       <c r="B589" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="C589" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="D589" s="2"/>
       <c r="E589" t="s" s="2">
@@ -66769,13 +66746,13 @@
         <v>85</v>
       </c>
       <c r="M589" t="s" s="2">
+        <v>1048</v>
+      </c>
+      <c r="N589" t="s" s="2">
+        <v>1049</v>
+      </c>
+      <c r="O589" t="s" s="2">
         <v>1050</v>
-      </c>
-      <c r="N589" t="s" s="2">
-        <v>1051</v>
-      </c>
-      <c r="O589" t="s" s="2">
-        <v>1052</v>
       </c>
       <c r="P589" s="2"/>
       <c r="Q589" t="s" s="2">
@@ -66804,28 +66781,28 @@
         <v>101</v>
       </c>
       <c r="Z589" t="s" s="2">
+        <v>1051</v>
+      </c>
+      <c r="AA589" t="s" s="2">
+        <v>1052</v>
+      </c>
+      <c r="AB589" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC589" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD589" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE589" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF589" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG589" t="s" s="2">
         <v>1053</v>
-      </c>
-      <c r="AA589" t="s" s="2">
-        <v>1054</v>
-      </c>
-      <c r="AB589" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC589" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD589" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE589" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF589" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG589" t="s" s="2">
-        <v>1055</v>
       </c>
       <c r="AH589" t="s" s="2">
         <v>38</v>
@@ -66845,10 +66822,10 @@
         <v>793</v>
       </c>
       <c r="B590" t="s" s="2">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="C590" t="s" s="2">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="D590" s="2"/>
       <c r="E590" t="s" s="2">
@@ -66874,13 +66851,13 @@
         <v>128</v>
       </c>
       <c r="M590" t="s" s="2">
+        <v>1055</v>
+      </c>
+      <c r="N590" t="s" s="2">
+        <v>1056</v>
+      </c>
+      <c r="O590" t="s" s="2">
         <v>1057</v>
-      </c>
-      <c r="N590" t="s" s="2">
-        <v>1058</v>
-      </c>
-      <c r="O590" t="s" s="2">
-        <v>1059</v>
       </c>
       <c r="P590" s="2"/>
       <c r="Q590" t="s" s="2">
@@ -66930,7 +66907,7 @@
         <v>37</v>
       </c>
       <c r="AG590" t="s" s="2">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="AH590" t="s" s="2">
         <v>38</v>
@@ -66950,10 +66927,10 @@
         <v>793</v>
       </c>
       <c r="B591" t="s" s="2">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="C591" t="s" s="2">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="D591" s="2"/>
       <c r="E591" t="s" s="2">
@@ -66979,13 +66956,13 @@
         <v>58</v>
       </c>
       <c r="M591" t="s" s="2">
+        <v>1060</v>
+      </c>
+      <c r="N591" t="s" s="2">
+        <v>1061</v>
+      </c>
+      <c r="O591" t="s" s="2">
         <v>1062</v>
-      </c>
-      <c r="N591" t="s" s="2">
-        <v>1063</v>
-      </c>
-      <c r="O591" t="s" s="2">
-        <v>1064</v>
       </c>
       <c r="P591" s="2"/>
       <c r="Q591" t="s" s="2">
@@ -67035,7 +67012,7 @@
         <v>37</v>
       </c>
       <c r="AG591" t="s" s="2">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="AH591" t="s" s="2">
         <v>38</v>
@@ -67055,10 +67032,10 @@
         <v>793</v>
       </c>
       <c r="B592" t="s" s="2">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C592" t="s" s="2">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="D592" s="2"/>
       <c r="E592" t="s" s="2">
@@ -67081,16 +67058,16 @@
         <v>37</v>
       </c>
       <c r="L592" t="s" s="2">
+        <v>1065</v>
+      </c>
+      <c r="M592" t="s" s="2">
+        <v>1066</v>
+      </c>
+      <c r="N592" t="s" s="2">
         <v>1067</v>
       </c>
-      <c r="M592" t="s" s="2">
+      <c r="O592" t="s" s="2">
         <v>1068</v>
-      </c>
-      <c r="N592" t="s" s="2">
-        <v>1069</v>
-      </c>
-      <c r="O592" t="s" s="2">
-        <v>1070</v>
       </c>
       <c r="P592" s="2"/>
       <c r="Q592" t="s" s="2">
@@ -67140,7 +67117,7 @@
         <v>37</v>
       </c>
       <c r="AG592" t="s" s="2">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="AH592" t="s" s="2">
         <v>38</v>
@@ -67157,7 +67134,7 @@
     </row>
     <row r="593">
       <c r="A593" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B593" t="s" s="2">
         <v>608</v>
@@ -67262,7 +67239,7 @@
     </row>
     <row r="594">
       <c r="A594" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B594" t="s" s="2">
         <v>799</v>
@@ -67367,7 +67344,7 @@
     </row>
     <row r="595">
       <c r="A595" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B595" t="s" s="2">
         <v>800</v>
@@ -67470,7 +67447,7 @@
     </row>
     <row r="596">
       <c r="A596" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B596" t="s" s="2">
         <v>801</v>
@@ -67573,7 +67550,7 @@
     </row>
     <row r="597">
       <c r="A597" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B597" t="s" s="2">
         <v>802</v>
@@ -67678,7 +67655,7 @@
     </row>
     <row r="598">
       <c r="A598" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B598" t="s" s="2">
         <v>803</v>
@@ -67778,18 +67755,18 @@
         <v>548</v>
       </c>
       <c r="AK598" t="s" s="2">
-        <v>805</v>
+        <v>56</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B599" t="s" s="2">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C599" t="s" s="2">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D599" s="2"/>
       <c r="E599" t="s" s="2">
@@ -67888,13 +67865,13 @@
     </row>
     <row r="600">
       <c r="A600" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B600" t="s" s="2">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C600" t="s" s="2">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D600" s="2"/>
       <c r="E600" t="s" s="2">
@@ -67993,13 +67970,13 @@
     </row>
     <row r="601">
       <c r="A601" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B601" t="s" s="2">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C601" t="s" s="2">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D601" s="2"/>
       <c r="E601" t="s" s="2">
@@ -68098,13 +68075,13 @@
     </row>
     <row r="602">
       <c r="A602" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B602" t="s" s="2">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C602" t="s" s="2">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D602" s="2"/>
       <c r="E602" t="s" s="2">
@@ -68203,13 +68180,13 @@
     </row>
     <row r="603">
       <c r="A603" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B603" t="s" s="2">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C603" t="s" s="2">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D603" s="2"/>
       <c r="E603" t="s" s="2">
@@ -68308,13 +68285,13 @@
     </row>
     <row r="604">
       <c r="A604" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B604" t="s" s="2">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C604" t="s" s="2">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D604" s="2"/>
       <c r="E604" t="s" s="2">
@@ -68413,13 +68390,13 @@
     </row>
     <row r="605">
       <c r="A605" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B605" t="s" s="2">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C605" t="s" s="2">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D605" s="2"/>
       <c r="E605" t="s" s="2">
@@ -68518,13 +68495,13 @@
     </row>
     <row r="606">
       <c r="A606" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B606" t="s" s="2">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C606" t="s" s="2">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D606" s="2"/>
       <c r="E606" t="s" s="2">
@@ -68623,17 +68600,17 @@
     </row>
     <row r="607">
       <c r="A607" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B607" t="s" s="2">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C607" t="s" s="2">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D607" s="2"/>
       <c r="E607" t="s" s="2">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F607" s="2"/>
       <c r="G607" t="s" s="2">
@@ -68655,10 +68632,10 @@
         <v>187</v>
       </c>
       <c r="M607" t="s" s="2">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="N607" t="s" s="2">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="O607" t="s" s="2">
         <v>668</v>
@@ -68728,13 +68705,13 @@
     </row>
     <row r="608">
       <c r="A608" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B608" t="s" s="2">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C608" t="s" s="2">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D608" s="2"/>
       <c r="E608" t="s" s="2">
@@ -68763,7 +68740,7 @@
         <v>65</v>
       </c>
       <c r="N608" t="s" s="2">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="O608" t="s" s="2">
         <v>67</v>
@@ -68833,13 +68810,13 @@
     </row>
     <row r="609">
       <c r="A609" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B609" t="s" s="2">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C609" t="s" s="2">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D609" s="2"/>
       <c r="E609" t="s" s="2">
@@ -68936,13 +68913,13 @@
     </row>
     <row r="610">
       <c r="A610" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B610" t="s" s="2">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C610" t="s" s="2">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="D610" s="2"/>
       <c r="E610" t="s" s="2">
@@ -68968,16 +68945,16 @@
         <v>128</v>
       </c>
       <c r="M610" t="s" s="2">
+        <v>825</v>
+      </c>
+      <c r="N610" t="s" s="2">
+        <v>1076</v>
+      </c>
+      <c r="O610" t="s" s="2">
+        <v>826</v>
+      </c>
+      <c r="P610" t="s" s="2">
         <v>827</v>
-      </c>
-      <c r="N610" t="s" s="2">
-        <v>1078</v>
-      </c>
-      <c r="O610" t="s" s="2">
-        <v>828</v>
-      </c>
-      <c r="P610" t="s" s="2">
-        <v>829</v>
       </c>
       <c r="Q610" t="s" s="2">
         <v>37</v>
@@ -69026,7 +69003,7 @@
         <v>37</v>
       </c>
       <c r="AG610" t="s" s="2">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="AH610" t="s" s="2">
         <v>38</v>
@@ -69043,13 +69020,13 @@
     </row>
     <row r="611">
       <c r="A611" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B611" t="s" s="2">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C611" t="s" s="2">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D611" s="2"/>
       <c r="E611" t="s" s="2">
@@ -69075,10 +69052,10 @@
         <v>128</v>
       </c>
       <c r="M611" t="s" s="2">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="N611" t="s" s="2">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="O611" s="2"/>
       <c r="P611" s="2"/>
@@ -69129,7 +69106,7 @@
         <v>37</v>
       </c>
       <c r="AG611" t="s" s="2">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="AH611" t="s" s="2">
         <v>38</v>
@@ -69146,13 +69123,13 @@
     </row>
     <row r="612">
       <c r="A612" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B612" t="s" s="2">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C612" t="s" s="2">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D612" s="2"/>
       <c r="E612" t="s" s="2">
@@ -69178,13 +69155,13 @@
         <v>119</v>
       </c>
       <c r="M612" t="s" s="2">
+        <v>834</v>
+      </c>
+      <c r="N612" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="O612" t="s" s="2">
         <v>836</v>
-      </c>
-      <c r="N612" t="s" s="2">
-        <v>837</v>
-      </c>
-      <c r="O612" t="s" s="2">
-        <v>838</v>
       </c>
       <c r="P612" s="2"/>
       <c r="Q612" t="s" s="2">
@@ -69195,7 +69172,7 @@
         <v>37</v>
       </c>
       <c r="T612" t="s" s="2">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="U612" t="s" s="2">
         <v>37</v>
@@ -69213,10 +69190,10 @@
         <v>137</v>
       </c>
       <c r="Z612" t="s" s="2">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="AA612" t="s" s="2">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="AB612" t="s" s="2">
         <v>37</v>
@@ -69234,7 +69211,7 @@
         <v>37</v>
       </c>
       <c r="AG612" t="s" s="2">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AH612" t="s" s="2">
         <v>44</v>
@@ -69251,13 +69228,13 @@
     </row>
     <row r="613">
       <c r="A613" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B613" t="s" s="2">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C613" t="s" s="2">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D613" s="2"/>
       <c r="E613" t="s" s="2">
@@ -69283,13 +69260,13 @@
         <v>119</v>
       </c>
       <c r="M613" t="s" s="2">
+        <v>839</v>
+      </c>
+      <c r="N613" t="s" s="2">
+        <v>840</v>
+      </c>
+      <c r="O613" t="s" s="2">
         <v>841</v>
-      </c>
-      <c r="N613" t="s" s="2">
-        <v>842</v>
-      </c>
-      <c r="O613" t="s" s="2">
-        <v>843</v>
       </c>
       <c r="P613" s="2"/>
       <c r="Q613" t="s" s="2">
@@ -69318,10 +69295,10 @@
         <v>137</v>
       </c>
       <c r="Z613" t="s" s="2">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="AA613" t="s" s="2">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="AB613" t="s" s="2">
         <v>37</v>
@@ -69339,7 +69316,7 @@
         <v>37</v>
       </c>
       <c r="AG613" t="s" s="2">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="AH613" t="s" s="2">
         <v>38</v>
@@ -69356,13 +69333,13 @@
     </row>
     <row r="614">
       <c r="A614" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B614" t="s" s="2">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C614" t="s" s="2">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D614" s="2"/>
       <c r="E614" t="s" s="2">
@@ -69388,13 +69365,13 @@
         <v>714</v>
       </c>
       <c r="M614" t="s" s="2">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="N614" t="s" s="2">
+        <v>845</v>
+      </c>
+      <c r="O614" t="s" s="2">
         <v>847</v>
-      </c>
-      <c r="O614" t="s" s="2">
-        <v>849</v>
       </c>
       <c r="P614" s="2"/>
       <c r="Q614" t="s" s="2">
@@ -69423,10 +69400,10 @@
         <v>123</v>
       </c>
       <c r="Z614" t="s" s="2">
-        <v>850</v>
+        <v>1081</v>
       </c>
       <c r="AA614" t="s" s="2">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="AB614" t="s" s="2">
         <v>37</v>
@@ -69444,7 +69421,7 @@
         <v>37</v>
       </c>
       <c r="AG614" t="s" s="2">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="AH614" t="s" s="2">
         <v>38</v>
@@ -69456,22 +69433,22 @@
         <v>37</v>
       </c>
       <c r="AK614" t="s" s="2">
-        <v>852</v>
+        <v>849</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B615" t="s" s="2">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C615" t="s" s="2">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="D615" s="2"/>
       <c r="E615" t="s" s="2">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="F615" s="2"/>
       <c r="G615" t="s" s="2">
@@ -69493,13 +69470,13 @@
         <v>714</v>
       </c>
       <c r="M615" t="s" s="2">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="N615" t="s" s="2">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="O615" t="s" s="2">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="P615" s="2"/>
       <c r="Q615" t="s" s="2">
@@ -69528,10 +69505,10 @@
         <v>123</v>
       </c>
       <c r="Z615" t="s" s="2">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="AA615" t="s" s="2">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="AB615" t="s" s="2">
         <v>37</v>
@@ -69549,7 +69526,7 @@
         <v>37</v>
       </c>
       <c r="AG615" t="s" s="2">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="AH615" t="s" s="2">
         <v>38</v>
@@ -69561,18 +69538,18 @@
         <v>37</v>
       </c>
       <c r="AK615" t="s" s="2">
-        <v>860</v>
+        <v>857</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B616" t="s" s="2">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C616" t="s" s="2">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D616" s="2"/>
       <c r="E616" t="s" s="2">
@@ -69595,13 +69572,13 @@
         <v>45</v>
       </c>
       <c r="L616" t="s" s="2">
-        <v>1083</v>
+        <v>722</v>
       </c>
       <c r="M616" t="s" s="2">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="N616" t="s" s="2">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="O616" s="2"/>
       <c r="P616" s="2"/>
@@ -69652,7 +69629,7 @@
         <v>37</v>
       </c>
       <c r="AG616" t="s" s="2">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="AH616" t="s" s="2">
         <v>38</v>
@@ -69669,17 +69646,17 @@
     </row>
     <row r="617">
       <c r="A617" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B617" t="s" s="2">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="C617" t="s" s="2">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="D617" s="2"/>
       <c r="E617" t="s" s="2">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="F617" s="2"/>
       <c r="G617" t="s" s="2">
@@ -69701,13 +69678,13 @@
         <v>79</v>
       </c>
       <c r="M617" t="s" s="2">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="N617" t="s" s="2">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="O617" t="s" s="2">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="P617" s="2"/>
       <c r="Q617" t="s" s="2">
@@ -69757,7 +69734,7 @@
         <v>37</v>
       </c>
       <c r="AG617" t="s" s="2">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="AH617" t="s" s="2">
         <v>38</v>
@@ -69774,13 +69751,13 @@
     </row>
     <row r="618">
       <c r="A618" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B618" t="s" s="2">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="C618" t="s" s="2">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="D618" s="2"/>
       <c r="E618" t="s" s="2">
@@ -69803,16 +69780,16 @@
         <v>45</v>
       </c>
       <c r="L618" t="s" s="2">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="M618" t="s" s="2">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="N618" t="s" s="2">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="O618" t="s" s="2">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="P618" s="2"/>
       <c r="Q618" t="s" s="2">
@@ -69862,7 +69839,7 @@
         <v>37</v>
       </c>
       <c r="AG618" t="s" s="2">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="AH618" t="s" s="2">
         <v>38</v>
@@ -69874,18 +69851,18 @@
         <v>37</v>
       </c>
       <c r="AK618" t="s" s="2">
-        <v>875</v>
+        <v>872</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B619" t="s" s="2">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="C619" t="s" s="2">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="D619" s="2"/>
       <c r="E619" t="s" s="2">
@@ -69911,13 +69888,13 @@
         <v>557</v>
       </c>
       <c r="M619" t="s" s="2">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="N619" t="s" s="2">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="O619" t="s" s="2">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="P619" s="2"/>
       <c r="Q619" t="s" s="2">
@@ -69967,7 +69944,7 @@
         <v>37</v>
       </c>
       <c r="AG619" t="s" s="2">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="AH619" t="s" s="2">
         <v>38</v>
@@ -69979,18 +69956,18 @@
         <v>37</v>
       </c>
       <c r="AK619" t="s" s="2">
-        <v>881</v>
+        <v>878</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B620" t="s" s="2">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="C620" t="s" s="2">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="D620" s="2"/>
       <c r="E620" t="s" s="2">
@@ -70013,16 +69990,16 @@
         <v>37</v>
       </c>
       <c r="L620" t="s" s="2">
+        <v>880</v>
+      </c>
+      <c r="M620" t="s" s="2">
+        <v>881</v>
+      </c>
+      <c r="N620" t="s" s="2">
+        <v>882</v>
+      </c>
+      <c r="O620" t="s" s="2">
         <v>883</v>
-      </c>
-      <c r="M620" t="s" s="2">
-        <v>884</v>
-      </c>
-      <c r="N620" t="s" s="2">
-        <v>885</v>
-      </c>
-      <c r="O620" t="s" s="2">
-        <v>886</v>
       </c>
       <c r="P620" s="2"/>
       <c r="Q620" t="s" s="2">
@@ -70072,7 +70049,7 @@
         <v>37</v>
       </c>
       <c r="AG620" t="s" s="2">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="AH620" t="s" s="2">
         <v>38</v>
@@ -70089,13 +70066,13 @@
     </row>
     <row r="621">
       <c r="A621" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B621" t="s" s="2">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="C621" t="s" s="2">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="D621" s="2"/>
       <c r="E621" t="s" s="2">
@@ -70121,13 +70098,13 @@
         <v>151</v>
       </c>
       <c r="M621" t="s" s="2">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="N621" t="s" s="2">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="O621" t="s" s="2">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="P621" s="2"/>
       <c r="Q621" t="s" s="2">
@@ -70177,7 +70154,7 @@
         <v>37</v>
       </c>
       <c r="AG621" t="s" s="2">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="AH621" t="s" s="2">
         <v>38</v>
@@ -70194,13 +70171,13 @@
     </row>
     <row r="622">
       <c r="A622" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B622" t="s" s="2">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="C622" t="s" s="2">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="D622" s="2"/>
       <c r="E622" t="s" s="2">
@@ -70297,13 +70274,13 @@
     </row>
     <row r="623">
       <c r="A623" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B623" t="s" s="2">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="C623" t="s" s="2">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="D623" s="2"/>
       <c r="E623" t="s" s="2">
@@ -70402,13 +70379,13 @@
     </row>
     <row r="624">
       <c r="A624" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B624" t="s" s="2">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="C624" t="s" s="2">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="D624" s="2"/>
       <c r="E624" t="s" s="2">
@@ -70509,13 +70486,13 @@
     </row>
     <row r="625">
       <c r="A625" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B625" t="s" s="2">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="C625" t="s" s="2">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="D625" s="2"/>
       <c r="E625" t="s" s="2">
@@ -70541,13 +70518,13 @@
         <v>119</v>
       </c>
       <c r="M625" t="s" s="2">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="N625" t="s" s="2">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="O625" t="s" s="2">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="P625" s="2"/>
       <c r="Q625" t="s" s="2">
@@ -70576,10 +70553,10 @@
         <v>137</v>
       </c>
       <c r="Z625" t="s" s="2">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="AA625" t="s" s="2">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="AB625" t="s" s="2">
         <v>37</v>
@@ -70597,7 +70574,7 @@
         <v>37</v>
       </c>
       <c r="AG625" t="s" s="2">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="AH625" t="s" s="2">
         <v>44</v>
@@ -70614,13 +70591,13 @@
     </row>
     <row r="626">
       <c r="A626" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B626" t="s" s="2">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="C626" t="s" s="2">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="D626" s="2"/>
       <c r="E626" t="s" s="2">
@@ -70643,13 +70620,13 @@
         <v>45</v>
       </c>
       <c r="L626" t="s" s="2">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="M626" t="s" s="2">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="N626" t="s" s="2">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="O626" s="2"/>
       <c r="P626" s="2"/>
@@ -70700,7 +70677,7 @@
         <v>37</v>
       </c>
       <c r="AG626" t="s" s="2">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="AH626" t="s" s="2">
         <v>44</v>
@@ -70717,13 +70694,13 @@
     </row>
     <row r="627">
       <c r="A627" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B627" t="s" s="2">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C627" t="s" s="2">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="D627" s="2"/>
       <c r="E627" t="s" s="2">
@@ -70749,16 +70726,16 @@
         <v>58</v>
       </c>
       <c r="M627" t="s" s="2">
+        <v>904</v>
+      </c>
+      <c r="N627" t="s" s="2">
+        <v>905</v>
+      </c>
+      <c r="O627" t="s" s="2">
+        <v>906</v>
+      </c>
+      <c r="P627" t="s" s="2">
         <v>907</v>
-      </c>
-      <c r="N627" t="s" s="2">
-        <v>908</v>
-      </c>
-      <c r="O627" t="s" s="2">
-        <v>909</v>
-      </c>
-      <c r="P627" t="s" s="2">
-        <v>910</v>
       </c>
       <c r="Q627" t="s" s="2">
         <v>37</v>
@@ -70807,7 +70784,7 @@
         <v>37</v>
       </c>
       <c r="AG627" t="s" s="2">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="AH627" t="s" s="2">
         <v>38</v>
@@ -70824,13 +70801,13 @@
     </row>
     <row r="628">
       <c r="A628" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B628" t="s" s="2">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="C628" t="s" s="2">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="D628" s="2"/>
       <c r="E628" t="s" s="2">
@@ -70856,16 +70833,16 @@
         <v>714</v>
       </c>
       <c r="M628" t="s" s="2">
+        <v>909</v>
+      </c>
+      <c r="N628" t="s" s="2">
+        <v>910</v>
+      </c>
+      <c r="O628" t="s" s="2">
+        <v>911</v>
+      </c>
+      <c r="P628" t="s" s="2">
         <v>912</v>
-      </c>
-      <c r="N628" t="s" s="2">
-        <v>913</v>
-      </c>
-      <c r="O628" t="s" s="2">
-        <v>914</v>
-      </c>
-      <c r="P628" t="s" s="2">
-        <v>915</v>
       </c>
       <c r="Q628" t="s" s="2">
         <v>37</v>
@@ -70914,7 +70891,7 @@
         <v>37</v>
       </c>
       <c r="AG628" t="s" s="2">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="AH628" t="s" s="2">
         <v>38</v>
@@ -70926,18 +70903,18 @@
         <v>37</v>
       </c>
       <c r="AK628" t="s" s="2">
-        <v>916</v>
+        <v>913</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B629" t="s" s="2">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="C629" t="s" s="2">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="D629" s="2"/>
       <c r="E629" t="s" s="2">
@@ -70963,10 +70940,10 @@
         <v>151</v>
       </c>
       <c r="M629" t="s" s="2">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="N629" t="s" s="2">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="O629" s="2"/>
       <c r="P629" s="2"/>
@@ -71017,7 +70994,7 @@
         <v>37</v>
       </c>
       <c r="AG629" t="s" s="2">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="AH629" t="s" s="2">
         <v>44</v>
@@ -71034,13 +71011,13 @@
     </row>
     <row r="630">
       <c r="A630" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B630" t="s" s="2">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="C630" t="s" s="2">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="D630" s="2"/>
       <c r="E630" t="s" s="2">
@@ -71137,13 +71114,13 @@
     </row>
     <row r="631">
       <c r="A631" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B631" t="s" s="2">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="C631" t="s" s="2">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="D631" s="2"/>
       <c r="E631" t="s" s="2">
@@ -71242,13 +71219,13 @@
     </row>
     <row r="632">
       <c r="A632" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B632" t="s" s="2">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="C632" t="s" s="2">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="D632" s="2"/>
       <c r="E632" t="s" s="2">
@@ -71349,13 +71326,13 @@
     </row>
     <row r="633">
       <c r="A633" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B633" t="s" s="2">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="C633" t="s" s="2">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="D633" s="2"/>
       <c r="E633" t="s" s="2">
@@ -71378,13 +71355,13 @@
         <v>45</v>
       </c>
       <c r="L633" t="s" s="2">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="M633" t="s" s="2">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="N633" t="s" s="2">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="O633" s="2"/>
       <c r="P633" s="2"/>
@@ -71435,7 +71412,7 @@
         <v>37</v>
       </c>
       <c r="AG633" t="s" s="2">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="AH633" t="s" s="2">
         <v>44</v>
@@ -71452,13 +71429,13 @@
     </row>
     <row r="634">
       <c r="A634" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B634" t="s" s="2">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C634" t="s" s="2">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="D634" s="2"/>
       <c r="E634" t="s" s="2">
@@ -71555,13 +71532,13 @@
     </row>
     <row r="635">
       <c r="A635" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B635" t="s" s="2">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="C635" t="s" s="2">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="D635" s="2"/>
       <c r="E635" t="s" s="2">
@@ -71660,13 +71637,13 @@
     </row>
     <row r="636">
       <c r="A636" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B636" t="s" s="2">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="C636" t="s" s="2">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="D636" s="2"/>
       <c r="E636" t="s" s="2">
@@ -71692,14 +71669,14 @@
         <v>119</v>
       </c>
       <c r="M636" t="s" s="2">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="N636" t="s" s="2">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="O636" s="2"/>
       <c r="P636" t="s" s="2">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="Q636" t="s" s="2">
         <v>37</v>
@@ -71712,7 +71689,7 @@
         <v>37</v>
       </c>
       <c r="U636" t="s" s="2">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="V636" t="s" s="2">
         <v>37</v>
@@ -71727,10 +71704,10 @@
         <v>137</v>
       </c>
       <c r="Z636" t="s" s="2">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="AA636" t="s" s="2">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="AB636" t="s" s="2">
         <v>37</v>
@@ -71748,7 +71725,7 @@
         <v>37</v>
       </c>
       <c r="AG636" t="s" s="2">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="AH636" t="s" s="2">
         <v>38</v>
@@ -71765,13 +71742,13 @@
     </row>
     <row r="637">
       <c r="A637" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B637" t="s" s="2">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="C637" t="s" s="2">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="D637" s="2"/>
       <c r="E637" t="s" s="2">
@@ -71797,14 +71774,14 @@
         <v>119</v>
       </c>
       <c r="M637" t="s" s="2">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="N637" t="s" s="2">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="O637" s="2"/>
       <c r="P637" t="s" s="2">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="Q637" t="s" s="2">
         <v>37</v>
@@ -71817,7 +71794,7 @@
         <v>37</v>
       </c>
       <c r="U637" t="s" s="2">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="V637" t="s" s="2">
         <v>37</v>
@@ -71853,7 +71830,7 @@
         <v>37</v>
       </c>
       <c r="AG637" t="s" s="2">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="AH637" t="s" s="2">
         <v>38</v>
@@ -71870,13 +71847,13 @@
     </row>
     <row r="638">
       <c r="A638" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B638" t="s" s="2">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="C638" t="s" s="2">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="D638" s="2"/>
       <c r="E638" t="s" s="2">
@@ -71899,19 +71876,19 @@
         <v>37</v>
       </c>
       <c r="L638" t="s" s="2">
+        <v>941</v>
+      </c>
+      <c r="M638" t="s" s="2">
+        <v>1090</v>
+      </c>
+      <c r="N638" t="s" s="2">
+        <v>943</v>
+      </c>
+      <c r="O638" t="s" s="2">
         <v>944</v>
       </c>
-      <c r="M638" t="s" s="2">
-        <v>1092</v>
-      </c>
-      <c r="N638" t="s" s="2">
-        <v>946</v>
-      </c>
-      <c r="O638" t="s" s="2">
-        <v>947</v>
-      </c>
       <c r="P638" t="s" s="2">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="Q638" t="s" s="2">
         <v>37</v>
@@ -71960,7 +71937,7 @@
         <v>37</v>
       </c>
       <c r="AG638" t="s" s="2">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="AH638" t="s" s="2">
         <v>38</v>
@@ -71977,13 +71954,13 @@
     </row>
     <row r="639">
       <c r="A639" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B639" t="s" s="2">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="C639" t="s" s="2">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D639" s="2"/>
       <c r="E639" t="s" s="2">
@@ -72006,19 +71983,19 @@
         <v>45</v>
       </c>
       <c r="L639" t="s" s="2">
+        <v>948</v>
+      </c>
+      <c r="M639" t="s" s="2">
+        <v>1091</v>
+      </c>
+      <c r="N639" t="s" s="2">
+        <v>950</v>
+      </c>
+      <c r="O639" t="s" s="2">
         <v>951</v>
       </c>
-      <c r="M639" t="s" s="2">
-        <v>1093</v>
-      </c>
-      <c r="N639" t="s" s="2">
-        <v>953</v>
-      </c>
-      <c r="O639" t="s" s="2">
-        <v>954</v>
-      </c>
       <c r="P639" t="s" s="2">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="Q639" t="s" s="2">
         <v>37</v>
@@ -72031,7 +72008,7 @@
         <v>37</v>
       </c>
       <c r="U639" t="s" s="2">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="V639" t="s" s="2">
         <v>37</v>
@@ -72067,7 +72044,7 @@
         <v>37</v>
       </c>
       <c r="AG639" t="s" s="2">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="AH639" t="s" s="2">
         <v>38</v>
@@ -72084,13 +72061,13 @@
     </row>
     <row r="640">
       <c r="A640" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B640" t="s" s="2">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="C640" t="s" s="2">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="D640" s="2"/>
       <c r="E640" t="s" s="2">
@@ -72116,16 +72093,16 @@
         <v>145</v>
       </c>
       <c r="M640" t="s" s="2">
+        <v>957</v>
+      </c>
+      <c r="N640" t="s" s="2">
+        <v>958</v>
+      </c>
+      <c r="O640" t="s" s="2">
+        <v>959</v>
+      </c>
+      <c r="P640" t="s" s="2">
         <v>960</v>
-      </c>
-      <c r="N640" t="s" s="2">
-        <v>961</v>
-      </c>
-      <c r="O640" t="s" s="2">
-        <v>962</v>
-      </c>
-      <c r="P640" t="s" s="2">
-        <v>963</v>
       </c>
       <c r="Q640" t="s" s="2">
         <v>37</v>
@@ -72174,7 +72151,7 @@
         <v>37</v>
       </c>
       <c r="AG640" t="s" s="2">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="AH640" t="s" s="2">
         <v>38</v>
@@ -72191,13 +72168,13 @@
     </row>
     <row r="641">
       <c r="A641" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B641" t="s" s="2">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="C641" t="s" s="2">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="D641" s="2"/>
       <c r="E641" t="s" s="2">
@@ -72220,19 +72197,19 @@
         <v>45</v>
       </c>
       <c r="L641" t="s" s="2">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="M641" t="s" s="2">
+        <v>963</v>
+      </c>
+      <c r="N641" t="s" s="2">
+        <v>964</v>
+      </c>
+      <c r="O641" t="s" s="2">
+        <v>965</v>
+      </c>
+      <c r="P641" t="s" s="2">
         <v>966</v>
-      </c>
-      <c r="N641" t="s" s="2">
-        <v>967</v>
-      </c>
-      <c r="O641" t="s" s="2">
-        <v>968</v>
-      </c>
-      <c r="P641" t="s" s="2">
-        <v>969</v>
       </c>
       <c r="Q641" t="s" s="2">
         <v>37</v>
@@ -72281,7 +72258,7 @@
         <v>37</v>
       </c>
       <c r="AG641" t="s" s="2">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="AH641" t="s" s="2">
         <v>38</v>
@@ -72298,13 +72275,13 @@
     </row>
     <row r="642">
       <c r="A642" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B642" t="s" s="2">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="C642" t="s" s="2">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="D642" s="2"/>
       <c r="E642" t="s" s="2">
@@ -72330,14 +72307,14 @@
         <v>58</v>
       </c>
       <c r="M642" t="s" s="2">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="N642" t="s" s="2">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="O642" s="2"/>
       <c r="P642" t="s" s="2">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="Q642" t="s" s="2">
         <v>37</v>
@@ -72350,7 +72327,7 @@
         <v>37</v>
       </c>
       <c r="U642" t="s" s="2">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="V642" t="s" s="2">
         <v>37</v>
@@ -72386,7 +72363,7 @@
         <v>37</v>
       </c>
       <c r="AG642" t="s" s="2">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="AH642" t="s" s="2">
         <v>38</v>
@@ -72403,13 +72380,13 @@
     </row>
     <row r="643">
       <c r="A643" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B643" t="s" s="2">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="C643" t="s" s="2">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="D643" s="2"/>
       <c r="E643" t="s" s="2">
@@ -72435,14 +72412,14 @@
         <v>732</v>
       </c>
       <c r="M643" t="s" s="2">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="N643" t="s" s="2">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="O643" s="2"/>
       <c r="P643" t="s" s="2">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="Q643" t="s" s="2">
         <v>37</v>
@@ -72491,7 +72468,7 @@
         <v>37</v>
       </c>
       <c r="AG643" t="s" s="2">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="AH643" t="s" s="2">
         <v>38</v>
@@ -72508,13 +72485,13 @@
     </row>
     <row r="644">
       <c r="A644" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B644" t="s" s="2">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="C644" t="s" s="2">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D644" s="2"/>
       <c r="E644" t="s" s="2">
@@ -72540,13 +72517,13 @@
         <v>97</v>
       </c>
       <c r="M644" t="s" s="2">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="N644" t="s" s="2">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="O644" t="s" s="2">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="P644" s="2"/>
       <c r="Q644" t="s" s="2">
@@ -72575,10 +72552,10 @@
         <v>123</v>
       </c>
       <c r="Z644" t="s" s="2">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="AA644" t="s" s="2">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="AB644" t="s" s="2">
         <v>37</v>
@@ -72596,7 +72573,7 @@
         <v>37</v>
       </c>
       <c r="AG644" t="s" s="2">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="AH644" t="s" s="2">
         <v>38</v>
@@ -72608,18 +72585,18 @@
         <v>37</v>
       </c>
       <c r="AK644" t="s" s="2">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B645" t="s" s="2">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="C645" t="s" s="2">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="D645" s="2"/>
       <c r="E645" t="s" s="2">
@@ -72645,13 +72622,13 @@
         <v>151</v>
       </c>
       <c r="M645" t="s" s="2">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="N645" t="s" s="2">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="O645" t="s" s="2">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="P645" s="2"/>
       <c r="Q645" t="s" s="2">
@@ -72701,7 +72678,7 @@
         <v>37</v>
       </c>
       <c r="AG645" t="s" s="2">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="AH645" t="s" s="2">
         <v>38</v>
@@ -72718,13 +72695,13 @@
     </row>
     <row r="646">
       <c r="A646" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B646" t="s" s="2">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="C646" t="s" s="2">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="D646" s="2"/>
       <c r="E646" t="s" s="2">
@@ -72821,13 +72798,13 @@
     </row>
     <row r="647">
       <c r="A647" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B647" t="s" s="2">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="C647" t="s" s="2">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="D647" s="2"/>
       <c r="E647" t="s" s="2">
@@ -72926,13 +72903,13 @@
     </row>
     <row r="648">
       <c r="A648" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B648" t="s" s="2">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="C648" t="s" s="2">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="D648" s="2"/>
       <c r="E648" t="s" s="2">
@@ -73033,13 +73010,13 @@
     </row>
     <row r="649">
       <c r="A649" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B649" t="s" s="2">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="C649" t="s" s="2">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="D649" s="2"/>
       <c r="E649" t="s" s="2">
@@ -73062,13 +73039,13 @@
         <v>37</v>
       </c>
       <c r="L649" t="s" s="2">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="M649" t="s" s="2">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="N649" t="s" s="2">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="O649" s="2"/>
       <c r="P649" s="2"/>
@@ -73119,7 +73096,7 @@
         <v>37</v>
       </c>
       <c r="AG649" t="s" s="2">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="AH649" t="s" s="2">
         <v>38</v>
@@ -73136,13 +73113,13 @@
     </row>
     <row r="650">
       <c r="A650" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B650" t="s" s="2">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="C650" t="s" s="2">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="D650" s="2"/>
       <c r="E650" t="s" s="2">
@@ -73168,13 +73145,13 @@
         <v>714</v>
       </c>
       <c r="M650" t="s" s="2">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="N650" t="s" s="2">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="O650" t="s" s="2">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="P650" s="2"/>
       <c r="Q650" t="s" s="2">
@@ -73203,10 +73180,10 @@
         <v>109</v>
       </c>
       <c r="Z650" t="s" s="2">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="AA650" t="s" s="2">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="AB650" t="s" s="2">
         <v>37</v>
@@ -73224,7 +73201,7 @@
         <v>37</v>
       </c>
       <c r="AG650" t="s" s="2">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="AH650" t="s" s="2">
         <v>38</v>
@@ -73236,18 +73213,18 @@
         <v>37</v>
       </c>
       <c r="AK650" t="s" s="2">
-        <v>1006</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B651" t="s" s="2">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="C651" t="s" s="2">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="D651" s="2"/>
       <c r="E651" t="s" s="2">
@@ -73270,13 +73247,13 @@
         <v>45</v>
       </c>
       <c r="L651" t="s" s="2">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="M651" t="s" s="2">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="N651" t="s" s="2">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="O651" s="2"/>
       <c r="P651" s="2"/>
@@ -73327,7 +73304,7 @@
         <v>37</v>
       </c>
       <c r="AG651" t="s" s="2">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="AH651" t="s" s="2">
         <v>38</v>
@@ -73344,13 +73321,13 @@
     </row>
     <row r="652">
       <c r="A652" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B652" t="s" s="2">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="C652" t="s" s="2">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="D652" s="2"/>
       <c r="E652" t="s" s="2">
@@ -73376,10 +73353,10 @@
         <v>714</v>
       </c>
       <c r="M652" t="s" s="2">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="N652" t="s" s="2">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="O652" s="2"/>
       <c r="P652" s="2"/>
@@ -73409,10 +73386,10 @@
         <v>123</v>
       </c>
       <c r="Z652" t="s" s="2">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="AA652" t="s" s="2">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="AB652" t="s" s="2">
         <v>37</v>
@@ -73430,7 +73407,7 @@
         <v>37</v>
       </c>
       <c r="AG652" t="s" s="2">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="AH652" t="s" s="2">
         <v>38</v>
@@ -73442,18 +73419,18 @@
         <v>37</v>
       </c>
       <c r="AK652" t="s" s="2">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B653" t="s" s="2">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="C653" t="s" s="2">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="D653" s="2"/>
       <c r="E653" t="s" s="2">
@@ -73479,16 +73456,16 @@
         <v>714</v>
       </c>
       <c r="M653" t="s" s="2">
+        <v>1029</v>
+      </c>
+      <c r="N653" t="s" s="2">
+        <v>1030</v>
+      </c>
+      <c r="O653" t="s" s="2">
+        <v>1031</v>
+      </c>
+      <c r="P653" t="s" s="2">
         <v>1032</v>
-      </c>
-      <c r="N653" t="s" s="2">
-        <v>1033</v>
-      </c>
-      <c r="O653" t="s" s="2">
-        <v>1034</v>
-      </c>
-      <c r="P653" t="s" s="2">
-        <v>1035</v>
       </c>
       <c r="Q653" t="s" s="2">
         <v>37</v>
@@ -73516,10 +73493,10 @@
         <v>123</v>
       </c>
       <c r="Z653" t="s" s="2">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="AA653" t="s" s="2">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="AB653" t="s" s="2">
         <v>37</v>
@@ -73537,7 +73514,7 @@
         <v>37</v>
       </c>
       <c r="AG653" t="s" s="2">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="AH653" t="s" s="2">
         <v>38</v>
@@ -73549,18 +73526,18 @@
         <v>37</v>
       </c>
       <c r="AK653" t="s" s="2">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B654" t="s" s="2">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="C654" t="s" s="2">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="D654" s="2"/>
       <c r="E654" t="s" s="2">
@@ -73583,13 +73560,13 @@
         <v>37</v>
       </c>
       <c r="L654" t="s" s="2">
-        <v>722</v>
+        <v>1036</v>
       </c>
       <c r="M654" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="N654" t="s" s="2">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="O654" s="2"/>
       <c r="P654" s="2"/>
@@ -73640,7 +73617,7 @@
         <v>37</v>
       </c>
       <c r="AG654" t="s" s="2">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="AH654" t="s" s="2">
         <v>38</v>
@@ -73657,13 +73634,13 @@
     </row>
     <row r="655">
       <c r="A655" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B655" t="s" s="2">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C655" t="s" s="2">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="D655" s="2"/>
       <c r="E655" t="s" s="2">
@@ -73686,16 +73663,16 @@
         <v>37</v>
       </c>
       <c r="L655" t="s" s="2">
+        <v>1065</v>
+      </c>
+      <c r="M655" t="s" s="2">
+        <v>1066</v>
+      </c>
+      <c r="N655" t="s" s="2">
         <v>1067</v>
       </c>
-      <c r="M655" t="s" s="2">
+      <c r="O655" t="s" s="2">
         <v>1068</v>
-      </c>
-      <c r="N655" t="s" s="2">
-        <v>1069</v>
-      </c>
-      <c r="O655" t="s" s="2">
-        <v>1070</v>
       </c>
       <c r="P655" s="2"/>
       <c r="Q655" t="s" s="2">
@@ -73745,7 +73722,7 @@
         <v>37</v>
       </c>
       <c r="AG655" t="s" s="2">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="AH655" t="s" s="2">
         <v>38</v>
@@ -73762,7 +73739,7 @@
     </row>
     <row r="656">
       <c r="A656" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B656" t="s" s="2">
         <v>645</v>
@@ -73865,7 +73842,7 @@
     </row>
     <row r="657">
       <c r="A657" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B657" t="s" s="2">
         <v>647</v>
@@ -73970,7 +73947,7 @@
     </row>
     <row r="658">
       <c r="A658" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B658" t="s" s="2">
         <v>648</v>
@@ -74073,7 +74050,7 @@
     </row>
     <row r="659">
       <c r="A659" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B659" t="s" s="2">
         <v>649</v>
@@ -74176,7 +74153,7 @@
     </row>
     <row r="660">
       <c r="A660" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B660" t="s" s="2">
         <v>650</v>
@@ -74281,7 +74258,7 @@
     </row>
     <row r="661">
       <c r="A661" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B661" t="s" s="2">
         <v>651</v>
@@ -74386,7 +74363,7 @@
     </row>
     <row r="662">
       <c r="A662" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B662" t="s" s="2">
         <v>652</v>
@@ -74491,7 +74468,7 @@
     </row>
     <row r="663">
       <c r="A663" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B663" t="s" s="2">
         <v>653</v>
@@ -74596,7 +74573,7 @@
     </row>
     <row r="664">
       <c r="A664" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B664" t="s" s="2">
         <v>654</v>
@@ -74701,7 +74678,7 @@
     </row>
     <row r="665">
       <c r="A665" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B665" t="s" s="2">
         <v>655</v>
@@ -74806,7 +74783,7 @@
     </row>
     <row r="666">
       <c r="A666" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B666" t="s" s="2">
         <v>656</v>
@@ -74911,7 +74888,7 @@
     </row>
     <row r="667">
       <c r="A667" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B667" t="s" s="2">
         <v>657</v>
@@ -75016,7 +74993,7 @@
     </row>
     <row r="668">
       <c r="A668" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B668" t="s" s="2">
         <v>658</v>
@@ -75121,7 +75098,7 @@
     </row>
     <row r="669">
       <c r="A669" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B669" t="s" s="2">
         <v>659</v>
@@ -75226,7 +75203,7 @@
     </row>
     <row r="670">
       <c r="A670" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B670" t="s" s="2">
         <v>666</v>
@@ -75236,7 +75213,7 @@
       </c>
       <c r="D670" s="2"/>
       <c r="E670" t="s" s="2">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F670" s="2"/>
       <c r="G670" t="s" s="2">
@@ -75255,13 +75232,13 @@
         <v>37</v>
       </c>
       <c r="L670" t="s" s="2">
-        <v>1102</v>
+        <v>187</v>
       </c>
       <c r="M670" t="s" s="2">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="N670" t="s" s="2">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="O670" t="s" s="2">
         <v>668</v>
@@ -75331,7 +75308,7 @@
     </row>
     <row r="671">
       <c r="A671" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B671" t="s" s="2">
         <v>671</v>
@@ -75345,7 +75322,7 @@
       </c>
       <c r="F671" s="2"/>
       <c r="G671" t="s" s="2">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="H671" t="s" s="2">
         <v>39</v>
@@ -75432,7 +75409,7 @@
     </row>
     <row r="672">
       <c r="A672" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B672" t="s" s="2">
         <v>673</v>
@@ -75466,7 +75443,7 @@
         <v>675</v>
       </c>
       <c r="M672" t="s" s="2">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="N672" t="s" s="2">
         <v>677</v>
@@ -75532,18 +75509,18 @@
         <v>548</v>
       </c>
       <c r="AK672" t="s" s="2">
-        <v>1105</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B673" t="s" s="2">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="C673" t="s" s="2">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="D673" s="2"/>
       <c r="E673" t="s" s="2">
@@ -75640,13 +75617,13 @@
     </row>
     <row r="674">
       <c r="A674" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B674" t="s" s="2">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="C674" t="s" s="2">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="D674" s="2"/>
       <c r="E674" t="s" s="2">
@@ -75743,13 +75720,13 @@
     </row>
     <row r="675">
       <c r="A675" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B675" t="s" s="2">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="C675" t="s" s="2">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="D675" s="2"/>
       <c r="E675" t="s" s="2">
@@ -75789,7 +75766,7 @@
       </c>
       <c r="R675" s="2"/>
       <c r="S675" t="s" s="2">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="T675" t="s" s="2">
         <v>37</v>
@@ -75848,13 +75825,13 @@
     </row>
     <row r="676">
       <c r="A676" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B676" t="s" s="2">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="C676" t="s" s="2">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="D676" s="2"/>
       <c r="E676" t="s" s="2">
@@ -75912,17 +75889,15 @@
       <c r="Y676" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="Z676" t="s" s="2">
-        <v>1115</v>
-      </c>
+      <c r="Z676" s="2"/>
       <c r="AA676" t="s" s="2">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="AB676" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AC676" t="s" s="2">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="AD676" s="2"/>
       <c r="AE676" t="s" s="2">
@@ -75949,16 +75924,16 @@
     </row>
     <row r="677">
       <c r="A677" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B677" t="s" s="2">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="C677" t="s" s="2">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="D677" t="s" s="2">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="E677" t="s" s="2">
         <v>37</v>
@@ -76054,16 +76029,16 @@
     </row>
     <row r="678">
       <c r="A678" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B678" t="s" s="2">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="C678" t="s" s="2">
         <v>671</v>
       </c>
       <c r="D678" t="s" s="2">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="E678" t="s" s="2">
         <v>37</v>
@@ -76085,13 +76060,13 @@
         <v>37</v>
       </c>
       <c r="L678" t="s" s="2">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="M678" t="s" s="2">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="N678" t="s" s="2">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="O678" s="2"/>
       <c r="P678" s="2"/>
@@ -76159,16 +76134,16 @@
     </row>
     <row r="679">
       <c r="A679" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B679" t="s" s="2">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="C679" t="s" s="2">
         <v>671</v>
       </c>
       <c r="D679" t="s" s="2">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="E679" t="s" s="2">
         <v>37</v>
@@ -76178,10 +76153,10 @@
         <v>38</v>
       </c>
       <c r="H679" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I679" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="J679" t="s" s="2">
         <v>37</v>
@@ -76190,13 +76165,13 @@
         <v>37</v>
       </c>
       <c r="L679" t="s" s="2">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="M679" t="s" s="2">
-        <v>1128</v>
+        <v>542</v>
       </c>
       <c r="N679" t="s" s="2">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="O679" s="2"/>
       <c r="P679" s="2"/>
@@ -76264,17 +76239,15 @@
     </row>
     <row r="680">
       <c r="A680" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B680" t="s" s="2">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="C680" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="D680" t="s" s="2">
-        <v>821</v>
-      </c>
+        <v>1104</v>
+      </c>
+      <c r="D680" s="2"/>
       <c r="E680" t="s" s="2">
         <v>37</v>
       </c>
@@ -76295,13 +76268,13 @@
         <v>37</v>
       </c>
       <c r="L680" t="s" s="2">
-        <v>822</v>
+        <v>58</v>
       </c>
       <c r="M680" t="s" s="2">
-        <v>1131</v>
+        <v>59</v>
       </c>
       <c r="N680" t="s" s="2">
-        <v>824</v>
+        <v>60</v>
       </c>
       <c r="O680" s="2"/>
       <c r="P680" s="2"/>
@@ -76352,34 +76325,32 @@
         <v>37</v>
       </c>
       <c r="AG680" t="s" s="2">
-        <v>672</v>
+        <v>61</v>
       </c>
       <c r="AH680" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI680" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AJ680" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AK680" t="s" s="2">
-        <v>72</v>
+        <v>37</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B681" t="s" s="2">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="C681" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="D681" t="s" s="2">
-        <v>541</v>
-      </c>
+        <v>1106</v>
+      </c>
+      <c r="D681" s="2"/>
       <c r="E681" t="s" s="2">
         <v>37</v>
       </c>
@@ -76388,10 +76359,10 @@
         <v>38</v>
       </c>
       <c r="H681" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I681" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J681" t="s" s="2">
         <v>37</v>
@@ -76400,13 +76371,13 @@
         <v>37</v>
       </c>
       <c r="L681" t="s" s="2">
-        <v>1133</v>
+        <v>64</v>
       </c>
       <c r="M681" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="N681" t="s" s="2">
-        <v>1134</v>
+        <v>551</v>
       </c>
       <c r="O681" s="2"/>
       <c r="P681" s="2"/>
@@ -76445,19 +76416,19 @@
         <v>37</v>
       </c>
       <c r="AC681" t="s" s="2">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="AD681" t="s" s="2">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="AE681" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AF681" t="s" s="2">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="AG681" t="s" s="2">
-        <v>672</v>
+        <v>71</v>
       </c>
       <c r="AH681" t="s" s="2">
         <v>38</v>
@@ -76474,13 +76445,13 @@
     </row>
     <row r="682">
       <c r="A682" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B682" t="s" s="2">
-        <v>1135</v>
+        <v>1127</v>
       </c>
       <c r="C682" t="s" s="2">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="D682" s="2"/>
       <c r="E682" t="s" s="2">
@@ -76488,7 +76459,7 @@
       </c>
       <c r="F682" s="2"/>
       <c r="G682" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H682" t="s" s="2">
         <v>44</v>
@@ -76503,22 +76474,24 @@
         <v>37</v>
       </c>
       <c r="L682" t="s" s="2">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="M682" t="s" s="2">
-        <v>59</v>
+        <v>553</v>
       </c>
       <c r="N682" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="O682" s="2"/>
+        <v>554</v>
+      </c>
+      <c r="O682" t="s" s="2">
+        <v>555</v>
+      </c>
       <c r="P682" s="2"/>
       <c r="Q682" t="s" s="2">
         <v>37</v>
       </c>
       <c r="R682" s="2"/>
       <c r="S682" t="s" s="2">
-        <v>37</v>
+        <v>1128</v>
       </c>
       <c r="T682" t="s" s="2">
         <v>37</v>
@@ -76560,10 +76533,10 @@
         <v>37</v>
       </c>
       <c r="AG682" t="s" s="2">
-        <v>61</v>
+        <v>552</v>
       </c>
       <c r="AH682" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AI682" t="s" s="2">
         <v>44</v>
@@ -76577,13 +76550,13 @@
     </row>
     <row r="683">
       <c r="A683" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B683" t="s" s="2">
-        <v>1136</v>
+        <v>1129</v>
       </c>
       <c r="C683" t="s" s="2">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="D683" s="2"/>
       <c r="E683" t="s" s="2">
@@ -76591,10 +76564,10 @@
       </c>
       <c r="F683" s="2"/>
       <c r="G683" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H683" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I683" t="s" s="2">
         <v>37</v>
@@ -76606,13 +76579,13 @@
         <v>37</v>
       </c>
       <c r="L683" t="s" s="2">
-        <v>64</v>
+        <v>1130</v>
       </c>
       <c r="M683" t="s" s="2">
-        <v>544</v>
+        <v>558</v>
       </c>
       <c r="N683" t="s" s="2">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="O683" s="2"/>
       <c r="P683" s="2"/>
@@ -76651,44 +76624,44 @@
         <v>37</v>
       </c>
       <c r="AC683" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AD683" t="s" s="2">
-        <v>69</v>
-      </c>
+        <v>1113</v>
+      </c>
+      <c r="AD683" s="2"/>
       <c r="AE683" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AF683" t="s" s="2">
-        <v>70</v>
+        <v>174</v>
       </c>
       <c r="AG683" t="s" s="2">
-        <v>71</v>
+        <v>556</v>
       </c>
       <c r="AH683" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI683" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AJ683" t="s" s="2">
-        <v>548</v>
+        <v>37</v>
       </c>
       <c r="AK683" t="s" s="2">
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B684" t="s" s="2">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="C684" t="s" s="2">
         <v>1111</v>
       </c>
-      <c r="D684" s="2"/>
+      <c r="D684" t="s" s="2">
+        <v>1132</v>
+      </c>
       <c r="E684" t="s" s="2">
         <v>37</v>
       </c>
@@ -76709,24 +76682,22 @@
         <v>37</v>
       </c>
       <c r="L684" t="s" s="2">
-        <v>85</v>
+        <v>1133</v>
       </c>
       <c r="M684" t="s" s="2">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="N684" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="O684" t="s" s="2">
-        <v>555</v>
-      </c>
+        <v>559</v>
+      </c>
+      <c r="O684" s="2"/>
       <c r="P684" s="2"/>
       <c r="Q684" t="s" s="2">
         <v>37</v>
       </c>
       <c r="R684" s="2"/>
       <c r="S684" t="s" s="2">
-        <v>540</v>
+        <v>37</v>
       </c>
       <c r="T684" t="s" s="2">
         <v>37</v>
@@ -76768,10 +76739,10 @@
         <v>37</v>
       </c>
       <c r="AG684" t="s" s="2">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="AH684" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AI684" t="s" s="2">
         <v>44</v>
@@ -76780,20 +76751,22 @@
         <v>37</v>
       </c>
       <c r="AK684" t="s" s="2">
-        <v>37</v>
+        <v>56</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B685" t="s" s="2">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="C685" t="s" s="2">
-        <v>1114</v>
-      </c>
-      <c r="D685" s="2"/>
+        <v>671</v>
+      </c>
+      <c r="D685" t="s" s="2">
+        <v>819</v>
+      </c>
       <c r="E685" t="s" s="2">
         <v>37</v>
       </c>
@@ -76814,13 +76787,13 @@
         <v>37</v>
       </c>
       <c r="L685" t="s" s="2">
-        <v>877</v>
+        <v>820</v>
       </c>
       <c r="M685" t="s" s="2">
-        <v>558</v>
+        <v>1135</v>
       </c>
       <c r="N685" t="s" s="2">
-        <v>559</v>
+        <v>822</v>
       </c>
       <c r="O685" s="2"/>
       <c r="P685" s="2"/>
@@ -76871,24 +76844,24 @@
         <v>37</v>
       </c>
       <c r="AG685" t="s" s="2">
-        <v>556</v>
+        <v>672</v>
       </c>
       <c r="AH685" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI685" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AJ685" t="s" s="2">
-        <v>548</v>
+        <v>37</v>
       </c>
       <c r="AK685" t="s" s="2">
-        <v>56</v>
+        <v>72</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B686" t="s" s="2">
         <v>679</v>
@@ -76991,7 +76964,7 @@
     </row>
     <row r="687">
       <c r="A687" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B687" t="s" s="2">
         <v>681</v>
@@ -77092,7 +77065,7 @@
     </row>
     <row r="688">
       <c r="A688" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B688" t="s" s="2">
         <v>685</v>
@@ -77123,10 +77096,10 @@
         <v>37</v>
       </c>
       <c r="L688" t="s" s="2">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="M688" t="s" s="2">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="N688" t="s" s="2">
         <v>689</v>
@@ -77197,7 +77170,7 @@
     </row>
     <row r="689">
       <c r="A689" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B689" t="s" s="2">
         <v>690</v>
@@ -77231,7 +77204,7 @@
         <v>692</v>
       </c>
       <c r="M689" t="s" s="2">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="N689" t="s" s="2">
         <v>689</v>
@@ -77302,7 +77275,7 @@
     </row>
     <row r="690">
       <c r="A690" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B690" t="s" s="2">
         <v>694</v>
@@ -77334,7 +77307,7 @@
         <v>119</v>
       </c>
       <c r="M690" t="s" s="2">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="N690" t="s" s="2">
         <v>696</v>
@@ -77351,7 +77324,7 @@
         <v>37</v>
       </c>
       <c r="T690" t="s" s="2">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="U690" t="s" s="2">
         <v>37</v>
@@ -77407,7 +77380,7 @@
     </row>
     <row r="691">
       <c r="A691" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B691" t="s" s="2">
         <v>700</v>
@@ -77439,7 +77412,7 @@
         <v>119</v>
       </c>
       <c r="M691" t="s" s="2">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="N691" t="s" s="2">
         <v>702</v>
@@ -77514,7 +77487,7 @@
     </row>
     <row r="692">
       <c r="A692" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B692" t="s" s="2">
         <v>708</v>
@@ -77546,7 +77519,7 @@
         <v>58</v>
       </c>
       <c r="M692" t="s" s="2">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="N692" t="s" s="2">
         <v>710</v>
@@ -77619,7 +77592,7 @@
     </row>
     <row r="693">
       <c r="A693" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B693" t="s" s="2">
         <v>713</v>
@@ -77651,7 +77624,7 @@
         <v>714</v>
       </c>
       <c r="M693" t="s" s="2">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="N693" t="s" s="2">
         <v>716</v>
@@ -77670,7 +77643,7 @@
         <v>37</v>
       </c>
       <c r="T693" t="s" s="2">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="U693" t="s" s="2">
         <v>37</v>
@@ -77724,7 +77697,7 @@
     </row>
     <row r="694">
       <c r="A694" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B694" t="s" s="2">
         <v>721</v>
@@ -77756,7 +77729,7 @@
         <v>722</v>
       </c>
       <c r="M694" t="s" s="2">
-        <v>1147</v>
+        <v>1037</v>
       </c>
       <c r="N694" t="s" s="2">
         <v>724</v>
@@ -77831,7 +77804,7 @@
     </row>
     <row r="695">
       <c r="A695" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B695" t="s" s="2">
         <v>727</v>
@@ -77934,7 +77907,7 @@
     </row>
     <row r="696">
       <c r="A696" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B696" t="s" s="2">
         <v>731</v>
@@ -77966,7 +77939,7 @@
         <v>732</v>
       </c>
       <c r="M696" t="s" s="2">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="N696" t="s" s="2">
         <v>734</v>
@@ -78041,7 +78014,7 @@
     </row>
     <row r="697">
       <c r="A697" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B697" t="s" s="2">
         <v>737</v>
@@ -78070,10 +78043,10 @@
         <v>45</v>
       </c>
       <c r="L697" t="s" s="2">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="M697" t="s" s="2">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="N697" t="s" s="2">
         <v>741</v>
@@ -78143,18 +78116,18 @@
         <v>37</v>
       </c>
       <c r="AK697" t="s" s="2">
-        <v>1150</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B698" t="s" s="2">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="C698" t="s" s="2">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="D698" s="2"/>
       <c r="E698" t="s" s="2">
@@ -78251,13 +78224,13 @@
     </row>
     <row r="699">
       <c r="A699" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B699" t="s" s="2">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="C699" t="s" s="2">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="D699" s="2"/>
       <c r="E699" t="s" s="2">
@@ -78356,16 +78329,16 @@
     </row>
     <row r="700">
       <c r="A700" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B700" t="s" s="2">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="C700" t="s" s="2">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="D700" t="s" s="2">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="E700" t="s" s="2">
         <v>37</v>
@@ -78387,13 +78360,13 @@
         <v>37</v>
       </c>
       <c r="L700" t="s" s="2">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="M700" t="s" s="2">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="N700" t="s" s="2">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="O700" s="2"/>
       <c r="P700" s="2"/>
@@ -78456,18 +78429,18 @@
         <v>37</v>
       </c>
       <c r="AK700" t="s" s="2">
-        <v>1158</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B701" t="s" s="2">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="C701" t="s" s="2">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="D701" s="2"/>
       <c r="E701" t="s" s="2">
@@ -78564,13 +78537,13 @@
     </row>
     <row r="702">
       <c r="A702" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B702" t="s" s="2">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="C702" t="s" s="2">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="D702" s="2"/>
       <c r="E702" t="s" s="2">
@@ -78667,13 +78640,13 @@
     </row>
     <row r="703">
       <c r="A703" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B703" t="s" s="2">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="C703" t="s" s="2">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="D703" s="2"/>
       <c r="E703" t="s" s="2">
@@ -78713,7 +78686,7 @@
       </c>
       <c r="R703" s="2"/>
       <c r="S703" t="s" s="2">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="T703" t="s" s="2">
         <v>37</v>
@@ -78772,13 +78745,13 @@
     </row>
     <row r="704">
       <c r="A704" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B704" t="s" s="2">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="C704" t="s" s="2">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="D704" s="2"/>
       <c r="E704" t="s" s="2">
@@ -78801,7 +78774,7 @@
         <v>37</v>
       </c>
       <c r="L704" t="s" s="2">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="M704" t="s" s="2">
         <v>558</v>
@@ -78846,7 +78819,7 @@
         <v>37</v>
       </c>
       <c r="AC704" t="s" s="2">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="AD704" s="2"/>
       <c r="AE704" t="s" s="2">
@@ -78873,16 +78846,16 @@
     </row>
     <row r="705">
       <c r="A705" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B705" t="s" s="2">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="C705" t="s" s="2">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="D705" t="s" s="2">
-        <v>1170</v>
+        <v>1132</v>
       </c>
       <c r="E705" t="s" s="2">
         <v>37</v>
@@ -78904,7 +78877,7 @@
         <v>37</v>
       </c>
       <c r="L705" t="s" s="2">
-        <v>1171</v>
+        <v>1133</v>
       </c>
       <c r="M705" t="s" s="2">
         <v>558</v>
@@ -78978,13 +78951,13 @@
     </row>
     <row r="706">
       <c r="A706" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B706" t="s" s="2">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="C706" t="s" s="2">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="D706" s="2"/>
       <c r="E706" t="s" s="2">
@@ -79010,13 +78983,13 @@
         <v>58</v>
       </c>
       <c r="M706" t="s" s="2">
+        <v>1042</v>
+      </c>
+      <c r="N706" t="s" s="2">
+        <v>1043</v>
+      </c>
+      <c r="O706" t="s" s="2">
         <v>1044</v>
-      </c>
-      <c r="N706" t="s" s="2">
-        <v>1045</v>
-      </c>
-      <c r="O706" t="s" s="2">
-        <v>1046</v>
       </c>
       <c r="P706" s="2"/>
       <c r="Q706" t="s" s="2">
@@ -79066,7 +79039,7 @@
         <v>37</v>
       </c>
       <c r="AG706" t="s" s="2">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="AH706" t="s" s="2">
         <v>38</v>
@@ -79075,7 +79048,7 @@
         <v>44</v>
       </c>
       <c r="AJ706" t="s" s="2">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="AK706" t="s" s="2">
         <v>56</v>
@@ -79083,13 +79056,13 @@
     </row>
     <row r="707">
       <c r="A707" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B707" t="s" s="2">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="C707" t="s" s="2">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="D707" s="2"/>
       <c r="E707" t="s" s="2">
@@ -79115,13 +79088,13 @@
         <v>85</v>
       </c>
       <c r="M707" t="s" s="2">
+        <v>1048</v>
+      </c>
+      <c r="N707" t="s" s="2">
+        <v>1049</v>
+      </c>
+      <c r="O707" t="s" s="2">
         <v>1050</v>
-      </c>
-      <c r="N707" t="s" s="2">
-        <v>1051</v>
-      </c>
-      <c r="O707" t="s" s="2">
-        <v>1052</v>
       </c>
       <c r="P707" s="2"/>
       <c r="Q707" t="s" s="2">
@@ -79150,28 +79123,28 @@
         <v>101</v>
       </c>
       <c r="Z707" t="s" s="2">
+        <v>1051</v>
+      </c>
+      <c r="AA707" t="s" s="2">
+        <v>1052</v>
+      </c>
+      <c r="AB707" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC707" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD707" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE707" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF707" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG707" t="s" s="2">
         <v>1053</v>
-      </c>
-      <c r="AA707" t="s" s="2">
-        <v>1054</v>
-      </c>
-      <c r="AB707" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC707" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD707" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE707" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF707" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG707" t="s" s="2">
-        <v>1055</v>
       </c>
       <c r="AH707" t="s" s="2">
         <v>38</v>
@@ -79188,13 +79161,13 @@
     </row>
     <row r="708">
       <c r="A708" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B708" t="s" s="2">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="C708" t="s" s="2">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="D708" s="2"/>
       <c r="E708" t="s" s="2">
@@ -79220,13 +79193,13 @@
         <v>128</v>
       </c>
       <c r="M708" t="s" s="2">
+        <v>1055</v>
+      </c>
+      <c r="N708" t="s" s="2">
+        <v>1056</v>
+      </c>
+      <c r="O708" t="s" s="2">
         <v>1057</v>
-      </c>
-      <c r="N708" t="s" s="2">
-        <v>1058</v>
-      </c>
-      <c r="O708" t="s" s="2">
-        <v>1059</v>
       </c>
       <c r="P708" s="2"/>
       <c r="Q708" t="s" s="2">
@@ -79276,7 +79249,7 @@
         <v>37</v>
       </c>
       <c r="AG708" t="s" s="2">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="AH708" t="s" s="2">
         <v>38</v>
@@ -79293,13 +79266,13 @@
     </row>
     <row r="709">
       <c r="A709" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B709" t="s" s="2">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="C709" t="s" s="2">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="D709" s="2"/>
       <c r="E709" t="s" s="2">
@@ -79325,13 +79298,13 @@
         <v>58</v>
       </c>
       <c r="M709" t="s" s="2">
+        <v>1060</v>
+      </c>
+      <c r="N709" t="s" s="2">
+        <v>1061</v>
+      </c>
+      <c r="O709" t="s" s="2">
         <v>1062</v>
-      </c>
-      <c r="N709" t="s" s="2">
-        <v>1063</v>
-      </c>
-      <c r="O709" t="s" s="2">
-        <v>1064</v>
       </c>
       <c r="P709" s="2"/>
       <c r="Q709" t="s" s="2">
@@ -79381,7 +79354,7 @@
         <v>37</v>
       </c>
       <c r="AG709" t="s" s="2">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="AH709" t="s" s="2">
         <v>38</v>
@@ -79398,7 +79371,7 @@
     </row>
     <row r="710">
       <c r="A710" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B710" t="s" s="2">
         <v>744</v>
@@ -79505,7 +79478,7 @@
     </row>
     <row r="711">
       <c r="A711" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B711" t="s" s="2">
         <v>751</v>
@@ -79537,7 +79510,7 @@
         <v>752</v>
       </c>
       <c r="M711" t="s" s="2">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="N711" t="s" s="2">
         <v>754</v>
@@ -79608,7 +79581,7 @@
     </row>
     <row r="712">
       <c r="A712" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B712" t="s" s="2">
         <v>755</v>
@@ -79640,7 +79613,7 @@
         <v>151</v>
       </c>
       <c r="M712" t="s" s="2">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="N712" t="s" s="2">
         <v>757</v>
@@ -79713,7 +79686,7 @@
     </row>
     <row r="713">
       <c r="A713" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B713" t="s" s="2">
         <v>760</v>
@@ -79816,7 +79789,7 @@
     </row>
     <row r="714">
       <c r="A714" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B714" t="s" s="2">
         <v>761</v>
@@ -79921,7 +79894,7 @@
     </row>
     <row r="715">
       <c r="A715" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B715" t="s" s="2">
         <v>762</v>
@@ -80028,7 +80001,7 @@
     </row>
     <row r="716">
       <c r="A716" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B716" t="s" s="2">
         <v>763</v>
@@ -80135,7 +80108,7 @@
     </row>
     <row r="717">
       <c r="A717" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B717" t="s" s="2">
         <v>770</v>
@@ -80244,7 +80217,7 @@
     </row>
     <row r="718">
       <c r="A718" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B718" t="s" s="2">
         <v>778</v>
@@ -80349,7 +80322,7 @@
     </row>
     <row r="719">
       <c r="A719" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B719" t="s" s="2">
         <v>782</v>
@@ -80378,10 +80351,10 @@
         <v>37</v>
       </c>
       <c r="L719" t="s" s="2">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="M719" t="s" s="2">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="N719" t="s" s="2">
         <v>785</v>
@@ -80452,7 +80425,7 @@
     </row>
     <row r="720">
       <c r="A720" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B720" t="s" s="2">
         <v>786</v>
@@ -80559,7 +80532,7 @@
     </row>
     <row r="721">
       <c r="A721" t="s" s="2">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="B721" t="s" s="2">
         <v>544</v>
@@ -80591,10 +80564,10 @@
         <v>40</v>
       </c>
       <c r="M721" t="s" s="2">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="N721" t="s" s="2">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="O721" s="2"/>
       <c r="P721" s="2"/>
@@ -80662,7 +80635,7 @@
     </row>
     <row r="722">
       <c r="A722" t="s" s="2">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="B722" t="s" s="2">
         <v>549</v>
@@ -80765,7 +80738,7 @@
     </row>
     <row r="723">
       <c r="A723" t="s" s="2">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="B723" t="s" s="2">
         <v>550</v>
@@ -80868,7 +80841,7 @@
     </row>
     <row r="724">
       <c r="A724" t="s" s="2">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="B724" t="s" s="2">
         <v>552</v>
@@ -80914,7 +80887,7 @@
       </c>
       <c r="R724" s="2"/>
       <c r="S724" t="s" s="2">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="T724" t="s" s="2">
         <v>37</v>
@@ -80973,7 +80946,7 @@
     </row>
     <row r="725">
       <c r="A725" t="s" s="2">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="B725" t="s" s="2">
         <v>556</v>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-21T12:08:41+00:00</t>
+    <t>2023-07-21T15:47:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-21T15:47:29+00:00</t>
+    <t>2023-07-26T15:16:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-26T15:16:57+00:00</t>
+    <t>2023-07-26T17:28:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-04T14:27:37+00:00</t>
+    <t>2023-08-04T14:41:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-04T14:41:08+00:00</t>
+    <t>2023-08-05T17:33:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-05T17:33:43+00:00</t>
+    <t>2023-08-06T12:10:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-06T12:10:37+00:00</t>
+    <t>2023-08-06T12:23:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-06T12:23:25+00:00</t>
+    <t>2023-08-06T12:41:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-06T12:41:23+00:00</t>
+    <t>2023-08-06T13:08:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-21T11:27:47+00:00</t>
+    <t>2023-08-21T12:27:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-29T16:46:01+00:00</t>
+    <t>2023-08-31T15:17:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24052" uniqueCount="1179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24043" uniqueCount="1174">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-31T15:17:32+00:00</t>
+    <t>2023-08-31T15:22:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2856,10 +2856,9 @@
     <t>PDSm Simplified Publish</t>
   </si>
   <si>
-    <t>Ce profil a été créé en s'inspirant du profil MHD Simplified. 
+    <t>Ce profil est utilisé dans le cadre du flux 9 d'ajout simplifié de document. Le flux et le profil sont inspirés d’IHE MHD, transaction ITI-105.
 Contrairement au profil PDSm_ComprehensiveDocumentReference, le document est directement inclus dans DocumentReference.attachment.data et non dans une ressource « Binary » externe.
-Ce profil est utilisé dans le cadre du flux 9. Le flux et le profil sont inspirés d’IHE MHD, version build au 03.10.22  : transaction ITI-105  et du profil SimplifiedPublish.DocumentReference.
-La publication simplifiée est un simple POST d'une ressource DocumentReference conforme à ce profil.</t>
+La publication simplifiée est une simple requête HTTP POST d'une ressource DocumentReference conforme à ce profil.</t>
   </si>
   <si>
     <t>https://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.SimplifiedPublish.DocumentReference</t>
@@ -2990,9 +2989,6 @@
   </si>
   <si>
     <t>Key metadata element describing the document that describes he exact type of document. Helps humans to assess whether the document is of interest when viewing a list of documents.</t>
-  </si>
-  <si>
-    <t>XDS typeCode CI-SIS</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J07-XdsTypeCode-CISIS/FHIR/JDV-J07-XdsTypeCode-CISIS</t>
@@ -3023,9 +3019,6 @@
     <t>Key metadata element describing the the category or classification of the document. This is a broader perspective that groups similar documents based on how they would be used. This is a primary key used in searching.</t>
   </si>
   <si>
-    <t>XDS classCode CI-SIS</t>
-  </si>
-  <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J06-XdsClassCode-CISIS/FHIR/JDV-J06-XdsClassCode-CISIS</t>
   </si>
   <si>
@@ -3417,9 +3410,6 @@
   </si>
   <si>
     <t>Note that while IHE mostly issues URNs for format types, not all documents can be identified by a URI.</t>
-  </si>
-  <si>
-    <t>XDS formatCode documents CI-SIS</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J10-XdsFormatCode-CISIS/FHIR/JDV-J10-XdsFormatCode-CISIS</t>
@@ -3516,9 +3506,6 @@
     <t>The kind of facility where the patient was seen.</t>
   </si>
   <si>
-    <t>XDS healthcareFacilityTypeCode CI-SIS</t>
-  </si>
-  <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J02-XdsHealthcareFacilityTypeCode-CISIS/FHIR/JDV-J02-XdsHealthcareFacilityTypeCode-CISIS</t>
   </si>
   <si>
@@ -3542,9 +3529,6 @@
   </si>
   <si>
     <t>This is an important piece of metadata that providers often rely upon to quickly sort and/or filter out to find specific content.</t>
-  </si>
-  <si>
-    <t>XDS practiceSettingCode CI-SIS</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J04-XdsPracticeSettingCode-CISIS/FHIR/JDV-J04-XdsPracticeSettingCode-CISIS</t>
@@ -4989,7 +4973,7 @@
         <v>2</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="145">
@@ -4997,7 +4981,7 @@
         <v>4</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>1129</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="146">
@@ -5013,7 +4997,7 @@
         <v>8</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>1130</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="148">
@@ -5021,7 +5005,7 @@
         <v>10</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>1131</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="149">
@@ -5067,7 +5051,7 @@
         <v>21</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>1132</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="155">
@@ -5111,7 +5095,7 @@
         <v>31</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="161">
@@ -5143,7 +5127,7 @@
         <v>2</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>1176</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="165">
@@ -5151,7 +5135,7 @@
         <v>4</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>1177</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="166">
@@ -5167,7 +5151,7 @@
         <v>8</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>1178</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="168">
@@ -68339,11 +68323,9 @@
       <c r="Y604" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="Z604" t="s" s="2">
+      <c r="Z604" s="2"/>
+      <c r="AA604" t="s" s="2">
         <v>950</v>
-      </c>
-      <c r="AA604" t="s" s="2">
-        <v>951</v>
       </c>
       <c r="AB604" t="s" s="2">
         <v>37</v>
@@ -68373,7 +68355,7 @@
         <v>37</v>
       </c>
       <c r="AK604" t="s" s="2">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="605">
@@ -68381,14 +68363,14 @@
         <v>902</v>
       </c>
       <c r="B605" t="s" s="2">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C605" t="s" s="2">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D605" s="2"/>
       <c r="E605" t="s" s="2">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="F605" s="2"/>
       <c r="G605" t="s" s="2">
@@ -68410,13 +68392,13 @@
         <v>716</v>
       </c>
       <c r="M605" t="s" s="2">
+        <v>954</v>
+      </c>
+      <c r="N605" t="s" s="2">
         <v>955</v>
       </c>
-      <c r="N605" t="s" s="2">
+      <c r="O605" t="s" s="2">
         <v>956</v>
-      </c>
-      <c r="O605" t="s" s="2">
-        <v>957</v>
       </c>
       <c r="P605" s="2"/>
       <c r="Q605" t="s" s="2">
@@ -68444,11 +68426,9 @@
       <c r="Y605" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="Z605" t="s" s="2">
-        <v>958</v>
-      </c>
+      <c r="Z605" s="2"/>
       <c r="AA605" t="s" s="2">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="AB605" t="s" s="2">
         <v>37</v>
@@ -68466,7 +68446,7 @@
         <v>37</v>
       </c>
       <c r="AG605" t="s" s="2">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="AH605" t="s" s="2">
         <v>38</v>
@@ -68478,7 +68458,7 @@
         <v>37</v>
       </c>
       <c r="AK605" t="s" s="2">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="606">
@@ -68486,10 +68466,10 @@
         <v>902</v>
       </c>
       <c r="B606" t="s" s="2">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C606" t="s" s="2">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D606" s="2"/>
       <c r="E606" t="s" s="2">
@@ -68515,10 +68495,10 @@
         <v>724</v>
       </c>
       <c r="M606" t="s" s="2">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="N606" t="s" s="2">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="O606" s="2"/>
       <c r="P606" s="2"/>
@@ -68569,7 +68549,7 @@
         <v>37</v>
       </c>
       <c r="AG606" t="s" s="2">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="AH606" t="s" s="2">
         <v>38</v>
@@ -68589,14 +68569,14 @@
         <v>902</v>
       </c>
       <c r="B607" t="s" s="2">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C607" t="s" s="2">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="D607" s="2"/>
       <c r="E607" t="s" s="2">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="F607" s="2"/>
       <c r="G607" t="s" s="2">
@@ -68618,13 +68598,13 @@
         <v>80</v>
       </c>
       <c r="M607" t="s" s="2">
+        <v>964</v>
+      </c>
+      <c r="N607" t="s" s="2">
+        <v>965</v>
+      </c>
+      <c r="O607" t="s" s="2">
         <v>966</v>
-      </c>
-      <c r="N607" t="s" s="2">
-        <v>967</v>
-      </c>
-      <c r="O607" t="s" s="2">
-        <v>968</v>
       </c>
       <c r="P607" s="2"/>
       <c r="Q607" t="s" s="2">
@@ -68674,7 +68654,7 @@
         <v>37</v>
       </c>
       <c r="AG607" t="s" s="2">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="AH607" t="s" s="2">
         <v>38</v>
@@ -68694,10 +68674,10 @@
         <v>902</v>
       </c>
       <c r="B608" t="s" s="2">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C608" t="s" s="2">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="D608" s="2"/>
       <c r="E608" t="s" s="2">
@@ -68720,16 +68700,16 @@
         <v>46</v>
       </c>
       <c r="L608" t="s" s="2">
+        <v>968</v>
+      </c>
+      <c r="M608" t="s" s="2">
+        <v>969</v>
+      </c>
+      <c r="N608" t="s" s="2">
         <v>970</v>
       </c>
-      <c r="M608" t="s" s="2">
+      <c r="O608" t="s" s="2">
         <v>971</v>
-      </c>
-      <c r="N608" t="s" s="2">
-        <v>972</v>
-      </c>
-      <c r="O608" t="s" s="2">
-        <v>973</v>
       </c>
       <c r="P608" s="2"/>
       <c r="Q608" t="s" s="2">
@@ -68779,7 +68759,7 @@
         <v>37</v>
       </c>
       <c r="AG608" t="s" s="2">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="AH608" t="s" s="2">
         <v>38</v>
@@ -68791,7 +68771,7 @@
         <v>37</v>
       </c>
       <c r="AK608" t="s" s="2">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="609">
@@ -68799,10 +68779,10 @@
         <v>902</v>
       </c>
       <c r="B609" t="s" s="2">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C609" t="s" s="2">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="D609" s="2"/>
       <c r="E609" t="s" s="2">
@@ -68825,16 +68805,16 @@
         <v>37</v>
       </c>
       <c r="L609" t="s" s="2">
+        <v>974</v>
+      </c>
+      <c r="M609" t="s" s="2">
+        <v>975</v>
+      </c>
+      <c r="N609" t="s" s="2">
         <v>976</v>
       </c>
-      <c r="M609" t="s" s="2">
+      <c r="O609" t="s" s="2">
         <v>977</v>
-      </c>
-      <c r="N609" t="s" s="2">
-        <v>978</v>
-      </c>
-      <c r="O609" t="s" s="2">
-        <v>979</v>
       </c>
       <c r="P609" s="2"/>
       <c r="Q609" t="s" s="2">
@@ -68884,7 +68864,7 @@
         <v>37</v>
       </c>
       <c r="AG609" t="s" s="2">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="AH609" t="s" s="2">
         <v>38</v>
@@ -68896,7 +68876,7 @@
         <v>37</v>
       </c>
       <c r="AK609" t="s" s="2">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="610">
@@ -68904,10 +68884,10 @@
         <v>902</v>
       </c>
       <c r="B610" t="s" s="2">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C610" t="s" s="2">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="D610" s="2"/>
       <c r="E610" t="s" s="2">
@@ -68930,16 +68910,16 @@
         <v>37</v>
       </c>
       <c r="L610" t="s" s="2">
+        <v>980</v>
+      </c>
+      <c r="M610" t="s" s="2">
+        <v>981</v>
+      </c>
+      <c r="N610" t="s" s="2">
         <v>982</v>
       </c>
-      <c r="M610" t="s" s="2">
+      <c r="O610" t="s" s="2">
         <v>983</v>
-      </c>
-      <c r="N610" t="s" s="2">
-        <v>984</v>
-      </c>
-      <c r="O610" t="s" s="2">
-        <v>985</v>
       </c>
       <c r="P610" s="2"/>
       <c r="Q610" t="s" s="2">
@@ -68989,7 +68969,7 @@
         <v>37</v>
       </c>
       <c r="AG610" t="s" s="2">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="AH610" t="s" s="2">
         <v>38</v>
@@ -69009,10 +68989,10 @@
         <v>902</v>
       </c>
       <c r="B611" t="s" s="2">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="C611" t="s" s="2">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="D611" s="2"/>
       <c r="E611" t="s" s="2">
@@ -69038,13 +69018,13 @@
         <v>152</v>
       </c>
       <c r="M611" t="s" s="2">
+        <v>985</v>
+      </c>
+      <c r="N611" t="s" s="2">
+        <v>986</v>
+      </c>
+      <c r="O611" t="s" s="2">
         <v>987</v>
-      </c>
-      <c r="N611" t="s" s="2">
-        <v>988</v>
-      </c>
-      <c r="O611" t="s" s="2">
-        <v>989</v>
       </c>
       <c r="P611" s="2"/>
       <c r="Q611" t="s" s="2">
@@ -69094,7 +69074,7 @@
         <v>37</v>
       </c>
       <c r="AG611" t="s" s="2">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="AH611" t="s" s="2">
         <v>38</v>
@@ -69114,10 +69094,10 @@
         <v>902</v>
       </c>
       <c r="B612" t="s" s="2">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="C612" t="s" s="2">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="D612" s="2"/>
       <c r="E612" t="s" s="2">
@@ -69217,10 +69197,10 @@
         <v>902</v>
       </c>
       <c r="B613" t="s" s="2">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C613" t="s" s="2">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="D613" s="2"/>
       <c r="E613" t="s" s="2">
@@ -69322,10 +69302,10 @@
         <v>902</v>
       </c>
       <c r="B614" t="s" s="2">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C614" t="s" s="2">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="D614" s="2"/>
       <c r="E614" t="s" s="2">
@@ -69429,10 +69409,10 @@
         <v>902</v>
       </c>
       <c r="B615" t="s" s="2">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="C615" t="s" s="2">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="D615" s="2"/>
       <c r="E615" t="s" s="2">
@@ -69458,13 +69438,13 @@
         <v>120</v>
       </c>
       <c r="M615" t="s" s="2">
+        <v>992</v>
+      </c>
+      <c r="N615" t="s" s="2">
+        <v>993</v>
+      </c>
+      <c r="O615" t="s" s="2">
         <v>994</v>
-      </c>
-      <c r="N615" t="s" s="2">
-        <v>995</v>
-      </c>
-      <c r="O615" t="s" s="2">
-        <v>996</v>
       </c>
       <c r="P615" s="2"/>
       <c r="Q615" t="s" s="2">
@@ -69493,10 +69473,10 @@
         <v>138</v>
       </c>
       <c r="Z615" t="s" s="2">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="AA615" t="s" s="2">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="AB615" t="s" s="2">
         <v>37</v>
@@ -69514,7 +69494,7 @@
         <v>37</v>
       </c>
       <c r="AG615" t="s" s="2">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="AH615" t="s" s="2">
         <v>45</v>
@@ -69534,10 +69514,10 @@
         <v>902</v>
       </c>
       <c r="B616" t="s" s="2">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C616" t="s" s="2">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="D616" s="2"/>
       <c r="E616" t="s" s="2">
@@ -69560,13 +69540,13 @@
         <v>46</v>
       </c>
       <c r="L616" t="s" s="2">
+        <v>998</v>
+      </c>
+      <c r="M616" t="s" s="2">
+        <v>999</v>
+      </c>
+      <c r="N616" t="s" s="2">
         <v>1000</v>
-      </c>
-      <c r="M616" t="s" s="2">
-        <v>1001</v>
-      </c>
-      <c r="N616" t="s" s="2">
-        <v>1002</v>
       </c>
       <c r="O616" s="2"/>
       <c r="P616" s="2"/>
@@ -69617,7 +69597,7 @@
         <v>37</v>
       </c>
       <c r="AG616" t="s" s="2">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="AH616" t="s" s="2">
         <v>45</v>
@@ -69637,10 +69617,10 @@
         <v>902</v>
       </c>
       <c r="B617" t="s" s="2">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C617" t="s" s="2">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="D617" s="2"/>
       <c r="E617" t="s" s="2">
@@ -69666,16 +69646,16 @@
         <v>59</v>
       </c>
       <c r="M617" t="s" s="2">
+        <v>1002</v>
+      </c>
+      <c r="N617" t="s" s="2">
+        <v>1003</v>
+      </c>
+      <c r="O617" t="s" s="2">
         <v>1004</v>
       </c>
-      <c r="N617" t="s" s="2">
+      <c r="P617" t="s" s="2">
         <v>1005</v>
-      </c>
-      <c r="O617" t="s" s="2">
-        <v>1006</v>
-      </c>
-      <c r="P617" t="s" s="2">
-        <v>1007</v>
       </c>
       <c r="Q617" t="s" s="2">
         <v>37</v>
@@ -69724,7 +69704,7 @@
         <v>37</v>
       </c>
       <c r="AG617" t="s" s="2">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="AH617" t="s" s="2">
         <v>38</v>
@@ -69744,10 +69724,10 @@
         <v>902</v>
       </c>
       <c r="B618" t="s" s="2">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C618" t="s" s="2">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="D618" s="2"/>
       <c r="E618" t="s" s="2">
@@ -69773,16 +69753,16 @@
         <v>716</v>
       </c>
       <c r="M618" t="s" s="2">
+        <v>1007</v>
+      </c>
+      <c r="N618" t="s" s="2">
+        <v>1008</v>
+      </c>
+      <c r="O618" t="s" s="2">
         <v>1009</v>
       </c>
-      <c r="N618" t="s" s="2">
+      <c r="P618" t="s" s="2">
         <v>1010</v>
-      </c>
-      <c r="O618" t="s" s="2">
-        <v>1011</v>
-      </c>
-      <c r="P618" t="s" s="2">
-        <v>1012</v>
       </c>
       <c r="Q618" t="s" s="2">
         <v>37</v>
@@ -69831,7 +69811,7 @@
         <v>37</v>
       </c>
       <c r="AG618" t="s" s="2">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="AH618" t="s" s="2">
         <v>38</v>
@@ -69843,7 +69823,7 @@
         <v>37</v>
       </c>
       <c r="AK618" t="s" s="2">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="619">
@@ -69851,10 +69831,10 @@
         <v>902</v>
       </c>
       <c r="B619" t="s" s="2">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C619" t="s" s="2">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="D619" s="2"/>
       <c r="E619" t="s" s="2">
@@ -69880,10 +69860,10 @@
         <v>152</v>
       </c>
       <c r="M619" t="s" s="2">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="N619" t="s" s="2">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="O619" s="2"/>
       <c r="P619" s="2"/>
@@ -69934,7 +69914,7 @@
         <v>37</v>
       </c>
       <c r="AG619" t="s" s="2">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="AH619" t="s" s="2">
         <v>45</v>
@@ -69954,10 +69934,10 @@
         <v>902</v>
       </c>
       <c r="B620" t="s" s="2">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="C620" t="s" s="2">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="D620" s="2"/>
       <c r="E620" t="s" s="2">
@@ -70057,10 +70037,10 @@
         <v>902</v>
       </c>
       <c r="B621" t="s" s="2">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C621" t="s" s="2">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="D621" s="2"/>
       <c r="E621" t="s" s="2">
@@ -70162,10 +70142,10 @@
         <v>902</v>
       </c>
       <c r="B622" t="s" s="2">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="C622" t="s" s="2">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="D622" s="2"/>
       <c r="E622" t="s" s="2">
@@ -70269,10 +70249,10 @@
         <v>902</v>
       </c>
       <c r="B623" t="s" s="2">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C623" t="s" s="2">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="D623" s="2"/>
       <c r="E623" t="s" s="2">
@@ -70295,13 +70275,13 @@
         <v>46</v>
       </c>
       <c r="L623" t="s" s="2">
+        <v>1019</v>
+      </c>
+      <c r="M623" t="s" s="2">
+        <v>1020</v>
+      </c>
+      <c r="N623" t="s" s="2">
         <v>1021</v>
-      </c>
-      <c r="M623" t="s" s="2">
-        <v>1022</v>
-      </c>
-      <c r="N623" t="s" s="2">
-        <v>1023</v>
       </c>
       <c r="O623" s="2"/>
       <c r="P623" s="2"/>
@@ -70352,7 +70332,7 @@
         <v>37</v>
       </c>
       <c r="AG623" t="s" s="2">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="AH623" t="s" s="2">
         <v>45</v>
@@ -70372,10 +70352,10 @@
         <v>902</v>
       </c>
       <c r="B624" t="s" s="2">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C624" t="s" s="2">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="D624" s="2"/>
       <c r="E624" t="s" s="2">
@@ -70475,10 +70455,10 @@
         <v>902</v>
       </c>
       <c r="B625" t="s" s="2">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C625" t="s" s="2">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="D625" s="2"/>
       <c r="E625" t="s" s="2">
@@ -70580,10 +70560,10 @@
         <v>902</v>
       </c>
       <c r="B626" t="s" s="2">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C626" t="s" s="2">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="D626" s="2"/>
       <c r="E626" t="s" s="2">
@@ -70609,14 +70589,14 @@
         <v>120</v>
       </c>
       <c r="M626" t="s" s="2">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="N626" t="s" s="2">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="O626" s="2"/>
       <c r="P626" t="s" s="2">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="Q626" t="s" s="2">
         <v>37</v>
@@ -70629,7 +70609,7 @@
         <v>37</v>
       </c>
       <c r="U626" t="s" s="2">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="V626" t="s" s="2">
         <v>37</v>
@@ -70644,28 +70624,28 @@
         <v>138</v>
       </c>
       <c r="Z626" t="s" s="2">
+        <v>1029</v>
+      </c>
+      <c r="AA626" t="s" s="2">
+        <v>1030</v>
+      </c>
+      <c r="AB626" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC626" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD626" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE626" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF626" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG626" t="s" s="2">
         <v>1031</v>
-      </c>
-      <c r="AA626" t="s" s="2">
-        <v>1032</v>
-      </c>
-      <c r="AB626" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC626" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD626" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE626" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF626" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG626" t="s" s="2">
-        <v>1033</v>
       </c>
       <c r="AH626" t="s" s="2">
         <v>38</v>
@@ -70685,10 +70665,10 @@
         <v>902</v>
       </c>
       <c r="B627" t="s" s="2">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="C627" t="s" s="2">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="D627" s="2"/>
       <c r="E627" t="s" s="2">
@@ -70714,14 +70694,14 @@
         <v>120</v>
       </c>
       <c r="M627" t="s" s="2">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="N627" t="s" s="2">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="O627" s="2"/>
       <c r="P627" t="s" s="2">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="Q627" t="s" s="2">
         <v>37</v>
@@ -70734,7 +70714,7 @@
         <v>37</v>
       </c>
       <c r="U627" t="s" s="2">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="V627" t="s" s="2">
         <v>37</v>
@@ -70770,7 +70750,7 @@
         <v>37</v>
       </c>
       <c r="AG627" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="AH627" t="s" s="2">
         <v>38</v>
@@ -70790,10 +70770,10 @@
         <v>902</v>
       </c>
       <c r="B628" t="s" s="2">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="C628" t="s" s="2">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="D628" s="2"/>
       <c r="E628" t="s" s="2">
@@ -70816,19 +70796,19 @@
         <v>37</v>
       </c>
       <c r="L628" t="s" s="2">
+        <v>1039</v>
+      </c>
+      <c r="M628" t="s" s="2">
+        <v>1040</v>
+      </c>
+      <c r="N628" t="s" s="2">
         <v>1041</v>
       </c>
-      <c r="M628" t="s" s="2">
+      <c r="O628" t="s" s="2">
         <v>1042</v>
       </c>
-      <c r="N628" t="s" s="2">
+      <c r="P628" t="s" s="2">
         <v>1043</v>
-      </c>
-      <c r="O628" t="s" s="2">
-        <v>1044</v>
-      </c>
-      <c r="P628" t="s" s="2">
-        <v>1045</v>
       </c>
       <c r="Q628" t="s" s="2">
         <v>37</v>
@@ -70877,7 +70857,7 @@
         <v>37</v>
       </c>
       <c r="AG628" t="s" s="2">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="AH628" t="s" s="2">
         <v>38</v>
@@ -70897,10 +70877,10 @@
         <v>902</v>
       </c>
       <c r="B629" t="s" s="2">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="C629" t="s" s="2">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="D629" s="2"/>
       <c r="E629" t="s" s="2">
@@ -70923,19 +70903,19 @@
         <v>46</v>
       </c>
       <c r="L629" t="s" s="2">
+        <v>1046</v>
+      </c>
+      <c r="M629" t="s" s="2">
+        <v>1047</v>
+      </c>
+      <c r="N629" t="s" s="2">
         <v>1048</v>
       </c>
-      <c r="M629" t="s" s="2">
+      <c r="O629" t="s" s="2">
         <v>1049</v>
       </c>
-      <c r="N629" t="s" s="2">
+      <c r="P629" t="s" s="2">
         <v>1050</v>
-      </c>
-      <c r="O629" t="s" s="2">
-        <v>1051</v>
-      </c>
-      <c r="P629" t="s" s="2">
-        <v>1052</v>
       </c>
       <c r="Q629" t="s" s="2">
         <v>37</v>
@@ -70948,7 +70928,7 @@
         <v>37</v>
       </c>
       <c r="U629" t="s" s="2">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="V629" t="s" s="2">
         <v>37</v>
@@ -70984,7 +70964,7 @@
         <v>37</v>
       </c>
       <c r="AG629" t="s" s="2">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="AH629" t="s" s="2">
         <v>38</v>
@@ -71004,10 +70984,10 @@
         <v>902</v>
       </c>
       <c r="B630" t="s" s="2">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="C630" t="s" s="2">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="D630" s="2"/>
       <c r="E630" t="s" s="2">
@@ -71033,16 +71013,16 @@
         <v>146</v>
       </c>
       <c r="M630" t="s" s="2">
+        <v>1054</v>
+      </c>
+      <c r="N630" t="s" s="2">
+        <v>1055</v>
+      </c>
+      <c r="O630" t="s" s="2">
         <v>1056</v>
       </c>
-      <c r="N630" t="s" s="2">
+      <c r="P630" t="s" s="2">
         <v>1057</v>
-      </c>
-      <c r="O630" t="s" s="2">
-        <v>1058</v>
-      </c>
-      <c r="P630" t="s" s="2">
-        <v>1059</v>
       </c>
       <c r="Q630" t="s" s="2">
         <v>37</v>
@@ -71091,7 +71071,7 @@
         <v>37</v>
       </c>
       <c r="AG630" t="s" s="2">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="AH630" t="s" s="2">
         <v>38</v>
@@ -71111,10 +71091,10 @@
         <v>902</v>
       </c>
       <c r="B631" t="s" s="2">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="C631" t="s" s="2">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="D631" s="2"/>
       <c r="E631" t="s" s="2">
@@ -71137,19 +71117,19 @@
         <v>46</v>
       </c>
       <c r="L631" t="s" s="2">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="M631" t="s" s="2">
+        <v>1060</v>
+      </c>
+      <c r="N631" t="s" s="2">
+        <v>1061</v>
+      </c>
+      <c r="O631" t="s" s="2">
         <v>1062</v>
       </c>
-      <c r="N631" t="s" s="2">
+      <c r="P631" t="s" s="2">
         <v>1063</v>
-      </c>
-      <c r="O631" t="s" s="2">
-        <v>1064</v>
-      </c>
-      <c r="P631" t="s" s="2">
-        <v>1065</v>
       </c>
       <c r="Q631" t="s" s="2">
         <v>37</v>
@@ -71198,7 +71178,7 @@
         <v>37</v>
       </c>
       <c r="AG631" t="s" s="2">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="AH631" t="s" s="2">
         <v>38</v>
@@ -71218,10 +71198,10 @@
         <v>902</v>
       </c>
       <c r="B632" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="C632" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="D632" s="2"/>
       <c r="E632" t="s" s="2">
@@ -71247,14 +71227,14 @@
         <v>59</v>
       </c>
       <c r="M632" t="s" s="2">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="N632" t="s" s="2">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="O632" s="2"/>
       <c r="P632" t="s" s="2">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="Q632" t="s" s="2">
         <v>37</v>
@@ -71267,7 +71247,7 @@
         <v>37</v>
       </c>
       <c r="U632" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="V632" t="s" s="2">
         <v>37</v>
@@ -71303,7 +71283,7 @@
         <v>37</v>
       </c>
       <c r="AG632" t="s" s="2">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="AH632" t="s" s="2">
         <v>38</v>
@@ -71323,10 +71303,10 @@
         <v>902</v>
       </c>
       <c r="B633" t="s" s="2">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="C633" t="s" s="2">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="D633" s="2"/>
       <c r="E633" t="s" s="2">
@@ -71352,14 +71332,14 @@
         <v>734</v>
       </c>
       <c r="M633" t="s" s="2">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="N633" t="s" s="2">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="O633" s="2"/>
       <c r="P633" t="s" s="2">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="Q633" t="s" s="2">
         <v>37</v>
@@ -71408,7 +71388,7 @@
         <v>37</v>
       </c>
       <c r="AG633" t="s" s="2">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="AH633" t="s" s="2">
         <v>38</v>
@@ -71428,10 +71408,10 @@
         <v>902</v>
       </c>
       <c r="B634" t="s" s="2">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="C634" t="s" s="2">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="D634" s="2"/>
       <c r="E634" t="s" s="2">
@@ -71457,13 +71437,13 @@
         <v>98</v>
       </c>
       <c r="M634" t="s" s="2">
+        <v>1077</v>
+      </c>
+      <c r="N634" t="s" s="2">
+        <v>1078</v>
+      </c>
+      <c r="O634" t="s" s="2">
         <v>1079</v>
-      </c>
-      <c r="N634" t="s" s="2">
-        <v>1080</v>
-      </c>
-      <c r="O634" t="s" s="2">
-        <v>1081</v>
       </c>
       <c r="P634" s="2"/>
       <c r="Q634" t="s" s="2">
@@ -71491,11 +71471,9 @@
       <c r="Y634" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="Z634" t="s" s="2">
-        <v>1082</v>
-      </c>
+      <c r="Z634" s="2"/>
       <c r="AA634" t="s" s="2">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="AB634" t="s" s="2">
         <v>37</v>
@@ -71513,7 +71491,7 @@
         <v>37</v>
       </c>
       <c r="AG634" t="s" s="2">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="AH634" t="s" s="2">
         <v>38</v>
@@ -71525,7 +71503,7 @@
         <v>37</v>
       </c>
       <c r="AK634" t="s" s="2">
-        <v>1084</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="635">
@@ -71533,10 +71511,10 @@
         <v>902</v>
       </c>
       <c r="B635" t="s" s="2">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="C635" t="s" s="2">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="D635" s="2"/>
       <c r="E635" t="s" s="2">
@@ -71562,13 +71540,13 @@
         <v>152</v>
       </c>
       <c r="M635" t="s" s="2">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="N635" t="s" s="2">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="O635" t="s" s="2">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="P635" s="2"/>
       <c r="Q635" t="s" s="2">
@@ -71618,7 +71596,7 @@
         <v>37</v>
       </c>
       <c r="AG635" t="s" s="2">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="AH635" t="s" s="2">
         <v>38</v>
@@ -71638,10 +71616,10 @@
         <v>902</v>
       </c>
       <c r="B636" t="s" s="2">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="C636" t="s" s="2">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="D636" s="2"/>
       <c r="E636" t="s" s="2">
@@ -71741,10 +71719,10 @@
         <v>902</v>
       </c>
       <c r="B637" t="s" s="2">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="C637" t="s" s="2">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="D637" s="2"/>
       <c r="E637" t="s" s="2">
@@ -71846,10 +71824,10 @@
         <v>902</v>
       </c>
       <c r="B638" t="s" s="2">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="C638" t="s" s="2">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="D638" s="2"/>
       <c r="E638" t="s" s="2">
@@ -71953,10 +71931,10 @@
         <v>902</v>
       </c>
       <c r="B639" t="s" s="2">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="C639" t="s" s="2">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="D639" s="2"/>
       <c r="E639" t="s" s="2">
@@ -71979,13 +71957,13 @@
         <v>37</v>
       </c>
       <c r="L639" t="s" s="2">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="M639" t="s" s="2">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="N639" t="s" s="2">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="O639" s="2"/>
       <c r="P639" s="2"/>
@@ -72036,7 +72014,7 @@
         <v>37</v>
       </c>
       <c r="AG639" t="s" s="2">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="AH639" t="s" s="2">
         <v>38</v>
@@ -72056,10 +72034,10 @@
         <v>902</v>
       </c>
       <c r="B640" t="s" s="2">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="C640" t="s" s="2">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="D640" s="2"/>
       <c r="E640" t="s" s="2">
@@ -72085,13 +72063,13 @@
         <v>716</v>
       </c>
       <c r="M640" t="s" s="2">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="N640" t="s" s="2">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="O640" t="s" s="2">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="P640" s="2"/>
       <c r="Q640" t="s" s="2">
@@ -72120,10 +72098,10 @@
         <v>110</v>
       </c>
       <c r="Z640" t="s" s="2">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="AA640" t="s" s="2">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="AB640" t="s" s="2">
         <v>37</v>
@@ -72141,7 +72119,7 @@
         <v>37</v>
       </c>
       <c r="AG640" t="s" s="2">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="AH640" t="s" s="2">
         <v>38</v>
@@ -72153,7 +72131,7 @@
         <v>37</v>
       </c>
       <c r="AK640" t="s" s="2">
-        <v>1102</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="641">
@@ -72161,10 +72139,10 @@
         <v>902</v>
       </c>
       <c r="B641" t="s" s="2">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="C641" t="s" s="2">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="D641" s="2"/>
       <c r="E641" t="s" s="2">
@@ -72187,13 +72165,13 @@
         <v>46</v>
       </c>
       <c r="L641" t="s" s="2">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="M641" t="s" s="2">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="N641" t="s" s="2">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="O641" s="2"/>
       <c r="P641" s="2"/>
@@ -72244,7 +72222,7 @@
         <v>37</v>
       </c>
       <c r="AG641" t="s" s="2">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="AH641" t="s" s="2">
         <v>38</v>
@@ -72264,10 +72242,10 @@
         <v>902</v>
       </c>
       <c r="B642" t="s" s="2">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="C642" t="s" s="2">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="D642" s="2"/>
       <c r="E642" t="s" s="2">
@@ -72293,10 +72271,10 @@
         <v>716</v>
       </c>
       <c r="M642" t="s" s="2">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="N642" t="s" s="2">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="O642" s="2"/>
       <c r="P642" s="2"/>
@@ -72325,11 +72303,9 @@
       <c r="Y642" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="Z642" t="s" s="2">
-        <v>1110</v>
-      </c>
+      <c r="Z642" s="2"/>
       <c r="AA642" t="s" s="2">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="AB642" t="s" s="2">
         <v>37</v>
@@ -72347,7 +72323,7 @@
         <v>37</v>
       </c>
       <c r="AG642" t="s" s="2">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="AH642" t="s" s="2">
         <v>38</v>
@@ -72359,7 +72335,7 @@
         <v>37</v>
       </c>
       <c r="AK642" t="s" s="2">
-        <v>1112</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="643">
@@ -72367,10 +72343,10 @@
         <v>902</v>
       </c>
       <c r="B643" t="s" s="2">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="C643" t="s" s="2">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="D643" s="2"/>
       <c r="E643" t="s" s="2">
@@ -72396,16 +72372,16 @@
         <v>716</v>
       </c>
       <c r="M643" t="s" s="2">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="N643" t="s" s="2">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="O643" t="s" s="2">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="P643" t="s" s="2">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="Q643" t="s" s="2">
         <v>37</v>
@@ -72432,11 +72408,9 @@
       <c r="Y643" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="Z643" t="s" s="2">
-        <v>1118</v>
-      </c>
+      <c r="Z643" s="2"/>
       <c r="AA643" t="s" s="2">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="AB643" t="s" s="2">
         <v>37</v>
@@ -72454,7 +72428,7 @@
         <v>37</v>
       </c>
       <c r="AG643" t="s" s="2">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="AH643" t="s" s="2">
         <v>38</v>
@@ -72466,7 +72440,7 @@
         <v>37</v>
       </c>
       <c r="AK643" t="s" s="2">
-        <v>1112</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="644">
@@ -72474,10 +72448,10 @@
         <v>902</v>
       </c>
       <c r="B644" t="s" s="2">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="C644" t="s" s="2">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="D644" s="2"/>
       <c r="E644" t="s" s="2">
@@ -72500,13 +72474,13 @@
         <v>37</v>
       </c>
       <c r="L644" t="s" s="2">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="M644" t="s" s="2">
         <v>851</v>
       </c>
       <c r="N644" t="s" s="2">
-        <v>1122</v>
+        <v>1117</v>
       </c>
       <c r="O644" s="2"/>
       <c r="P644" s="2"/>
@@ -72557,7 +72531,7 @@
         <v>37</v>
       </c>
       <c r="AG644" t="s" s="2">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="AH644" t="s" s="2">
         <v>38</v>
@@ -72577,10 +72551,10 @@
         <v>902</v>
       </c>
       <c r="B645" t="s" s="2">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="C645" t="s" s="2">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="D645" s="2"/>
       <c r="E645" t="s" s="2">
@@ -72603,16 +72577,16 @@
         <v>37</v>
       </c>
       <c r="L645" t="s" s="2">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="M645" t="s" s="2">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="N645" t="s" s="2">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="O645" t="s" s="2">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="P645" s="2"/>
       <c r="Q645" t="s" s="2">
@@ -72662,7 +72636,7 @@
         <v>37</v>
       </c>
       <c r="AG645" t="s" s="2">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="AH645" t="s" s="2">
         <v>38</v>
@@ -72679,7 +72653,7 @@
     </row>
     <row r="646">
       <c r="A646" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B646" t="s" s="2">
         <v>610</v>
@@ -72784,7 +72758,7 @@
     </row>
     <row r="647">
       <c r="A647" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B647" t="s" s="2">
         <v>908</v>
@@ -72889,7 +72863,7 @@
     </row>
     <row r="648">
       <c r="A648" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B648" t="s" s="2">
         <v>909</v>
@@ -72992,7 +72966,7 @@
     </row>
     <row r="649">
       <c r="A649" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B649" t="s" s="2">
         <v>910</v>
@@ -73095,7 +73069,7 @@
     </row>
     <row r="650">
       <c r="A650" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B650" t="s" s="2">
         <v>911</v>
@@ -73200,7 +73174,7 @@
     </row>
     <row r="651">
       <c r="A651" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B651" t="s" s="2">
         <v>912</v>
@@ -73305,7 +73279,7 @@
     </row>
     <row r="652">
       <c r="A652" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B652" t="s" s="2">
         <v>914</v>
@@ -73410,7 +73384,7 @@
     </row>
     <row r="653">
       <c r="A653" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B653" t="s" s="2">
         <v>915</v>
@@ -73515,7 +73489,7 @@
     </row>
     <row r="654">
       <c r="A654" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B654" t="s" s="2">
         <v>916</v>
@@ -73620,7 +73594,7 @@
     </row>
     <row r="655">
       <c r="A655" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B655" t="s" s="2">
         <v>917</v>
@@ -73725,7 +73699,7 @@
     </row>
     <row r="656">
       <c r="A656" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B656" t="s" s="2">
         <v>918</v>
@@ -73830,7 +73804,7 @@
     </row>
     <row r="657">
       <c r="A657" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B657" t="s" s="2">
         <v>919</v>
@@ -73935,7 +73909,7 @@
     </row>
     <row r="658">
       <c r="A658" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B658" t="s" s="2">
         <v>920</v>
@@ -74040,7 +74014,7 @@
     </row>
     <row r="659">
       <c r="A659" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B659" t="s" s="2">
         <v>921</v>
@@ -74145,7 +74119,7 @@
     </row>
     <row r="660">
       <c r="A660" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B660" t="s" s="2">
         <v>922</v>
@@ -74250,7 +74224,7 @@
     </row>
     <row r="661">
       <c r="A661" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B661" t="s" s="2">
         <v>923</v>
@@ -74351,10 +74325,10 @@
     </row>
     <row r="662">
       <c r="A662" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B662" t="s" s="2">
-        <v>1134</v>
+        <v>1129</v>
       </c>
       <c r="C662" t="s" s="2">
         <v>923</v>
@@ -74385,7 +74359,7 @@
         <v>840</v>
       </c>
       <c r="M662" t="s" s="2">
-        <v>1135</v>
+        <v>1130</v>
       </c>
       <c r="N662" t="s" s="2">
         <v>543</v>
@@ -74456,7 +74430,7 @@
     </row>
     <row r="663">
       <c r="A663" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B663" t="s" s="2">
         <v>925</v>
@@ -74559,7 +74533,7 @@
     </row>
     <row r="664">
       <c r="A664" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B664" t="s" s="2">
         <v>926</v>
@@ -74666,7 +74640,7 @@
     </row>
     <row r="665">
       <c r="A665" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B665" t="s" s="2">
         <v>931</v>
@@ -74767,10 +74741,10 @@
     </row>
     <row r="666">
       <c r="A666" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B666" t="s" s="2">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="C666" t="s" s="2">
         <v>931</v>
@@ -74801,7 +74775,7 @@
         <v>694</v>
       </c>
       <c r="M666" t="s" s="2">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="N666" t="s" s="2">
         <v>691</v>
@@ -74872,7 +74846,7 @@
     </row>
     <row r="667">
       <c r="A667" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B667" t="s" s="2">
         <v>934</v>
@@ -74940,7 +74914,7 @@
       </c>
       <c r="Z667" s="2"/>
       <c r="AA667" t="s" s="2">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="AB667" t="s" s="2">
         <v>37</v>
@@ -74975,7 +74949,7 @@
     </row>
     <row r="668">
       <c r="A668" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B668" t="s" s="2">
         <v>940</v>
@@ -75080,7 +75054,7 @@
     </row>
     <row r="669">
       <c r="A669" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B669" t="s" s="2">
         <v>946</v>
@@ -75115,7 +75089,7 @@
         <v>948</v>
       </c>
       <c r="N669" t="s" s="2">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="O669" t="s" s="2">
         <v>949</v>
@@ -75148,7 +75122,7 @@
       </c>
       <c r="Z669" s="2"/>
       <c r="AA669" t="s" s="2">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="AB669" t="s" s="2">
         <v>37</v>
@@ -75178,22 +75152,22 @@
         <v>37</v>
       </c>
       <c r="AK669" t="s" s="2">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B670" t="s" s="2">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C670" t="s" s="2">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D670" s="2"/>
       <c r="E670" t="s" s="2">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="F670" s="2"/>
       <c r="G670" t="s" s="2">
@@ -75215,13 +75189,13 @@
         <v>716</v>
       </c>
       <c r="M670" t="s" s="2">
+        <v>954</v>
+      </c>
+      <c r="N670" t="s" s="2">
         <v>955</v>
       </c>
-      <c r="N670" t="s" s="2">
+      <c r="O670" t="s" s="2">
         <v>956</v>
-      </c>
-      <c r="O670" t="s" s="2">
-        <v>957</v>
       </c>
       <c r="P670" s="2"/>
       <c r="Q670" t="s" s="2">
@@ -75249,11 +75223,9 @@
       <c r="Y670" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="Z670" t="s" s="2">
-        <v>958</v>
-      </c>
+      <c r="Z670" s="2"/>
       <c r="AA670" t="s" s="2">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="AB670" t="s" s="2">
         <v>37</v>
@@ -75271,7 +75243,7 @@
         <v>37</v>
       </c>
       <c r="AG670" t="s" s="2">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="AH670" t="s" s="2">
         <v>38</v>
@@ -75283,18 +75255,18 @@
         <v>37</v>
       </c>
       <c r="AK670" t="s" s="2">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B671" t="s" s="2">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C671" t="s" s="2">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D671" s="2"/>
       <c r="E671" t="s" s="2">
@@ -75320,10 +75292,10 @@
         <v>724</v>
       </c>
       <c r="M671" t="s" s="2">
-        <v>1140</v>
+        <v>1135</v>
       </c>
       <c r="N671" t="s" s="2">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="O671" s="2"/>
       <c r="P671" s="2"/>
@@ -75374,7 +75346,7 @@
         <v>37</v>
       </c>
       <c r="AG671" t="s" s="2">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="AH671" t="s" s="2">
         <v>38</v>
@@ -75386,22 +75358,22 @@
         <v>37</v>
       </c>
       <c r="AK671" t="s" s="2">
-        <v>1141</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B672" t="s" s="2">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C672" t="s" s="2">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="D672" s="2"/>
       <c r="E672" t="s" s="2">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="F672" s="2"/>
       <c r="G672" t="s" s="2">
@@ -75423,13 +75395,13 @@
         <v>80</v>
       </c>
       <c r="M672" t="s" s="2">
+        <v>964</v>
+      </c>
+      <c r="N672" t="s" s="2">
+        <v>965</v>
+      </c>
+      <c r="O672" t="s" s="2">
         <v>966</v>
-      </c>
-      <c r="N672" t="s" s="2">
-        <v>967</v>
-      </c>
-      <c r="O672" t="s" s="2">
-        <v>968</v>
       </c>
       <c r="P672" s="2"/>
       <c r="Q672" t="s" s="2">
@@ -75479,7 +75451,7 @@
         <v>37</v>
       </c>
       <c r="AG672" t="s" s="2">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="AH672" t="s" s="2">
         <v>38</v>
@@ -75496,13 +75468,13 @@
     </row>
     <row r="673">
       <c r="A673" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B673" t="s" s="2">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C673" t="s" s="2">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="D673" s="2"/>
       <c r="E673" t="s" s="2">
@@ -75528,13 +75500,13 @@
         <v>853</v>
       </c>
       <c r="M673" t="s" s="2">
+        <v>969</v>
+      </c>
+      <c r="N673" t="s" s="2">
+        <v>970</v>
+      </c>
+      <c r="O673" t="s" s="2">
         <v>971</v>
-      </c>
-      <c r="N673" t="s" s="2">
-        <v>972</v>
-      </c>
-      <c r="O673" t="s" s="2">
-        <v>973</v>
       </c>
       <c r="P673" s="2"/>
       <c r="Q673" t="s" s="2">
@@ -75584,7 +75556,7 @@
         <v>37</v>
       </c>
       <c r="AG673" t="s" s="2">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="AH673" t="s" s="2">
         <v>38</v>
@@ -75596,18 +75568,18 @@
         <v>37</v>
       </c>
       <c r="AK673" t="s" s="2">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B674" t="s" s="2">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C674" t="s" s="2">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="D674" s="2"/>
       <c r="E674" t="s" s="2">
@@ -75630,16 +75602,16 @@
         <v>37</v>
       </c>
       <c r="L674" t="s" s="2">
-        <v>1142</v>
+        <v>1137</v>
       </c>
       <c r="M674" t="s" s="2">
-        <v>1143</v>
+        <v>1138</v>
       </c>
       <c r="N674" t="s" s="2">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="O674" t="s" s="2">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="P674" s="2"/>
       <c r="Q674" t="s" s="2">
@@ -75689,7 +75661,7 @@
         <v>37</v>
       </c>
       <c r="AG674" t="s" s="2">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="AH674" t="s" s="2">
         <v>38</v>
@@ -75701,18 +75673,18 @@
         <v>37</v>
       </c>
       <c r="AK674" t="s" s="2">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B675" t="s" s="2">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C675" t="s" s="2">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="D675" s="2"/>
       <c r="E675" t="s" s="2">
@@ -75735,16 +75707,16 @@
         <v>37</v>
       </c>
       <c r="L675" t="s" s="2">
+        <v>980</v>
+      </c>
+      <c r="M675" t="s" s="2">
+        <v>981</v>
+      </c>
+      <c r="N675" t="s" s="2">
         <v>982</v>
       </c>
-      <c r="M675" t="s" s="2">
+      <c r="O675" t="s" s="2">
         <v>983</v>
-      </c>
-      <c r="N675" t="s" s="2">
-        <v>984</v>
-      </c>
-      <c r="O675" t="s" s="2">
-        <v>985</v>
       </c>
       <c r="P675" s="2"/>
       <c r="Q675" t="s" s="2">
@@ -75794,7 +75766,7 @@
         <v>37</v>
       </c>
       <c r="AG675" t="s" s="2">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="AH675" t="s" s="2">
         <v>38</v>
@@ -75811,13 +75783,13 @@
     </row>
     <row r="676">
       <c r="A676" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B676" t="s" s="2">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="C676" t="s" s="2">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="D676" s="2"/>
       <c r="E676" t="s" s="2">
@@ -75843,13 +75815,13 @@
         <v>152</v>
       </c>
       <c r="M676" t="s" s="2">
-        <v>1144</v>
+        <v>1139</v>
       </c>
       <c r="N676" t="s" s="2">
-        <v>1145</v>
+        <v>1140</v>
       </c>
       <c r="O676" t="s" s="2">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="P676" s="2"/>
       <c r="Q676" t="s" s="2">
@@ -75899,7 +75871,7 @@
         <v>37</v>
       </c>
       <c r="AG676" t="s" s="2">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="AH676" t="s" s="2">
         <v>38</v>
@@ -75911,18 +75883,18 @@
         <v>37</v>
       </c>
       <c r="AK676" t="s" s="2">
-        <v>1146</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B677" t="s" s="2">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="C677" t="s" s="2">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="D677" s="2"/>
       <c r="E677" t="s" s="2">
@@ -76019,13 +75991,13 @@
     </row>
     <row r="678">
       <c r="A678" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B678" t="s" s="2">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C678" t="s" s="2">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="D678" s="2"/>
       <c r="E678" t="s" s="2">
@@ -76124,13 +76096,13 @@
     </row>
     <row r="679">
       <c r="A679" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B679" t="s" s="2">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C679" t="s" s="2">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="D679" s="2"/>
       <c r="E679" t="s" s="2">
@@ -76231,13 +76203,13 @@
     </row>
     <row r="680">
       <c r="A680" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B680" t="s" s="2">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="C680" t="s" s="2">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="D680" s="2"/>
       <c r="E680" t="s" s="2">
@@ -76263,13 +76235,13 @@
         <v>120</v>
       </c>
       <c r="M680" t="s" s="2">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="N680" t="s" s="2">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="O680" t="s" s="2">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="P680" s="2"/>
       <c r="Q680" t="s" s="2">
@@ -76298,10 +76270,10 @@
         <v>138</v>
       </c>
       <c r="Z680" t="s" s="2">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="AA680" t="s" s="2">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="AB680" t="s" s="2">
         <v>37</v>
@@ -76319,7 +76291,7 @@
         <v>37</v>
       </c>
       <c r="AG680" t="s" s="2">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="AH680" t="s" s="2">
         <v>45</v>
@@ -76336,13 +76308,13 @@
     </row>
     <row r="681">
       <c r="A681" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B681" t="s" s="2">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C681" t="s" s="2">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="D681" s="2"/>
       <c r="E681" t="s" s="2">
@@ -76365,13 +76337,13 @@
         <v>46</v>
       </c>
       <c r="L681" t="s" s="2">
+        <v>998</v>
+      </c>
+      <c r="M681" t="s" s="2">
+        <v>1143</v>
+      </c>
+      <c r="N681" t="s" s="2">
         <v>1000</v>
-      </c>
-      <c r="M681" t="s" s="2">
-        <v>1148</v>
-      </c>
-      <c r="N681" t="s" s="2">
-        <v>1002</v>
       </c>
       <c r="O681" s="2"/>
       <c r="P681" s="2"/>
@@ -76422,7 +76394,7 @@
         <v>37</v>
       </c>
       <c r="AG681" t="s" s="2">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="AH681" t="s" s="2">
         <v>45</v>
@@ -76434,18 +76406,18 @@
         <v>37</v>
       </c>
       <c r="AK681" t="s" s="2">
-        <v>1149</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B682" t="s" s="2">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C682" t="s" s="2">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="D682" s="2"/>
       <c r="E682" t="s" s="2">
@@ -76471,16 +76443,16 @@
         <v>59</v>
       </c>
       <c r="M682" t="s" s="2">
+        <v>1002</v>
+      </c>
+      <c r="N682" t="s" s="2">
+        <v>1003</v>
+      </c>
+      <c r="O682" t="s" s="2">
         <v>1004</v>
       </c>
-      <c r="N682" t="s" s="2">
+      <c r="P682" t="s" s="2">
         <v>1005</v>
-      </c>
-      <c r="O682" t="s" s="2">
-        <v>1006</v>
-      </c>
-      <c r="P682" t="s" s="2">
-        <v>1007</v>
       </c>
       <c r="Q682" t="s" s="2">
         <v>37</v>
@@ -76529,7 +76501,7 @@
         <v>37</v>
       </c>
       <c r="AG682" t="s" s="2">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="AH682" t="s" s="2">
         <v>38</v>
@@ -76546,13 +76518,13 @@
     </row>
     <row r="683">
       <c r="A683" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B683" t="s" s="2">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C683" t="s" s="2">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="D683" s="2"/>
       <c r="E683" t="s" s="2">
@@ -76578,16 +76550,16 @@
         <v>716</v>
       </c>
       <c r="M683" t="s" s="2">
+        <v>1007</v>
+      </c>
+      <c r="N683" t="s" s="2">
+        <v>1008</v>
+      </c>
+      <c r="O683" t="s" s="2">
         <v>1009</v>
       </c>
-      <c r="N683" t="s" s="2">
+      <c r="P683" t="s" s="2">
         <v>1010</v>
-      </c>
-      <c r="O683" t="s" s="2">
-        <v>1011</v>
-      </c>
-      <c r="P683" t="s" s="2">
-        <v>1012</v>
       </c>
       <c r="Q683" t="s" s="2">
         <v>37</v>
@@ -76636,7 +76608,7 @@
         <v>37</v>
       </c>
       <c r="AG683" t="s" s="2">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="AH683" t="s" s="2">
         <v>38</v>
@@ -76648,18 +76620,18 @@
         <v>37</v>
       </c>
       <c r="AK683" t="s" s="2">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B684" t="s" s="2">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C684" t="s" s="2">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="D684" s="2"/>
       <c r="E684" t="s" s="2">
@@ -76685,10 +76657,10 @@
         <v>152</v>
       </c>
       <c r="M684" t="s" s="2">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="N684" t="s" s="2">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="O684" s="2"/>
       <c r="P684" s="2"/>
@@ -76739,7 +76711,7 @@
         <v>37</v>
       </c>
       <c r="AG684" t="s" s="2">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="AH684" t="s" s="2">
         <v>45</v>
@@ -76756,13 +76728,13 @@
     </row>
     <row r="685">
       <c r="A685" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B685" t="s" s="2">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="C685" t="s" s="2">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="D685" s="2"/>
       <c r="E685" t="s" s="2">
@@ -76859,13 +76831,13 @@
     </row>
     <row r="686">
       <c r="A686" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B686" t="s" s="2">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C686" t="s" s="2">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="D686" s="2"/>
       <c r="E686" t="s" s="2">
@@ -76964,13 +76936,13 @@
     </row>
     <row r="687">
       <c r="A687" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B687" t="s" s="2">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="C687" t="s" s="2">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="D687" s="2"/>
       <c r="E687" t="s" s="2">
@@ -77071,13 +77043,13 @@
     </row>
     <row r="688">
       <c r="A688" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B688" t="s" s="2">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C688" t="s" s="2">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="D688" s="2"/>
       <c r="E688" t="s" s="2">
@@ -77100,13 +77072,13 @@
         <v>46</v>
       </c>
       <c r="L688" t="s" s="2">
+        <v>1019</v>
+      </c>
+      <c r="M688" t="s" s="2">
+        <v>1020</v>
+      </c>
+      <c r="N688" t="s" s="2">
         <v>1021</v>
-      </c>
-      <c r="M688" t="s" s="2">
-        <v>1022</v>
-      </c>
-      <c r="N688" t="s" s="2">
-        <v>1023</v>
       </c>
       <c r="O688" s="2"/>
       <c r="P688" s="2"/>
@@ -77157,7 +77129,7 @@
         <v>37</v>
       </c>
       <c r="AG688" t="s" s="2">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="AH688" t="s" s="2">
         <v>45</v>
@@ -77174,13 +77146,13 @@
     </row>
     <row r="689">
       <c r="A689" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B689" t="s" s="2">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C689" t="s" s="2">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="D689" s="2"/>
       <c r="E689" t="s" s="2">
@@ -77277,13 +77249,13 @@
     </row>
     <row r="690">
       <c r="A690" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B690" t="s" s="2">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C690" t="s" s="2">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="D690" s="2"/>
       <c r="E690" t="s" s="2">
@@ -77382,13 +77354,13 @@
     </row>
     <row r="691">
       <c r="A691" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B691" t="s" s="2">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C691" t="s" s="2">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="D691" s="2"/>
       <c r="E691" t="s" s="2">
@@ -77414,14 +77386,14 @@
         <v>120</v>
       </c>
       <c r="M691" t="s" s="2">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="N691" t="s" s="2">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="O691" s="2"/>
       <c r="P691" t="s" s="2">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="Q691" t="s" s="2">
         <v>37</v>
@@ -77434,7 +77406,7 @@
         <v>37</v>
       </c>
       <c r="U691" t="s" s="2">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="V691" t="s" s="2">
         <v>37</v>
@@ -77449,28 +77421,28 @@
         <v>138</v>
       </c>
       <c r="Z691" t="s" s="2">
+        <v>1029</v>
+      </c>
+      <c r="AA691" t="s" s="2">
+        <v>1030</v>
+      </c>
+      <c r="AB691" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC691" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD691" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE691" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF691" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG691" t="s" s="2">
         <v>1031</v>
-      </c>
-      <c r="AA691" t="s" s="2">
-        <v>1032</v>
-      </c>
-      <c r="AB691" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC691" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD691" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE691" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF691" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG691" t="s" s="2">
-        <v>1033</v>
       </c>
       <c r="AH691" t="s" s="2">
         <v>38</v>
@@ -77487,13 +77459,13 @@
     </row>
     <row r="692">
       <c r="A692" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B692" t="s" s="2">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="C692" t="s" s="2">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="D692" s="2"/>
       <c r="E692" t="s" s="2">
@@ -77519,14 +77491,14 @@
         <v>120</v>
       </c>
       <c r="M692" t="s" s="2">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="N692" t="s" s="2">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="O692" s="2"/>
       <c r="P692" t="s" s="2">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="Q692" t="s" s="2">
         <v>37</v>
@@ -77539,7 +77511,7 @@
         <v>37</v>
       </c>
       <c r="U692" t="s" s="2">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="V692" t="s" s="2">
         <v>37</v>
@@ -77575,7 +77547,7 @@
         <v>37</v>
       </c>
       <c r="AG692" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="AH692" t="s" s="2">
         <v>38</v>
@@ -77592,13 +77564,13 @@
     </row>
     <row r="693">
       <c r="A693" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B693" t="s" s="2">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="C693" t="s" s="2">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="D693" s="2"/>
       <c r="E693" t="s" s="2">
@@ -77621,19 +77593,19 @@
         <v>37</v>
       </c>
       <c r="L693" t="s" s="2">
+        <v>1039</v>
+      </c>
+      <c r="M693" t="s" s="2">
+        <v>1146</v>
+      </c>
+      <c r="N693" t="s" s="2">
         <v>1041</v>
       </c>
-      <c r="M693" t="s" s="2">
-        <v>1151</v>
-      </c>
-      <c r="N693" t="s" s="2">
+      <c r="O693" t="s" s="2">
+        <v>1042</v>
+      </c>
+      <c r="P693" t="s" s="2">
         <v>1043</v>
-      </c>
-      <c r="O693" t="s" s="2">
-        <v>1044</v>
-      </c>
-      <c r="P693" t="s" s="2">
-        <v>1045</v>
       </c>
       <c r="Q693" t="s" s="2">
         <v>37</v>
@@ -77682,7 +77654,7 @@
         <v>37</v>
       </c>
       <c r="AG693" t="s" s="2">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="AH693" t="s" s="2">
         <v>38</v>
@@ -77699,13 +77671,13 @@
     </row>
     <row r="694">
       <c r="A694" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B694" t="s" s="2">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="C694" t="s" s="2">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="D694" s="2"/>
       <c r="E694" t="s" s="2">
@@ -77728,19 +77700,19 @@
         <v>46</v>
       </c>
       <c r="L694" t="s" s="2">
+        <v>1046</v>
+      </c>
+      <c r="M694" t="s" s="2">
+        <v>1147</v>
+      </c>
+      <c r="N694" t="s" s="2">
         <v>1048</v>
       </c>
-      <c r="M694" t="s" s="2">
-        <v>1152</v>
-      </c>
-      <c r="N694" t="s" s="2">
+      <c r="O694" t="s" s="2">
+        <v>1049</v>
+      </c>
+      <c r="P694" t="s" s="2">
         <v>1050</v>
-      </c>
-      <c r="O694" t="s" s="2">
-        <v>1051</v>
-      </c>
-      <c r="P694" t="s" s="2">
-        <v>1052</v>
       </c>
       <c r="Q694" t="s" s="2">
         <v>37</v>
@@ -77753,7 +77725,7 @@
         <v>37</v>
       </c>
       <c r="U694" t="s" s="2">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="V694" t="s" s="2">
         <v>37</v>
@@ -77789,7 +77761,7 @@
         <v>37</v>
       </c>
       <c r="AG694" t="s" s="2">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="AH694" t="s" s="2">
         <v>38</v>
@@ -77801,18 +77773,18 @@
         <v>37</v>
       </c>
       <c r="AK694" t="s" s="2">
-        <v>1153</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B695" t="s" s="2">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="C695" t="s" s="2">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="D695" s="2"/>
       <c r="E695" t="s" s="2">
@@ -77838,16 +77810,16 @@
         <v>146</v>
       </c>
       <c r="M695" t="s" s="2">
+        <v>1054</v>
+      </c>
+      <c r="N695" t="s" s="2">
+        <v>1055</v>
+      </c>
+      <c r="O695" t="s" s="2">
         <v>1056</v>
       </c>
-      <c r="N695" t="s" s="2">
+      <c r="P695" t="s" s="2">
         <v>1057</v>
-      </c>
-      <c r="O695" t="s" s="2">
-        <v>1058</v>
-      </c>
-      <c r="P695" t="s" s="2">
-        <v>1059</v>
       </c>
       <c r="Q695" t="s" s="2">
         <v>37</v>
@@ -77896,7 +77868,7 @@
         <v>37</v>
       </c>
       <c r="AG695" t="s" s="2">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="AH695" t="s" s="2">
         <v>38</v>
@@ -77913,13 +77885,13 @@
     </row>
     <row r="696">
       <c r="A696" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B696" t="s" s="2">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="C696" t="s" s="2">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="D696" s="2"/>
       <c r="E696" t="s" s="2">
@@ -77942,19 +77914,19 @@
         <v>46</v>
       </c>
       <c r="L696" t="s" s="2">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="M696" t="s" s="2">
+        <v>1060</v>
+      </c>
+      <c r="N696" t="s" s="2">
+        <v>1061</v>
+      </c>
+      <c r="O696" t="s" s="2">
         <v>1062</v>
       </c>
-      <c r="N696" t="s" s="2">
+      <c r="P696" t="s" s="2">
         <v>1063</v>
-      </c>
-      <c r="O696" t="s" s="2">
-        <v>1064</v>
-      </c>
-      <c r="P696" t="s" s="2">
-        <v>1065</v>
       </c>
       <c r="Q696" t="s" s="2">
         <v>37</v>
@@ -78003,7 +77975,7 @@
         <v>37</v>
       </c>
       <c r="AG696" t="s" s="2">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="AH696" t="s" s="2">
         <v>38</v>
@@ -78020,13 +77992,13 @@
     </row>
     <row r="697">
       <c r="A697" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B697" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="C697" t="s" s="2">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="D697" s="2"/>
       <c r="E697" t="s" s="2">
@@ -78052,14 +78024,14 @@
         <v>59</v>
       </c>
       <c r="M697" t="s" s="2">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="N697" t="s" s="2">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="O697" s="2"/>
       <c r="P697" t="s" s="2">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="Q697" t="s" s="2">
         <v>37</v>
@@ -78072,7 +78044,7 @@
         <v>37</v>
       </c>
       <c r="U697" t="s" s="2">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="V697" t="s" s="2">
         <v>37</v>
@@ -78108,7 +78080,7 @@
         <v>37</v>
       </c>
       <c r="AG697" t="s" s="2">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="AH697" t="s" s="2">
         <v>38</v>
@@ -78125,13 +78097,13 @@
     </row>
     <row r="698">
       <c r="A698" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B698" t="s" s="2">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="C698" t="s" s="2">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="D698" s="2"/>
       <c r="E698" t="s" s="2">
@@ -78157,14 +78129,14 @@
         <v>734</v>
       </c>
       <c r="M698" t="s" s="2">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="N698" t="s" s="2">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="O698" s="2"/>
       <c r="P698" t="s" s="2">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="Q698" t="s" s="2">
         <v>37</v>
@@ -78213,7 +78185,7 @@
         <v>37</v>
       </c>
       <c r="AG698" t="s" s="2">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="AH698" t="s" s="2">
         <v>38</v>
@@ -78230,13 +78202,13 @@
     </row>
     <row r="699">
       <c r="A699" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B699" t="s" s="2">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="C699" t="s" s="2">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="D699" s="2"/>
       <c r="E699" t="s" s="2">
@@ -78262,13 +78234,13 @@
         <v>98</v>
       </c>
       <c r="M699" t="s" s="2">
+        <v>1077</v>
+      </c>
+      <c r="N699" t="s" s="2">
+        <v>1078</v>
+      </c>
+      <c r="O699" t="s" s="2">
         <v>1079</v>
-      </c>
-      <c r="N699" t="s" s="2">
-        <v>1080</v>
-      </c>
-      <c r="O699" t="s" s="2">
-        <v>1081</v>
       </c>
       <c r="P699" s="2"/>
       <c r="Q699" t="s" s="2">
@@ -78296,11 +78268,9 @@
       <c r="Y699" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="Z699" t="s" s="2">
-        <v>1082</v>
-      </c>
+      <c r="Z699" s="2"/>
       <c r="AA699" t="s" s="2">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="AB699" t="s" s="2">
         <v>37</v>
@@ -78318,7 +78288,7 @@
         <v>37</v>
       </c>
       <c r="AG699" t="s" s="2">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="AH699" t="s" s="2">
         <v>38</v>
@@ -78330,18 +78300,18 @@
         <v>37</v>
       </c>
       <c r="AK699" t="s" s="2">
-        <v>1084</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B700" t="s" s="2">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="C700" t="s" s="2">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="D700" s="2"/>
       <c r="E700" t="s" s="2">
@@ -78367,13 +78337,13 @@
         <v>152</v>
       </c>
       <c r="M700" t="s" s="2">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="N700" t="s" s="2">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="O700" t="s" s="2">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="P700" s="2"/>
       <c r="Q700" t="s" s="2">
@@ -78423,7 +78393,7 @@
         <v>37</v>
       </c>
       <c r="AG700" t="s" s="2">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="AH700" t="s" s="2">
         <v>38</v>
@@ -78440,13 +78410,13 @@
     </row>
     <row r="701">
       <c r="A701" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B701" t="s" s="2">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="C701" t="s" s="2">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="D701" s="2"/>
       <c r="E701" t="s" s="2">
@@ -78543,13 +78513,13 @@
     </row>
     <row r="702">
       <c r="A702" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B702" t="s" s="2">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="C702" t="s" s="2">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="D702" s="2"/>
       <c r="E702" t="s" s="2">
@@ -78648,13 +78618,13 @@
     </row>
     <row r="703">
       <c r="A703" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B703" t="s" s="2">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="C703" t="s" s="2">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="D703" s="2"/>
       <c r="E703" t="s" s="2">
@@ -78755,13 +78725,13 @@
     </row>
     <row r="704">
       <c r="A704" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B704" t="s" s="2">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="C704" t="s" s="2">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="D704" s="2"/>
       <c r="E704" t="s" s="2">
@@ -78784,13 +78754,13 @@
         <v>37</v>
       </c>
       <c r="L704" t="s" s="2">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="M704" t="s" s="2">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="N704" t="s" s="2">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="O704" s="2"/>
       <c r="P704" s="2"/>
@@ -78841,7 +78811,7 @@
         <v>37</v>
       </c>
       <c r="AG704" t="s" s="2">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="AH704" t="s" s="2">
         <v>38</v>
@@ -78858,13 +78828,13 @@
     </row>
     <row r="705">
       <c r="A705" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B705" t="s" s="2">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="C705" t="s" s="2">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="D705" s="2"/>
       <c r="E705" t="s" s="2">
@@ -78890,13 +78860,13 @@
         <v>716</v>
       </c>
       <c r="M705" t="s" s="2">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="N705" t="s" s="2">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="O705" t="s" s="2">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="P705" s="2"/>
       <c r="Q705" t="s" s="2">
@@ -78925,10 +78895,10 @@
         <v>110</v>
       </c>
       <c r="Z705" t="s" s="2">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="AA705" t="s" s="2">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="AB705" t="s" s="2">
         <v>37</v>
@@ -78946,7 +78916,7 @@
         <v>37</v>
       </c>
       <c r="AG705" t="s" s="2">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="AH705" t="s" s="2">
         <v>38</v>
@@ -78958,18 +78928,18 @@
         <v>37</v>
       </c>
       <c r="AK705" t="s" s="2">
-        <v>1102</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B706" t="s" s="2">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="C706" t="s" s="2">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="D706" s="2"/>
       <c r="E706" t="s" s="2">
@@ -78992,13 +78962,13 @@
         <v>46</v>
       </c>
       <c r="L706" t="s" s="2">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="M706" t="s" s="2">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="N706" t="s" s="2">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="O706" s="2"/>
       <c r="P706" s="2"/>
@@ -79049,7 +79019,7 @@
         <v>37</v>
       </c>
       <c r="AG706" t="s" s="2">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="AH706" t="s" s="2">
         <v>38</v>
@@ -79066,13 +79036,13 @@
     </row>
     <row r="707">
       <c r="A707" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B707" t="s" s="2">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="C707" t="s" s="2">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="D707" s="2"/>
       <c r="E707" t="s" s="2">
@@ -79169,13 +79139,13 @@
     </row>
     <row r="708">
       <c r="A708" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B708" t="s" s="2">
-        <v>1156</v>
+        <v>1151</v>
       </c>
       <c r="C708" t="s" s="2">
-        <v>1156</v>
+        <v>1151</v>
       </c>
       <c r="D708" s="2"/>
       <c r="E708" t="s" s="2">
@@ -79274,13 +79244,13 @@
     </row>
     <row r="709">
       <c r="A709" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B709" t="s" s="2">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="C709" t="s" s="2">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="D709" s="2"/>
       <c r="E709" t="s" s="2">
@@ -79306,13 +79276,13 @@
         <v>734</v>
       </c>
       <c r="M709" t="s" s="2">
-        <v>1158</v>
+        <v>1153</v>
       </c>
       <c r="N709" t="s" s="2">
-        <v>1159</v>
+        <v>1154</v>
       </c>
       <c r="O709" t="s" s="2">
-        <v>1160</v>
+        <v>1155</v>
       </c>
       <c r="P709" s="2"/>
       <c r="Q709" t="s" s="2">
@@ -79362,7 +79332,7 @@
         <v>37</v>
       </c>
       <c r="AG709" t="s" s="2">
-        <v>1161</v>
+        <v>1156</v>
       </c>
       <c r="AH709" t="s" s="2">
         <v>38</v>
@@ -79371,7 +79341,7 @@
         <v>45</v>
       </c>
       <c r="AJ709" t="s" s="2">
-        <v>1162</v>
+        <v>1157</v>
       </c>
       <c r="AK709" t="s" s="2">
         <v>57</v>
@@ -79379,13 +79349,13 @@
     </row>
     <row r="710">
       <c r="A710" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B710" t="s" s="2">
-        <v>1163</v>
+        <v>1158</v>
       </c>
       <c r="C710" t="s" s="2">
-        <v>1163</v>
+        <v>1158</v>
       </c>
       <c r="D710" s="2"/>
       <c r="E710" t="s" s="2">
@@ -79411,20 +79381,20 @@
         <v>734</v>
       </c>
       <c r="M710" t="s" s="2">
-        <v>1164</v>
+        <v>1159</v>
       </c>
       <c r="N710" t="s" s="2">
-        <v>1165</v>
+        <v>1160</v>
       </c>
       <c r="O710" t="s" s="2">
-        <v>1166</v>
+        <v>1161</v>
       </c>
       <c r="P710" s="2"/>
       <c r="Q710" t="s" s="2">
         <v>37</v>
       </c>
       <c r="R710" t="s" s="2">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="S710" t="s" s="2">
         <v>37</v>
@@ -79469,7 +79439,7 @@
         <v>37</v>
       </c>
       <c r="AG710" t="s" s="2">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="AH710" t="s" s="2">
         <v>38</v>
@@ -79478,7 +79448,7 @@
         <v>45</v>
       </c>
       <c r="AJ710" t="s" s="2">
-        <v>1162</v>
+        <v>1157</v>
       </c>
       <c r="AK710" t="s" s="2">
         <v>57</v>
@@ -79486,13 +79456,13 @@
     </row>
     <row r="711">
       <c r="A711" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B711" t="s" s="2">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="C711" t="s" s="2">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="D711" s="2"/>
       <c r="E711" t="s" s="2">
@@ -79518,10 +79488,10 @@
         <v>716</v>
       </c>
       <c r="M711" t="s" s="2">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="N711" t="s" s="2">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="O711" s="2"/>
       <c r="P711" s="2"/>
@@ -79550,11 +79520,9 @@
       <c r="Y711" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="Z711" t="s" s="2">
-        <v>1110</v>
-      </c>
+      <c r="Z711" s="2"/>
       <c r="AA711" t="s" s="2">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="AB711" t="s" s="2">
         <v>37</v>
@@ -79572,7 +79540,7 @@
         <v>37</v>
       </c>
       <c r="AG711" t="s" s="2">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="AH711" t="s" s="2">
         <v>38</v>
@@ -79584,18 +79552,18 @@
         <v>37</v>
       </c>
       <c r="AK711" t="s" s="2">
-        <v>1169</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B712" t="s" s="2">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="C712" t="s" s="2">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="D712" s="2"/>
       <c r="E712" t="s" s="2">
@@ -79621,16 +79589,16 @@
         <v>716</v>
       </c>
       <c r="M712" t="s" s="2">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="N712" t="s" s="2">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="O712" t="s" s="2">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="P712" t="s" s="2">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="Q712" t="s" s="2">
         <v>37</v>
@@ -79657,11 +79625,9 @@
       <c r="Y712" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="Z712" t="s" s="2">
-        <v>1118</v>
-      </c>
+      <c r="Z712" s="2"/>
       <c r="AA712" t="s" s="2">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="AB712" t="s" s="2">
         <v>37</v>
@@ -79679,7 +79645,7 @@
         <v>37</v>
       </c>
       <c r="AG712" t="s" s="2">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="AH712" t="s" s="2">
         <v>38</v>
@@ -79691,18 +79657,18 @@
         <v>37</v>
       </c>
       <c r="AK712" t="s" s="2">
-        <v>1169</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B713" t="s" s="2">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="C713" t="s" s="2">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="D713" s="2"/>
       <c r="E713" t="s" s="2">
@@ -79725,13 +79691,13 @@
         <v>37</v>
       </c>
       <c r="L713" t="s" s="2">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="M713" t="s" s="2">
         <v>851</v>
       </c>
       <c r="N713" t="s" s="2">
-        <v>1122</v>
+        <v>1117</v>
       </c>
       <c r="O713" s="2"/>
       <c r="P713" s="2"/>
@@ -79782,7 +79748,7 @@
         <v>37</v>
       </c>
       <c r="AG713" t="s" s="2">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="AH713" t="s" s="2">
         <v>38</v>
@@ -79799,13 +79765,13 @@
     </row>
     <row r="714">
       <c r="A714" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B714" t="s" s="2">
-        <v>1170</v>
+        <v>1165</v>
       </c>
       <c r="C714" t="s" s="2">
-        <v>1170</v>
+        <v>1165</v>
       </c>
       <c r="D714" s="2"/>
       <c r="E714" t="s" s="2">
@@ -79902,13 +79868,13 @@
     </row>
     <row r="715">
       <c r="A715" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B715" t="s" s="2">
-        <v>1171</v>
+        <v>1166</v>
       </c>
       <c r="C715" t="s" s="2">
-        <v>1171</v>
+        <v>1166</v>
       </c>
       <c r="D715" s="2"/>
       <c r="E715" t="s" s="2">
@@ -80007,13 +79973,13 @@
     </row>
     <row r="716">
       <c r="A716" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B716" t="s" s="2">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="C716" t="s" s="2">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="D716" s="2"/>
       <c r="E716" t="s" s="2">
@@ -80112,13 +80078,13 @@
     </row>
     <row r="717">
       <c r="A717" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B717" t="s" s="2">
-        <v>1173</v>
+        <v>1168</v>
       </c>
       <c r="C717" t="s" s="2">
-        <v>1173</v>
+        <v>1168</v>
       </c>
       <c r="D717" s="2"/>
       <c r="E717" t="s" s="2">
@@ -80217,13 +80183,13 @@
     </row>
     <row r="718">
       <c r="A718" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B718" t="s" s="2">
-        <v>1174</v>
+        <v>1169</v>
       </c>
       <c r="C718" t="s" s="2">
-        <v>1174</v>
+        <v>1169</v>
       </c>
       <c r="D718" s="2"/>
       <c r="E718" t="s" s="2">
@@ -80322,13 +80288,13 @@
     </row>
     <row r="719">
       <c r="A719" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B719" t="s" s="2">
-        <v>1175</v>
+        <v>1170</v>
       </c>
       <c r="C719" t="s" s="2">
-        <v>1175</v>
+        <v>1170</v>
       </c>
       <c r="D719" s="2"/>
       <c r="E719" t="s" s="2">
@@ -80427,13 +80393,13 @@
     </row>
     <row r="720">
       <c r="A720" t="s" s="2">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B720" t="s" s="2">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="C720" t="s" s="2">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="D720" s="2"/>
       <c r="E720" t="s" s="2">
@@ -80456,16 +80422,16 @@
         <v>37</v>
       </c>
       <c r="L720" t="s" s="2">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="M720" t="s" s="2">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="N720" t="s" s="2">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="O720" t="s" s="2">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="P720" s="2"/>
       <c r="Q720" t="s" s="2">
@@ -80515,7 +80481,7 @@
         <v>37</v>
       </c>
       <c r="AG720" t="s" s="2">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="AH720" t="s" s="2">
         <v>38</v>
@@ -80532,7 +80498,7 @@
     </row>
     <row r="721">
       <c r="A721" t="s" s="2">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="B721" t="s" s="2">
         <v>545</v>
@@ -80635,7 +80601,7 @@
     </row>
     <row r="722">
       <c r="A722" t="s" s="2">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="B722" t="s" s="2">
         <v>551</v>
@@ -80738,7 +80704,7 @@
     </row>
     <row r="723">
       <c r="A723" t="s" s="2">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="B723" t="s" s="2">
         <v>552</v>
@@ -80841,7 +80807,7 @@
     </row>
     <row r="724">
       <c r="A724" t="s" s="2">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="B724" t="s" s="2">
         <v>554</v>
@@ -80887,7 +80853,7 @@
       </c>
       <c r="R724" s="2"/>
       <c r="S724" t="s" s="2">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="T724" t="s" s="2">
         <v>37</v>
@@ -80946,7 +80912,7 @@
     </row>
     <row r="725">
       <c r="A725" t="s" s="2">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="B725" t="s" s="2">
         <v>558</v>
@@ -80975,7 +80941,7 @@
         <v>37</v>
       </c>
       <c r="L725" t="s" s="2">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="M725" t="s" s="2">
         <v>560</v>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24043" uniqueCount="1174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24042" uniqueCount="1169">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-31T15:22:04+00:00</t>
+    <t>2023-08-31T15:37:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2022,7 +2022,7 @@
     <t>PDSm Folder Comprehensive</t>
   </si>
   <si>
-    <t>Profil spécifique dérivé du profil IHE MHD v4.0.1 « Comprehensive Folder  » créé pour le volet ANS "Partage de documents de santé en mobilité" ; ce profil concerne le classeur.</t>
+    <t>Profil spécifique dérivé du profil IHE MHD « Comprehensive Folder » créé pour le volet ANS "Partage de documents de santé en mobilité" ; ce profil concerne le classeur.</t>
   </si>
   <si>
     <t>List</t>
@@ -2093,18 +2093,20 @@
     <t>List.contained</t>
   </si>
   <si>
-    <t xml:space="preserve">Patient {http://interopsante.org/fhir/StructureDefinition/FrPatient}
-</t>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
   </si>
   <si>
     <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
   </si>
   <si>
     <t>List.extension</t>
@@ -2123,14 +2125,10 @@
 </t>
   </si>
   <si>
-    <t>Représente les codes spécifiant le type d’activité de l’événement clinique ayant abouti au regroupement de la fiche d’un document dans ce classeur.</t>
+    <t>Représente les codes spécifiant le type d’activité de l’événement clinique ayant abouti au regroupement de la fiche d’un document dans ce classeur. Le jeu de valeurs est à définir par le système cible.</t>
   </si>
   <si>
     <t>Expresses contentType of submissionSet or the codeList of a Folder. Usually expressed in LOINC or SNOMED.</t>
-  </si>
-  <si>
-    <t>Le jeu de valeurs est à définir par le système cible.
-There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>List.modifierExtension</t>
@@ -2502,20 +2500,13 @@
     <t>PDSm SubmissionSet Comprehensive</t>
   </si>
   <si>
-    <t>Profil spécifique dérivé du profil IHE MHD v4.0.1 « ComprehensiveSubmissionSet  » créé pour le volet ANS "Partage de documents de santé en mobilité" ; ce profil concerne le lot de soumission.</t>
+    <t>Profil spécifique dérivé du profil IHE MHD « ComprehensiveSubmissionSet » créé pour le volet ANS "Partage de documents de santé en mobilité" ; ce profil concerne le lot de soumission.</t>
   </si>
   <si>
     <t>https://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.Comprehensive.SubmissionSet</t>
   </si>
   <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+    <t>Ressource contenue. Dans le cadre de ce profil, il est obligatoire qu'il y ait au moins une ressource contenue : source ou source.extension[authorOrg]</t>
   </si>
   <si>
     <t>2</t>
@@ -2598,10 +2589,10 @@
 </t>
   </si>
   <si>
-    <t>Représente le destinataire du lot de soumission</t>
-  </si>
-  <si>
-    <t>Les ressources référencées sont : 1/ PractitionerRole : Dans le cas d’un destinaire professionnel, c’est le profil AsPractitionerRole représentant la situation d’exercice qui doit être référencé. Lui-même fera le lien avec le profil AsPractitionerRole représentant l’exercice professionnel et avec FrPractitioner. 2/ Organization contrainte au profil FrOrganization</t>
+    <t>Représente le destinataire du lot de soumission. Il peut s'agir d'un AsPractitioner associé à un AsPractitionerRole ou bien d'une AsOrganization.</t>
+  </si>
+  <si>
+    <t>holds the identity of the organization or person the SubmissionSet is intended. For XDR and eMail (e.g. Direct) this tends to be a Practitioner or Patient with a telecom holding an email, but this is not strictly required.</t>
   </si>
   <si>
     <t>List.extension:intendedRecipient.id</t>
@@ -2685,15 +2676,11 @@
     <t>Représente la date et heure de soumission.</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-organizationalRole-rass|Device|http://interopsante.org/fhir/StructureDefinition/FrPatient) &lt;&lt;contained&gt;&gt;
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitionerrole|Device|http://interopsante.org/fhir/StructureDefinition/FrPatient) &lt;&lt;contained&gt;&gt;
 </t>
   </si>
   <si>
-    <t>Représente les personnes physiques ou morales et/ou les dispositifs auteurs d’un lot de soumission.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-constr-bind-source:Un lot de soumission est obligatoirement associé à un auteur. Si l’attribut "ihe-authorOrg" n’est pas renseigné, autrement dit si l’auteur est une personne physique ou un dispositif. {f:source}</t>
+    <t>Représente l'auteur du lot de soumission. Si l'auteur est une organisation, utiliser l'extension authorOrg. Si l’auteur est une personne physique ou un dispositif, utiliser l’attribut source.reference .</t>
   </si>
   <si>
     <t>List.source.id</t>
@@ -2712,17 +2699,12 @@
 </t>
   </si>
   <si>
-    <t>Organisation auteur du document. Un lot de soumission est obligatoirement associé à un auteur. Si l’attribut “source” n’est pas renseigné, autrement dit si l’auteur est une personne morale, la cardinalité est contrainte à [1..1].</t>
+    <t>Auteur organisationnel du document</t>
   </si>
   <si>
     <t>When the author of the SubmissionSet is an Organization, this extension shall be used.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}constr-bind-authororg:Un lot de soumission est obligatoirement associé à un auteur. Si l’attribut "source" n’est pas renseigné, autrement dit si l’auteur est une personne morale, la cardinalité est contrainte à [1..1].
-La ressource référencée doit être présente sous l’élément List.contained. {f:source/f:extension[authorOrg]}</t>
-  </si>
-  <si>
     <t>List.source.extension:authorOrg.id</t>
   </si>
   <si>
@@ -2750,7 +2732,7 @@
     <t>List.source.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/organization-rass) &lt;&lt;contained&gt;&gt;
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-organization) &lt;&lt;contained&gt;&gt;
 </t>
   </si>
   <si>
@@ -3058,7 +3040,7 @@
     <t>DocumentReference.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-organizationalRole-rass|http://interopsante.org/fhir/StructureDefinition/FrPractitioner|http://interopsante.org/fhir/StructureDefinition/FrOrganization|Device|http://interopsante.org/fhir/StructureDefinition/FrPatient|http://interopsante.org/fhir/StructureDefinition/FrRelatedPerson)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitionerrole|https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitioner|https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-organization|Device|http://interopsante.org/fhir/StructureDefinition/FrPatient|http://interopsante.org/fhir/StructureDefinition/FrRelatedPerson)
 </t>
   </si>
   <si>
@@ -3071,18 +3053,10 @@
     <t>Not necessarily who did the actual data entry (i.e. typist) or who was the source (informant).</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-constr-bind-author:Cardinalité contrainte à [1..*]
-Reference contrainte à :
-- PractitionerRole : Dans le cas d’un auteur professionnel, c’est le profil PractitionerRoleOrganizationalRoleRASSreprésentant la situation d’exercice qui doit être référencé. Lui-même fera le lien avec le profil PractitionerRoleProfessionalRoleRASS représentant l’exercice professionnel et avec FrPractitioner.
-- Device,
-- Patient contrainte au profil FrPatient. {f:author}</t>
-  </si>
-  <si>
     <t>DocumentReference.authenticator</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-organizationalRole-rass|https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/organization-rass)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitionerrole|https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-organization)
 </t>
   </si>
   <si>
@@ -3093,13 +3067,6 @@
   </si>
   <si>
     <t>Represents a participant within the author institution who has legally authenticated or attested the document. Legal authentication implies that a document has been signed manually or electronically by the legal Authenticator.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-constr-bind-authenticator:Cardinalité contrainte à [1..1]
-Référence contrainte au profil 
-- PractitionerRole : Dans le cas d’un authentificateur professionnel, c’est le profil PractitionerRoleOrganizationalRoleRASS représentant la situation d’exercice qui doit être référencé. Lui-même fera le lien avec le profil PractitionerRoleProfessionalRoleRASS représentant l’exercice professionnel et avec FrPractitioner.
--  Organization contrainte au profil FrOrganization. {f:authenticator}</t>
   </si>
   <si>
     <t>DocumentReference.custodian</t>
@@ -3537,10 +3504,6 @@
     <t>DocumentReference.context.sourcePatientInfo</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://interopsante.org/fhir/StructureDefinition/FrPatient) &lt;&lt;contained&gt;&gt;
-</t>
-  </si>
-  <si>
     <t>The Patient Information as known when the document was published. May be a reference to a version specific, or contained.</t>
   </si>
   <si>
@@ -3578,10 +3541,13 @@
     <t>https://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.Comprehensive.DocumentReference</t>
   </si>
   <si>
+    <t>Ressource contenue. Dans le cadre de ce profil, il est obligatoire qu'il y ait au moins une ressource contenue : la•les ressource•s référencée•s dans les attributs author et authenticator</t>
+  </si>
+  <si>
     <t>DocumentReference.extension:isArchived</t>
   </si>
   <si>
-    <t>Extension définie par ce volet pour distinguer les fiches archivées des actives.</t>
+    <t>Extension définie pour distinguer les fiches archivées des actives.</t>
   </si>
   <si>
     <t>DocumentReference.identifier:entryUUID</t>
@@ -3596,16 +3562,10 @@
     <t>Specifies the particular kind of document referenced  (e.g. History and Physical, Discharge Summary, Progress Note). This usually equates to the purpose of making the document referenced.</t>
   </si>
   <si>
-    <t>Référence vers le patient concerné par le document.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-constr-subj-ref:La ressource référencée doit être présente sous l’élément DocumentReference.contained.
-Référence contrainte au profil FrPatient
-Cette même ressource est référencée depuis context.sourcePatientInfo. {f:subject}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-organizationalRole-rass|https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/organization-rass) &lt;&lt;contained&gt;&gt;
+    <t>Référence vers le patient concerné par le document. Cette même ressource est référencée depuis context.sourcePatientInfo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitionerrole|https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-organization) &lt;&lt;contained&gt;&gt;
 </t>
   </si>
   <si>
@@ -3700,6 +3660,10 @@
 En l’absence de spécifications complémentaires, le jeu de valeurs JDV_J02-XdsHealthcareFacilityTypeCode-CISIS peut être utilisé. {f:context/f:facilityType or f:context/f:practiceSetting}</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(http://interopsante.org/fhir/StructureDefinition/FrPatient) &lt;&lt;contained&gt;&gt;
+</t>
+  </si>
+  <si>
     <t>DocumentReference.context.sourcePatientInfo.id</t>
   </si>
   <si>
@@ -3725,6 +3689,9 @@
   </si>
   <si>
     <t>PDSm_intendedRecipient</t>
+  </si>
+  <si>
+    <t>Représente le destinataire du lot de soumission</t>
   </si>
 </sst>
 </file>
@@ -4819,7 +4786,7 @@
         <v>2</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
     </row>
     <row r="125">
@@ -4827,7 +4794,7 @@
         <v>4</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>903</v>
+        <v>899</v>
       </c>
     </row>
     <row r="126">
@@ -4843,7 +4810,7 @@
         <v>8</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>904</v>
+        <v>900</v>
       </c>
     </row>
     <row r="128">
@@ -4851,7 +4818,7 @@
         <v>10</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>905</v>
+        <v>901</v>
       </c>
     </row>
     <row r="129">
@@ -4897,7 +4864,7 @@
         <v>21</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>906</v>
+        <v>902</v>
       </c>
     </row>
     <row r="135">
@@ -4941,7 +4908,7 @@
         <v>31</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="141">
@@ -4973,7 +4940,7 @@
         <v>2</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="145">
@@ -4981,7 +4948,7 @@
         <v>4</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>1124</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="146">
@@ -4997,7 +4964,7 @@
         <v>8</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>1125</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="148">
@@ -5005,7 +4972,7 @@
         <v>10</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>1126</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="149">
@@ -5051,7 +5018,7 @@
         <v>21</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>1127</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="155">
@@ -5095,7 +5062,7 @@
         <v>31</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>1128</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="161">
@@ -5127,7 +5094,7 @@
         <v>2</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>1171</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="165">
@@ -5135,7 +5102,7 @@
         <v>4</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>1172</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="166">
@@ -5151,7 +5118,7 @@
         <v>8</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>1173</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="168">
@@ -5203,7 +5170,7 @@
         <v>21</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>827</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="175">
@@ -56541,11 +56508,11 @@
       </c>
       <c r="D492" s="2"/>
       <c r="E492" t="s" s="2">
-        <v>502</v>
+        <v>669</v>
       </c>
       <c r="F492" s="2"/>
       <c r="G492" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H492" t="s" s="2">
         <v>39</v>
@@ -56560,16 +56527,16 @@
         <v>37</v>
       </c>
       <c r="L492" t="s" s="2">
-        <v>669</v>
+        <v>188</v>
       </c>
       <c r="M492" t="s" s="2">
-        <v>504</v>
+        <v>670</v>
       </c>
       <c r="N492" t="s" s="2">
-        <v>505</v>
+        <v>671</v>
       </c>
       <c r="O492" t="s" s="2">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="P492" s="2"/>
       <c r="Q492" t="s" s="2">
@@ -56619,7 +56586,7 @@
         <v>37</v>
       </c>
       <c r="AG492" t="s" s="2">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="AH492" t="s" s="2">
         <v>38</v>
@@ -56631,7 +56598,7 @@
         <v>37</v>
       </c>
       <c r="AK492" t="s" s="2">
-        <v>672</v>
+        <v>37</v>
       </c>
     </row>
     <row r="493">
@@ -56639,10 +56606,10 @@
         <v>642</v>
       </c>
       <c r="B493" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C493" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D493" s="2"/>
       <c r="E493" t="s" s="2">
@@ -56720,7 +56687,7 @@
         <v>71</v>
       </c>
       <c r="AG493" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AH493" t="s" s="2">
         <v>38</v>
@@ -56740,13 +56707,13 @@
         <v>642</v>
       </c>
       <c r="B494" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C494" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D494" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="E494" t="s" s="2">
         <v>37</v>
@@ -56768,17 +56735,15 @@
         <v>37</v>
       </c>
       <c r="L494" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="M494" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="N494" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="O494" t="s" s="2">
         <v>680</v>
       </c>
+      <c r="O494" s="2"/>
       <c r="P494" s="2"/>
       <c r="Q494" t="s" s="2">
         <v>37</v>
@@ -56827,7 +56792,7 @@
         <v>37</v>
       </c>
       <c r="AG494" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AH494" t="s" s="2">
         <v>38</v>
@@ -60739,7 +60704,7 @@
       </c>
       <c r="D532" s="2"/>
       <c r="E532" t="s" s="2">
-        <v>800</v>
+        <v>669</v>
       </c>
       <c r="F532" s="2"/>
       <c r="G532" t="s" s="2">
@@ -60761,13 +60726,13 @@
         <v>188</v>
       </c>
       <c r="M532" t="s" s="2">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="N532" t="s" s="2">
-        <v>802</v>
+        <v>671</v>
       </c>
       <c r="O532" t="s" s="2">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="P532" s="2"/>
       <c r="Q532" t="s" s="2">
@@ -60817,7 +60782,7 @@
         <v>37</v>
       </c>
       <c r="AG532" t="s" s="2">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="AH532" t="s" s="2">
         <v>38</v>
@@ -60837,10 +60802,10 @@
         <v>794</v>
       </c>
       <c r="B533" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C533" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D533" s="2"/>
       <c r="E533" t="s" s="2">
@@ -60848,7 +60813,7 @@
       </c>
       <c r="F533" s="2"/>
       <c r="G533" t="s" s="2">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="H533" t="s" s="2">
         <v>39</v>
@@ -60918,7 +60883,7 @@
         <v>71</v>
       </c>
       <c r="AG533" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AH533" t="s" s="2">
         <v>38</v>
@@ -60938,13 +60903,13 @@
         <v>794</v>
       </c>
       <c r="B534" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C534" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D534" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="E534" t="s" s="2">
         <v>37</v>
@@ -60966,13 +60931,13 @@
         <v>37</v>
       </c>
       <c r="L534" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="M534" t="s" s="2">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="N534" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="O534" s="2"/>
       <c r="P534" s="2"/>
@@ -61023,7 +60988,7 @@
         <v>37</v>
       </c>
       <c r="AG534" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AH534" t="s" s="2">
         <v>38</v>
@@ -61035,7 +61000,7 @@
         <v>550</v>
       </c>
       <c r="AK534" t="s" s="2">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="535">
@@ -61043,10 +61008,10 @@
         <v>794</v>
       </c>
       <c r="B535" t="s" s="2">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C535" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D535" s="2"/>
       <c r="E535" t="s" s="2">
@@ -61146,10 +61111,10 @@
         <v>794</v>
       </c>
       <c r="B536" t="s" s="2">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C536" t="s" s="2">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D536" s="2"/>
       <c r="E536" t="s" s="2">
@@ -61249,10 +61214,10 @@
         <v>794</v>
       </c>
       <c r="B537" t="s" s="2">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C537" t="s" s="2">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D537" s="2"/>
       <c r="E537" t="s" s="2">
@@ -61292,7 +61257,7 @@
       </c>
       <c r="R537" s="2"/>
       <c r="S537" t="s" s="2">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="T537" t="s" s="2">
         <v>37</v>
@@ -61354,10 +61319,10 @@
         <v>794</v>
       </c>
       <c r="B538" t="s" s="2">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C538" t="s" s="2">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D538" s="2"/>
       <c r="E538" t="s" s="2">
@@ -61417,13 +61382,13 @@
       </c>
       <c r="Z538" s="2"/>
       <c r="AA538" t="s" s="2">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="AB538" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AC538" t="s" s="2">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="AD538" s="2"/>
       <c r="AE538" t="s" s="2">
@@ -61453,13 +61418,13 @@
         <v>794</v>
       </c>
       <c r="B539" t="s" s="2">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C539" t="s" s="2">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D539" t="s" s="2">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E539" t="s" s="2">
         <v>37</v>
@@ -61558,13 +61523,13 @@
         <v>794</v>
       </c>
       <c r="B540" t="s" s="2">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C540" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D540" t="s" s="2">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E540" t="s" s="2">
         <v>37</v>
@@ -61586,13 +61551,13 @@
         <v>37</v>
       </c>
       <c r="L540" t="s" s="2">
+        <v>819</v>
+      </c>
+      <c r="M540" t="s" s="2">
+        <v>820</v>
+      </c>
+      <c r="N540" t="s" s="2">
         <v>821</v>
-      </c>
-      <c r="M540" t="s" s="2">
-        <v>822</v>
-      </c>
-      <c r="N540" t="s" s="2">
-        <v>823</v>
       </c>
       <c r="O540" s="2"/>
       <c r="P540" s="2"/>
@@ -61643,7 +61608,7 @@
         <v>37</v>
       </c>
       <c r="AG540" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AH540" t="s" s="2">
         <v>38</v>
@@ -61663,13 +61628,13 @@
         <v>794</v>
       </c>
       <c r="B541" t="s" s="2">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C541" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D541" t="s" s="2">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E541" t="s" s="2">
         <v>37</v>
@@ -61691,13 +61656,13 @@
         <v>37</v>
       </c>
       <c r="L541" t="s" s="2">
+        <v>824</v>
+      </c>
+      <c r="M541" t="s" s="2">
+        <v>825</v>
+      </c>
+      <c r="N541" t="s" s="2">
         <v>826</v>
-      </c>
-      <c r="M541" t="s" s="2">
-        <v>827</v>
-      </c>
-      <c r="N541" t="s" s="2">
-        <v>828</v>
       </c>
       <c r="O541" s="2"/>
       <c r="P541" s="2"/>
@@ -61748,7 +61713,7 @@
         <v>37</v>
       </c>
       <c r="AG541" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AH541" t="s" s="2">
         <v>38</v>
@@ -61768,10 +61733,10 @@
         <v>794</v>
       </c>
       <c r="B542" t="s" s="2">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C542" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D542" s="2"/>
       <c r="E542" t="s" s="2">
@@ -61871,10 +61836,10 @@
         <v>794</v>
       </c>
       <c r="B543" t="s" s="2">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C543" t="s" s="2">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D543" s="2"/>
       <c r="E543" t="s" s="2">
@@ -61974,10 +61939,10 @@
         <v>794</v>
       </c>
       <c r="B544" t="s" s="2">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C544" t="s" s="2">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D544" s="2"/>
       <c r="E544" t="s" s="2">
@@ -62017,7 +61982,7 @@
       </c>
       <c r="R544" s="2"/>
       <c r="S544" t="s" s="2">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="T544" t="s" s="2">
         <v>37</v>
@@ -62079,10 +62044,10 @@
         <v>794</v>
       </c>
       <c r="B545" t="s" s="2">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C545" t="s" s="2">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D545" s="2"/>
       <c r="E545" t="s" s="2">
@@ -62105,7 +62070,7 @@
         <v>37</v>
       </c>
       <c r="L545" t="s" s="2">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="M545" t="s" s="2">
         <v>560</v>
@@ -62150,7 +62115,7 @@
         <v>37</v>
       </c>
       <c r="AC545" t="s" s="2">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="AD545" s="2"/>
       <c r="AE545" t="s" s="2">
@@ -62180,13 +62145,13 @@
         <v>794</v>
       </c>
       <c r="B546" t="s" s="2">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C546" t="s" s="2">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D546" t="s" s="2">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E546" t="s" s="2">
         <v>37</v>
@@ -62208,7 +62173,7 @@
         <v>37</v>
       </c>
       <c r="L546" t="s" s="2">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="M546" t="s" s="2">
         <v>560</v>
@@ -62285,13 +62250,13 @@
         <v>794</v>
       </c>
       <c r="B547" t="s" s="2">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C547" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D547" t="s" s="2">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E547" t="s" s="2">
         <v>37</v>
@@ -62313,10 +62278,10 @@
         <v>37</v>
       </c>
       <c r="L547" t="s" s="2">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="M547" t="s" s="2">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="N547" t="s" s="2">
         <v>543</v>
@@ -62370,7 +62335,7 @@
         <v>37</v>
       </c>
       <c r="AG547" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AH547" t="s" s="2">
         <v>38</v>
@@ -62622,10 +62587,10 @@
         <v>37</v>
       </c>
       <c r="L550" t="s" s="2">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="M550" t="s" s="2">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="N550" t="s" s="2">
         <v>691</v>
@@ -62730,7 +62695,7 @@
         <v>694</v>
       </c>
       <c r="M551" t="s" s="2">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="N551" t="s" s="2">
         <v>691</v>
@@ -62833,7 +62798,7 @@
         <v>120</v>
       </c>
       <c r="M552" t="s" s="2">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="N552" t="s" s="2">
         <v>698</v>
@@ -62850,7 +62815,7 @@
         <v>37</v>
       </c>
       <c r="T552" t="s" s="2">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="U552" t="s" s="2">
         <v>37</v>
@@ -62938,7 +62903,7 @@
         <v>120</v>
       </c>
       <c r="M553" t="s" s="2">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="N553" t="s" s="2">
         <v>704</v>
@@ -63045,7 +63010,7 @@
         <v>59</v>
       </c>
       <c r="M554" t="s" s="2">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="N554" t="s" s="2">
         <v>712</v>
@@ -63150,7 +63115,7 @@
         <v>716</v>
       </c>
       <c r="M555" t="s" s="2">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="N555" t="s" s="2">
         <v>718</v>
@@ -63169,7 +63134,7 @@
         <v>37</v>
       </c>
       <c r="T555" t="s" s="2">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="U555" t="s" s="2">
         <v>37</v>
@@ -63255,7 +63220,7 @@
         <v>724</v>
       </c>
       <c r="M556" t="s" s="2">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="N556" t="s" s="2">
         <v>726</v>
@@ -63465,7 +63430,7 @@
         <v>734</v>
       </c>
       <c r="M558" t="s" s="2">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="N558" t="s" s="2">
         <v>736</v>
@@ -63569,10 +63534,10 @@
         <v>46</v>
       </c>
       <c r="L559" t="s" s="2">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="M559" t="s" s="2">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="N559" t="s" s="2">
         <v>743</v>
@@ -63642,7 +63607,7 @@
         <v>37</v>
       </c>
       <c r="AK559" t="s" s="2">
-        <v>855</v>
+        <v>57</v>
       </c>
     </row>
     <row r="560">
@@ -63650,10 +63615,10 @@
         <v>794</v>
       </c>
       <c r="B560" t="s" s="2">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C560" t="s" s="2">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="D560" s="2"/>
       <c r="E560" t="s" s="2">
@@ -63753,10 +63718,10 @@
         <v>794</v>
       </c>
       <c r="B561" t="s" s="2">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="C561" t="s" s="2">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D561" s="2"/>
       <c r="E561" t="s" s="2">
@@ -63858,13 +63823,13 @@
         <v>794</v>
       </c>
       <c r="B562" t="s" s="2">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="C562" t="s" s="2">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D562" t="s" s="2">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="E562" t="s" s="2">
         <v>37</v>
@@ -63886,13 +63851,13 @@
         <v>37</v>
       </c>
       <c r="L562" t="s" s="2">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="M562" t="s" s="2">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="N562" t="s" s="2">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="O562" s="2"/>
       <c r="P562" s="2"/>
@@ -63955,7 +63920,7 @@
         <v>37</v>
       </c>
       <c r="AK562" t="s" s="2">
-        <v>863</v>
+        <v>73</v>
       </c>
     </row>
     <row r="563">
@@ -63963,10 +63928,10 @@
         <v>794</v>
       </c>
       <c r="B563" t="s" s="2">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="C563" t="s" s="2">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="D563" s="2"/>
       <c r="E563" t="s" s="2">
@@ -64066,10 +64031,10 @@
         <v>794</v>
       </c>
       <c r="B564" t="s" s="2">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="C564" t="s" s="2">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="D564" s="2"/>
       <c r="E564" t="s" s="2">
@@ -64169,10 +64134,10 @@
         <v>794</v>
       </c>
       <c r="B565" t="s" s="2">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="C565" t="s" s="2">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="D565" s="2"/>
       <c r="E565" t="s" s="2">
@@ -64212,7 +64177,7 @@
       </c>
       <c r="R565" s="2"/>
       <c r="S565" t="s" s="2">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="T565" t="s" s="2">
         <v>37</v>
@@ -64274,10 +64239,10 @@
         <v>794</v>
       </c>
       <c r="B566" t="s" s="2">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="C566" t="s" s="2">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="D566" s="2"/>
       <c r="E566" t="s" s="2">
@@ -64300,7 +64265,7 @@
         <v>37</v>
       </c>
       <c r="L566" t="s" s="2">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="M566" t="s" s="2">
         <v>560</v>
@@ -64345,7 +64310,7 @@
         <v>37</v>
       </c>
       <c r="AC566" t="s" s="2">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="AD566" s="2"/>
       <c r="AE566" t="s" s="2">
@@ -64375,13 +64340,13 @@
         <v>794</v>
       </c>
       <c r="B567" t="s" s="2">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="C567" t="s" s="2">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="D567" t="s" s="2">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E567" t="s" s="2">
         <v>37</v>
@@ -64403,7 +64368,7 @@
         <v>37</v>
       </c>
       <c r="L567" t="s" s="2">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="M567" t="s" s="2">
         <v>560</v>
@@ -64480,10 +64445,10 @@
         <v>794</v>
       </c>
       <c r="B568" t="s" s="2">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="C568" t="s" s="2">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="D568" s="2"/>
       <c r="E568" t="s" s="2">
@@ -64509,13 +64474,13 @@
         <v>59</v>
       </c>
       <c r="M568" t="s" s="2">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="N568" t="s" s="2">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="O568" t="s" s="2">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="P568" s="2"/>
       <c r="Q568" t="s" s="2">
@@ -64565,7 +64530,7 @@
         <v>37</v>
       </c>
       <c r="AG568" t="s" s="2">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="AH568" t="s" s="2">
         <v>38</v>
@@ -64574,7 +64539,7 @@
         <v>45</v>
       </c>
       <c r="AJ568" t="s" s="2">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="AK568" t="s" s="2">
         <v>57</v>
@@ -64585,10 +64550,10 @@
         <v>794</v>
       </c>
       <c r="B569" t="s" s="2">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="C569" t="s" s="2">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="D569" s="2"/>
       <c r="E569" t="s" s="2">
@@ -64614,13 +64579,13 @@
         <v>86</v>
       </c>
       <c r="M569" t="s" s="2">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="N569" t="s" s="2">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="O569" t="s" s="2">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="P569" s="2"/>
       <c r="Q569" t="s" s="2">
@@ -64649,10 +64614,10 @@
         <v>102</v>
       </c>
       <c r="Z569" t="s" s="2">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="AA569" t="s" s="2">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="AB569" t="s" s="2">
         <v>37</v>
@@ -64670,7 +64635,7 @@
         <v>37</v>
       </c>
       <c r="AG569" t="s" s="2">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="AH569" t="s" s="2">
         <v>38</v>
@@ -64690,10 +64655,10 @@
         <v>794</v>
       </c>
       <c r="B570" t="s" s="2">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="C570" t="s" s="2">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="D570" s="2"/>
       <c r="E570" t="s" s="2">
@@ -64719,13 +64684,13 @@
         <v>129</v>
       </c>
       <c r="M570" t="s" s="2">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="N570" t="s" s="2">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="O570" t="s" s="2">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="P570" s="2"/>
       <c r="Q570" t="s" s="2">
@@ -64775,7 +64740,7 @@
         <v>37</v>
       </c>
       <c r="AG570" t="s" s="2">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="AH570" t="s" s="2">
         <v>38</v>
@@ -64795,10 +64760,10 @@
         <v>794</v>
       </c>
       <c r="B571" t="s" s="2">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="C571" t="s" s="2">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="D571" s="2"/>
       <c r="E571" t="s" s="2">
@@ -64824,13 +64789,13 @@
         <v>59</v>
       </c>
       <c r="M571" t="s" s="2">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="N571" t="s" s="2">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="O571" t="s" s="2">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="P571" s="2"/>
       <c r="Q571" t="s" s="2">
@@ -64880,7 +64845,7 @@
         <v>37</v>
       </c>
       <c r="AG571" t="s" s="2">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="AH571" t="s" s="2">
         <v>38</v>
@@ -65036,7 +65001,7 @@
         <v>754</v>
       </c>
       <c r="M573" t="s" s="2">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="N573" t="s" s="2">
         <v>756</v>
@@ -65139,7 +65104,7 @@
         <v>152</v>
       </c>
       <c r="M574" t="s" s="2">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="N574" t="s" s="2">
         <v>759</v>
@@ -65877,10 +65842,10 @@
         <v>37</v>
       </c>
       <c r="L581" t="s" s="2">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="M581" t="s" s="2">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="N581" t="s" s="2">
         <v>786</v>
@@ -66058,7 +66023,7 @@
     </row>
     <row r="583">
       <c r="A583" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B583" t="s" s="2">
         <v>610</v>
@@ -66163,13 +66128,13 @@
     </row>
     <row r="584">
       <c r="A584" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B584" t="s" s="2">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="C584" t="s" s="2">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="D584" s="2"/>
       <c r="E584" t="s" s="2">
@@ -66268,13 +66233,13 @@
     </row>
     <row r="585">
       <c r="A585" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B585" t="s" s="2">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="C585" t="s" s="2">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="D585" s="2"/>
       <c r="E585" t="s" s="2">
@@ -66371,13 +66336,13 @@
     </row>
     <row r="586">
       <c r="A586" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B586" t="s" s="2">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="C586" t="s" s="2">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="D586" s="2"/>
       <c r="E586" t="s" s="2">
@@ -66474,13 +66439,13 @@
     </row>
     <row r="587">
       <c r="A587" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B587" t="s" s="2">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C587" t="s" s="2">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D587" s="2"/>
       <c r="E587" t="s" s="2">
@@ -66579,13 +66544,13 @@
     </row>
     <row r="588">
       <c r="A588" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B588" t="s" s="2">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="C588" t="s" s="2">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="D588" s="2"/>
       <c r="E588" t="s" s="2">
@@ -66611,7 +66576,7 @@
         <v>47</v>
       </c>
       <c r="M588" t="s" s="2">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="N588" t="s" s="2">
         <v>76</v>
@@ -66684,13 +66649,13 @@
     </row>
     <row r="589">
       <c r="A589" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B589" t="s" s="2">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="C589" t="s" s="2">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="D589" s="2"/>
       <c r="E589" t="s" s="2">
@@ -66789,13 +66754,13 @@
     </row>
     <row r="590">
       <c r="A590" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B590" t="s" s="2">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="C590" t="s" s="2">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="D590" s="2"/>
       <c r="E590" t="s" s="2">
@@ -66894,13 +66859,13 @@
     </row>
     <row r="591">
       <c r="A591" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B591" t="s" s="2">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="C591" t="s" s="2">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="D591" s="2"/>
       <c r="E591" t="s" s="2">
@@ -66999,13 +66964,13 @@
     </row>
     <row r="592">
       <c r="A592" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B592" t="s" s="2">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="C592" t="s" s="2">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="D592" s="2"/>
       <c r="E592" t="s" s="2">
@@ -67104,13 +67069,13 @@
     </row>
     <row r="593">
       <c r="A593" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B593" t="s" s="2">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="C593" t="s" s="2">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="D593" s="2"/>
       <c r="E593" t="s" s="2">
@@ -67209,13 +67174,13 @@
     </row>
     <row r="594">
       <c r="A594" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B594" t="s" s="2">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="C594" t="s" s="2">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="D594" s="2"/>
       <c r="E594" t="s" s="2">
@@ -67314,13 +67279,13 @@
     </row>
     <row r="595">
       <c r="A595" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B595" t="s" s="2">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="C595" t="s" s="2">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="D595" s="2"/>
       <c r="E595" t="s" s="2">
@@ -67419,13 +67384,13 @@
     </row>
     <row r="596">
       <c r="A596" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B596" t="s" s="2">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="C596" t="s" s="2">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="D596" s="2"/>
       <c r="E596" t="s" s="2">
@@ -67524,17 +67489,17 @@
     </row>
     <row r="597">
       <c r="A597" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B597" t="s" s="2">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="C597" t="s" s="2">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="D597" s="2"/>
       <c r="E597" t="s" s="2">
-        <v>800</v>
+        <v>669</v>
       </c>
       <c r="F597" s="2"/>
       <c r="G597" t="s" s="2">
@@ -67556,13 +67521,13 @@
         <v>188</v>
       </c>
       <c r="M597" t="s" s="2">
-        <v>801</v>
+        <v>670</v>
       </c>
       <c r="N597" t="s" s="2">
-        <v>802</v>
+        <v>671</v>
       </c>
       <c r="O597" t="s" s="2">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="P597" s="2"/>
       <c r="Q597" t="s" s="2">
@@ -67612,7 +67577,7 @@
         <v>37</v>
       </c>
       <c r="AG597" t="s" s="2">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="AH597" t="s" s="2">
         <v>38</v>
@@ -67629,13 +67594,13 @@
     </row>
     <row r="598">
       <c r="A598" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B598" t="s" s="2">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="C598" t="s" s="2">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="D598" s="2"/>
       <c r="E598" t="s" s="2">
@@ -67664,7 +67629,7 @@
         <v>66</v>
       </c>
       <c r="N598" t="s" s="2">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="O598" t="s" s="2">
         <v>68</v>
@@ -67717,7 +67682,7 @@
         <v>37</v>
       </c>
       <c r="AG598" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AH598" t="s" s="2">
         <v>38</v>
@@ -67734,13 +67699,13 @@
     </row>
     <row r="599">
       <c r="A599" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B599" t="s" s="2">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="C599" t="s" s="2">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="D599" s="2"/>
       <c r="E599" t="s" s="2">
@@ -67837,13 +67802,13 @@
     </row>
     <row r="600">
       <c r="A600" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B600" t="s" s="2">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="C600" t="s" s="2">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="D600" s="2"/>
       <c r="E600" t="s" s="2">
@@ -67869,16 +67834,16 @@
         <v>129</v>
       </c>
       <c r="M600" t="s" s="2">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="N600" t="s" s="2">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="O600" t="s" s="2">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="P600" t="s" s="2">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="Q600" t="s" s="2">
         <v>37</v>
@@ -67927,7 +67892,7 @@
         <v>37</v>
       </c>
       <c r="AG600" t="s" s="2">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="AH600" t="s" s="2">
         <v>38</v>
@@ -67944,13 +67909,13 @@
     </row>
     <row r="601">
       <c r="A601" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B601" t="s" s="2">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="C601" t="s" s="2">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="D601" s="2"/>
       <c r="E601" t="s" s="2">
@@ -67976,10 +67941,10 @@
         <v>129</v>
       </c>
       <c r="M601" t="s" s="2">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="N601" t="s" s="2">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="O601" s="2"/>
       <c r="P601" s="2"/>
@@ -68030,7 +67995,7 @@
         <v>37</v>
       </c>
       <c r="AG601" t="s" s="2">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="AH601" t="s" s="2">
         <v>38</v>
@@ -68047,13 +68012,13 @@
     </row>
     <row r="602">
       <c r="A602" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B602" t="s" s="2">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="C602" t="s" s="2">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="D602" s="2"/>
       <c r="E602" t="s" s="2">
@@ -68079,13 +68044,13 @@
         <v>120</v>
       </c>
       <c r="M602" t="s" s="2">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="N602" t="s" s="2">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="O602" t="s" s="2">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="P602" s="2"/>
       <c r="Q602" t="s" s="2">
@@ -68096,7 +68061,7 @@
         <v>37</v>
       </c>
       <c r="T602" t="s" s="2">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="U602" t="s" s="2">
         <v>37</v>
@@ -68114,10 +68079,10 @@
         <v>138</v>
       </c>
       <c r="Z602" t="s" s="2">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="AA602" t="s" s="2">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="AB602" t="s" s="2">
         <v>37</v>
@@ -68135,7 +68100,7 @@
         <v>37</v>
       </c>
       <c r="AG602" t="s" s="2">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="AH602" t="s" s="2">
         <v>45</v>
@@ -68152,13 +68117,13 @@
     </row>
     <row r="603">
       <c r="A603" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B603" t="s" s="2">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="C603" t="s" s="2">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="D603" s="2"/>
       <c r="E603" t="s" s="2">
@@ -68184,13 +68149,13 @@
         <v>120</v>
       </c>
       <c r="M603" t="s" s="2">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="N603" t="s" s="2">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="O603" t="s" s="2">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="P603" s="2"/>
       <c r="Q603" t="s" s="2">
@@ -68219,10 +68184,10 @@
         <v>138</v>
       </c>
       <c r="Z603" t="s" s="2">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="AA603" t="s" s="2">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="AB603" t="s" s="2">
         <v>37</v>
@@ -68240,7 +68205,7 @@
         <v>37</v>
       </c>
       <c r="AG603" t="s" s="2">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="AH603" t="s" s="2">
         <v>38</v>
@@ -68257,13 +68222,13 @@
     </row>
     <row r="604">
       <c r="A604" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B604" t="s" s="2">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="C604" t="s" s="2">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="D604" s="2"/>
       <c r="E604" t="s" s="2">
@@ -68289,13 +68254,13 @@
         <v>716</v>
       </c>
       <c r="M604" t="s" s="2">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="N604" t="s" s="2">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="O604" t="s" s="2">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="P604" s="2"/>
       <c r="Q604" t="s" s="2">
@@ -68325,7 +68290,7 @@
       </c>
       <c r="Z604" s="2"/>
       <c r="AA604" t="s" s="2">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="AB604" t="s" s="2">
         <v>37</v>
@@ -68343,7 +68308,7 @@
         <v>37</v>
       </c>
       <c r="AG604" t="s" s="2">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="AH604" t="s" s="2">
         <v>38</v>
@@ -68355,22 +68320,22 @@
         <v>37</v>
       </c>
       <c r="AK604" t="s" s="2">
-        <v>951</v>
+        <v>947</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B605" t="s" s="2">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="C605" t="s" s="2">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="D605" s="2"/>
       <c r="E605" t="s" s="2">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="F605" s="2"/>
       <c r="G605" t="s" s="2">
@@ -68392,13 +68357,13 @@
         <v>716</v>
       </c>
       <c r="M605" t="s" s="2">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="N605" t="s" s="2">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="O605" t="s" s="2">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="P605" s="2"/>
       <c r="Q605" t="s" s="2">
@@ -68428,7 +68393,7 @@
       </c>
       <c r="Z605" s="2"/>
       <c r="AA605" t="s" s="2">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="AB605" t="s" s="2">
         <v>37</v>
@@ -68446,7 +68411,7 @@
         <v>37</v>
       </c>
       <c r="AG605" t="s" s="2">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="AH605" t="s" s="2">
         <v>38</v>
@@ -68458,18 +68423,18 @@
         <v>37</v>
       </c>
       <c r="AK605" t="s" s="2">
-        <v>958</v>
+        <v>954</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B606" t="s" s="2">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="C606" t="s" s="2">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="D606" s="2"/>
       <c r="E606" t="s" s="2">
@@ -68495,10 +68460,10 @@
         <v>724</v>
       </c>
       <c r="M606" t="s" s="2">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="N606" t="s" s="2">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="O606" s="2"/>
       <c r="P606" s="2"/>
@@ -68549,7 +68514,7 @@
         <v>37</v>
       </c>
       <c r="AG606" t="s" s="2">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="AH606" t="s" s="2">
         <v>38</v>
@@ -68566,17 +68531,17 @@
     </row>
     <row r="607">
       <c r="A607" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B607" t="s" s="2">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="C607" t="s" s="2">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="D607" s="2"/>
       <c r="E607" t="s" s="2">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="F607" s="2"/>
       <c r="G607" t="s" s="2">
@@ -68598,13 +68563,13 @@
         <v>80</v>
       </c>
       <c r="M607" t="s" s="2">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="N607" t="s" s="2">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="O607" t="s" s="2">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="P607" s="2"/>
       <c r="Q607" t="s" s="2">
@@ -68654,7 +68619,7 @@
         <v>37</v>
       </c>
       <c r="AG607" t="s" s="2">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="AH607" t="s" s="2">
         <v>38</v>
@@ -68671,13 +68636,13 @@
     </row>
     <row r="608">
       <c r="A608" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B608" t="s" s="2">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="C608" t="s" s="2">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="D608" s="2"/>
       <c r="E608" t="s" s="2">
@@ -68700,16 +68665,16 @@
         <v>46</v>
       </c>
       <c r="L608" t="s" s="2">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="M608" t="s" s="2">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="N608" t="s" s="2">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="O608" t="s" s="2">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="P608" s="2"/>
       <c r="Q608" t="s" s="2">
@@ -68759,7 +68724,7 @@
         <v>37</v>
       </c>
       <c r="AG608" t="s" s="2">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="AH608" t="s" s="2">
         <v>38</v>
@@ -68771,18 +68736,18 @@
         <v>37</v>
       </c>
       <c r="AK608" t="s" s="2">
-        <v>972</v>
+        <v>57</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B609" t="s" s="2">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="C609" t="s" s="2">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="D609" s="2"/>
       <c r="E609" t="s" s="2">
@@ -68805,16 +68770,16 @@
         <v>37</v>
       </c>
       <c r="L609" t="s" s="2">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="M609" t="s" s="2">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="N609" t="s" s="2">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="O609" t="s" s="2">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="P609" s="2"/>
       <c r="Q609" t="s" s="2">
@@ -68864,7 +68829,7 @@
         <v>37</v>
       </c>
       <c r="AG609" t="s" s="2">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="AH609" t="s" s="2">
         <v>38</v>
@@ -68876,18 +68841,18 @@
         <v>37</v>
       </c>
       <c r="AK609" t="s" s="2">
-        <v>978</v>
+        <v>57</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B610" t="s" s="2">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="C610" t="s" s="2">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="D610" s="2"/>
       <c r="E610" t="s" s="2">
@@ -68910,16 +68875,16 @@
         <v>37</v>
       </c>
       <c r="L610" t="s" s="2">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="M610" t="s" s="2">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="N610" t="s" s="2">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="O610" t="s" s="2">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="P610" s="2"/>
       <c r="Q610" t="s" s="2">
@@ -68969,7 +68934,7 @@
         <v>37</v>
       </c>
       <c r="AG610" t="s" s="2">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="AH610" t="s" s="2">
         <v>38</v>
@@ -68986,13 +68951,13 @@
     </row>
     <row r="611">
       <c r="A611" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B611" t="s" s="2">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="C611" t="s" s="2">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="D611" s="2"/>
       <c r="E611" t="s" s="2">
@@ -69018,13 +68983,13 @@
         <v>152</v>
       </c>
       <c r="M611" t="s" s="2">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="N611" t="s" s="2">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="O611" t="s" s="2">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="P611" s="2"/>
       <c r="Q611" t="s" s="2">
@@ -69074,7 +69039,7 @@
         <v>37</v>
       </c>
       <c r="AG611" t="s" s="2">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="AH611" t="s" s="2">
         <v>38</v>
@@ -69091,13 +69056,13 @@
     </row>
     <row r="612">
       <c r="A612" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B612" t="s" s="2">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="C612" t="s" s="2">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="D612" s="2"/>
       <c r="E612" t="s" s="2">
@@ -69194,13 +69159,13 @@
     </row>
     <row r="613">
       <c r="A613" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B613" t="s" s="2">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="C613" t="s" s="2">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="D613" s="2"/>
       <c r="E613" t="s" s="2">
@@ -69299,13 +69264,13 @@
     </row>
     <row r="614">
       <c r="A614" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B614" t="s" s="2">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="C614" t="s" s="2">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="D614" s="2"/>
       <c r="E614" t="s" s="2">
@@ -69406,13 +69371,13 @@
     </row>
     <row r="615">
       <c r="A615" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B615" t="s" s="2">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="C615" t="s" s="2">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="D615" s="2"/>
       <c r="E615" t="s" s="2">
@@ -69438,13 +69403,13 @@
         <v>120</v>
       </c>
       <c r="M615" t="s" s="2">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="N615" t="s" s="2">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="O615" t="s" s="2">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="P615" s="2"/>
       <c r="Q615" t="s" s="2">
@@ -69473,10 +69438,10 @@
         <v>138</v>
       </c>
       <c r="Z615" t="s" s="2">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="AA615" t="s" s="2">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="AB615" t="s" s="2">
         <v>37</v>
@@ -69494,7 +69459,7 @@
         <v>37</v>
       </c>
       <c r="AG615" t="s" s="2">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="AH615" t="s" s="2">
         <v>45</v>
@@ -69511,13 +69476,13 @@
     </row>
     <row r="616">
       <c r="A616" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B616" t="s" s="2">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="C616" t="s" s="2">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="D616" s="2"/>
       <c r="E616" t="s" s="2">
@@ -69540,13 +69505,13 @@
         <v>46</v>
       </c>
       <c r="L616" t="s" s="2">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="M616" t="s" s="2">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="N616" t="s" s="2">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="O616" s="2"/>
       <c r="P616" s="2"/>
@@ -69597,7 +69562,7 @@
         <v>37</v>
       </c>
       <c r="AG616" t="s" s="2">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="AH616" t="s" s="2">
         <v>45</v>
@@ -69614,13 +69579,13 @@
     </row>
     <row r="617">
       <c r="A617" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B617" t="s" s="2">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="C617" t="s" s="2">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="D617" s="2"/>
       <c r="E617" t="s" s="2">
@@ -69646,16 +69611,16 @@
         <v>59</v>
       </c>
       <c r="M617" t="s" s="2">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="N617" t="s" s="2">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="O617" t="s" s="2">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="P617" t="s" s="2">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="Q617" t="s" s="2">
         <v>37</v>
@@ -69704,7 +69669,7 @@
         <v>37</v>
       </c>
       <c r="AG617" t="s" s="2">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="AH617" t="s" s="2">
         <v>38</v>
@@ -69721,13 +69686,13 @@
     </row>
     <row r="618">
       <c r="A618" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B618" t="s" s="2">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="C618" t="s" s="2">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D618" s="2"/>
       <c r="E618" t="s" s="2">
@@ -69753,16 +69718,16 @@
         <v>716</v>
       </c>
       <c r="M618" t="s" s="2">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="N618" t="s" s="2">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="O618" t="s" s="2">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="P618" t="s" s="2">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="Q618" t="s" s="2">
         <v>37</v>
@@ -69811,7 +69776,7 @@
         <v>37</v>
       </c>
       <c r="AG618" t="s" s="2">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="AH618" t="s" s="2">
         <v>38</v>
@@ -69823,18 +69788,18 @@
         <v>37</v>
       </c>
       <c r="AK618" t="s" s="2">
-        <v>1011</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B619" t="s" s="2">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="C619" t="s" s="2">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="D619" s="2"/>
       <c r="E619" t="s" s="2">
@@ -69860,10 +69825,10 @@
         <v>152</v>
       </c>
       <c r="M619" t="s" s="2">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="N619" t="s" s="2">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="O619" s="2"/>
       <c r="P619" s="2"/>
@@ -69914,7 +69879,7 @@
         <v>37</v>
       </c>
       <c r="AG619" t="s" s="2">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="AH619" t="s" s="2">
         <v>45</v>
@@ -69931,13 +69896,13 @@
     </row>
     <row r="620">
       <c r="A620" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B620" t="s" s="2">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="C620" t="s" s="2">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="D620" s="2"/>
       <c r="E620" t="s" s="2">
@@ -70034,13 +69999,13 @@
     </row>
     <row r="621">
       <c r="A621" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B621" t="s" s="2">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="C621" t="s" s="2">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="D621" s="2"/>
       <c r="E621" t="s" s="2">
@@ -70139,13 +70104,13 @@
     </row>
     <row r="622">
       <c r="A622" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B622" t="s" s="2">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="C622" t="s" s="2">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="D622" s="2"/>
       <c r="E622" t="s" s="2">
@@ -70246,13 +70211,13 @@
     </row>
     <row r="623">
       <c r="A623" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B623" t="s" s="2">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="C623" t="s" s="2">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="D623" s="2"/>
       <c r="E623" t="s" s="2">
@@ -70275,13 +70240,13 @@
         <v>46</v>
       </c>
       <c r="L623" t="s" s="2">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="M623" t="s" s="2">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="N623" t="s" s="2">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="O623" s="2"/>
       <c r="P623" s="2"/>
@@ -70332,7 +70297,7 @@
         <v>37</v>
       </c>
       <c r="AG623" t="s" s="2">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="AH623" t="s" s="2">
         <v>45</v>
@@ -70349,13 +70314,13 @@
     </row>
     <row r="624">
       <c r="A624" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B624" t="s" s="2">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="C624" t="s" s="2">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="D624" s="2"/>
       <c r="E624" t="s" s="2">
@@ -70452,13 +70417,13 @@
     </row>
     <row r="625">
       <c r="A625" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B625" t="s" s="2">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="C625" t="s" s="2">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="D625" s="2"/>
       <c r="E625" t="s" s="2">
@@ -70557,13 +70522,13 @@
     </row>
     <row r="626">
       <c r="A626" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B626" t="s" s="2">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="C626" t="s" s="2">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="D626" s="2"/>
       <c r="E626" t="s" s="2">
@@ -70589,14 +70554,14 @@
         <v>120</v>
       </c>
       <c r="M626" t="s" s="2">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="N626" t="s" s="2">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="O626" s="2"/>
       <c r="P626" t="s" s="2">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="Q626" t="s" s="2">
         <v>37</v>
@@ -70609,7 +70574,7 @@
         <v>37</v>
       </c>
       <c r="U626" t="s" s="2">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="V626" t="s" s="2">
         <v>37</v>
@@ -70624,10 +70589,10 @@
         <v>138</v>
       </c>
       <c r="Z626" t="s" s="2">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="AA626" t="s" s="2">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="AB626" t="s" s="2">
         <v>37</v>
@@ -70645,7 +70610,7 @@
         <v>37</v>
       </c>
       <c r="AG626" t="s" s="2">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="AH626" t="s" s="2">
         <v>38</v>
@@ -70662,13 +70627,13 @@
     </row>
     <row r="627">
       <c r="A627" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B627" t="s" s="2">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="C627" t="s" s="2">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="D627" s="2"/>
       <c r="E627" t="s" s="2">
@@ -70694,14 +70659,14 @@
         <v>120</v>
       </c>
       <c r="M627" t="s" s="2">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="N627" t="s" s="2">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="O627" s="2"/>
       <c r="P627" t="s" s="2">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="Q627" t="s" s="2">
         <v>37</v>
@@ -70714,7 +70679,7 @@
         <v>37</v>
       </c>
       <c r="U627" t="s" s="2">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="V627" t="s" s="2">
         <v>37</v>
@@ -70750,7 +70715,7 @@
         <v>37</v>
       </c>
       <c r="AG627" t="s" s="2">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="AH627" t="s" s="2">
         <v>38</v>
@@ -70767,13 +70732,13 @@
     </row>
     <row r="628">
       <c r="A628" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B628" t="s" s="2">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="C628" t="s" s="2">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="D628" s="2"/>
       <c r="E628" t="s" s="2">
@@ -70796,19 +70761,19 @@
         <v>37</v>
       </c>
       <c r="L628" t="s" s="2">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="M628" t="s" s="2">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="N628" t="s" s="2">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="O628" t="s" s="2">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="P628" t="s" s="2">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="Q628" t="s" s="2">
         <v>37</v>
@@ -70857,7 +70822,7 @@
         <v>37</v>
       </c>
       <c r="AG628" t="s" s="2">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="AH628" t="s" s="2">
         <v>38</v>
@@ -70874,13 +70839,13 @@
     </row>
     <row r="629">
       <c r="A629" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B629" t="s" s="2">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="C629" t="s" s="2">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="D629" s="2"/>
       <c r="E629" t="s" s="2">
@@ -70903,19 +70868,19 @@
         <v>46</v>
       </c>
       <c r="L629" t="s" s="2">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="M629" t="s" s="2">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="N629" t="s" s="2">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="O629" t="s" s="2">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="P629" t="s" s="2">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="Q629" t="s" s="2">
         <v>37</v>
@@ -70928,7 +70893,7 @@
         <v>37</v>
       </c>
       <c r="U629" t="s" s="2">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="V629" t="s" s="2">
         <v>37</v>
@@ -70964,7 +70929,7 @@
         <v>37</v>
       </c>
       <c r="AG629" t="s" s="2">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="AH629" t="s" s="2">
         <v>38</v>
@@ -70981,13 +70946,13 @@
     </row>
     <row r="630">
       <c r="A630" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B630" t="s" s="2">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="C630" t="s" s="2">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="D630" s="2"/>
       <c r="E630" t="s" s="2">
@@ -71013,16 +70978,16 @@
         <v>146</v>
       </c>
       <c r="M630" t="s" s="2">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="N630" t="s" s="2">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="O630" t="s" s="2">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="P630" t="s" s="2">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="Q630" t="s" s="2">
         <v>37</v>
@@ -71071,7 +71036,7 @@
         <v>37</v>
       </c>
       <c r="AG630" t="s" s="2">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="AH630" t="s" s="2">
         <v>38</v>
@@ -71088,13 +71053,13 @@
     </row>
     <row r="631">
       <c r="A631" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B631" t="s" s="2">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="C631" t="s" s="2">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="D631" s="2"/>
       <c r="E631" t="s" s="2">
@@ -71117,19 +71082,19 @@
         <v>46</v>
       </c>
       <c r="L631" t="s" s="2">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="M631" t="s" s="2">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="N631" t="s" s="2">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="O631" t="s" s="2">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="P631" t="s" s="2">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="Q631" t="s" s="2">
         <v>37</v>
@@ -71178,7 +71143,7 @@
         <v>37</v>
       </c>
       <c r="AG631" t="s" s="2">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="AH631" t="s" s="2">
         <v>38</v>
@@ -71195,13 +71160,13 @@
     </row>
     <row r="632">
       <c r="A632" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B632" t="s" s="2">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="C632" t="s" s="2">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="D632" s="2"/>
       <c r="E632" t="s" s="2">
@@ -71227,14 +71192,14 @@
         <v>59</v>
       </c>
       <c r="M632" t="s" s="2">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="N632" t="s" s="2">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="O632" s="2"/>
       <c r="P632" t="s" s="2">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="Q632" t="s" s="2">
         <v>37</v>
@@ -71247,7 +71212,7 @@
         <v>37</v>
       </c>
       <c r="U632" t="s" s="2">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="V632" t="s" s="2">
         <v>37</v>
@@ -71283,7 +71248,7 @@
         <v>37</v>
       </c>
       <c r="AG632" t="s" s="2">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="AH632" t="s" s="2">
         <v>38</v>
@@ -71300,13 +71265,13 @@
     </row>
     <row r="633">
       <c r="A633" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B633" t="s" s="2">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="C633" t="s" s="2">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="D633" s="2"/>
       <c r="E633" t="s" s="2">
@@ -71332,14 +71297,14 @@
         <v>734</v>
       </c>
       <c r="M633" t="s" s="2">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="N633" t="s" s="2">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="O633" s="2"/>
       <c r="P633" t="s" s="2">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="Q633" t="s" s="2">
         <v>37</v>
@@ -71388,7 +71353,7 @@
         <v>37</v>
       </c>
       <c r="AG633" t="s" s="2">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="AH633" t="s" s="2">
         <v>38</v>
@@ -71405,13 +71370,13 @@
     </row>
     <row r="634">
       <c r="A634" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B634" t="s" s="2">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="C634" t="s" s="2">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="D634" s="2"/>
       <c r="E634" t="s" s="2">
@@ -71437,13 +71402,13 @@
         <v>98</v>
       </c>
       <c r="M634" t="s" s="2">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="N634" t="s" s="2">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="O634" t="s" s="2">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="P634" s="2"/>
       <c r="Q634" t="s" s="2">
@@ -71473,7 +71438,7 @@
       </c>
       <c r="Z634" s="2"/>
       <c r="AA634" t="s" s="2">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="AB634" t="s" s="2">
         <v>37</v>
@@ -71491,7 +71456,7 @@
         <v>37</v>
       </c>
       <c r="AG634" t="s" s="2">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="AH634" t="s" s="2">
         <v>38</v>
@@ -71503,18 +71468,18 @@
         <v>37</v>
       </c>
       <c r="AK634" t="s" s="2">
-        <v>1081</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B635" t="s" s="2">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="C635" t="s" s="2">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="D635" s="2"/>
       <c r="E635" t="s" s="2">
@@ -71540,13 +71505,13 @@
         <v>152</v>
       </c>
       <c r="M635" t="s" s="2">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="N635" t="s" s="2">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="O635" t="s" s="2">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="P635" s="2"/>
       <c r="Q635" t="s" s="2">
@@ -71596,7 +71561,7 @@
         <v>37</v>
       </c>
       <c r="AG635" t="s" s="2">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="AH635" t="s" s="2">
         <v>38</v>
@@ -71613,13 +71578,13 @@
     </row>
     <row r="636">
       <c r="A636" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B636" t="s" s="2">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="C636" t="s" s="2">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="D636" s="2"/>
       <c r="E636" t="s" s="2">
@@ -71716,13 +71681,13 @@
     </row>
     <row r="637">
       <c r="A637" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B637" t="s" s="2">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="C637" t="s" s="2">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="D637" s="2"/>
       <c r="E637" t="s" s="2">
@@ -71821,13 +71786,13 @@
     </row>
     <row r="638">
       <c r="A638" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B638" t="s" s="2">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="C638" t="s" s="2">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="D638" s="2"/>
       <c r="E638" t="s" s="2">
@@ -71928,13 +71893,13 @@
     </row>
     <row r="639">
       <c r="A639" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B639" t="s" s="2">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="C639" t="s" s="2">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="D639" s="2"/>
       <c r="E639" t="s" s="2">
@@ -71957,13 +71922,13 @@
         <v>37</v>
       </c>
       <c r="L639" t="s" s="2">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="M639" t="s" s="2">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="N639" t="s" s="2">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="O639" s="2"/>
       <c r="P639" s="2"/>
@@ -72014,7 +71979,7 @@
         <v>37</v>
       </c>
       <c r="AG639" t="s" s="2">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="AH639" t="s" s="2">
         <v>38</v>
@@ -72031,13 +71996,13 @@
     </row>
     <row r="640">
       <c r="A640" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B640" t="s" s="2">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="C640" t="s" s="2">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="D640" s="2"/>
       <c r="E640" t="s" s="2">
@@ -72063,13 +72028,13 @@
         <v>716</v>
       </c>
       <c r="M640" t="s" s="2">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="N640" t="s" s="2">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="O640" t="s" s="2">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="P640" s="2"/>
       <c r="Q640" t="s" s="2">
@@ -72098,10 +72063,10 @@
         <v>110</v>
       </c>
       <c r="Z640" t="s" s="2">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="AA640" t="s" s="2">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="AB640" t="s" s="2">
         <v>37</v>
@@ -72119,7 +72084,7 @@
         <v>37</v>
       </c>
       <c r="AG640" t="s" s="2">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="AH640" t="s" s="2">
         <v>38</v>
@@ -72131,18 +72096,18 @@
         <v>37</v>
       </c>
       <c r="AK640" t="s" s="2">
-        <v>1099</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B641" t="s" s="2">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="C641" t="s" s="2">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="D641" s="2"/>
       <c r="E641" t="s" s="2">
@@ -72165,13 +72130,13 @@
         <v>46</v>
       </c>
       <c r="L641" t="s" s="2">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="M641" t="s" s="2">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="N641" t="s" s="2">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="O641" s="2"/>
       <c r="P641" s="2"/>
@@ -72222,7 +72187,7 @@
         <v>37</v>
       </c>
       <c r="AG641" t="s" s="2">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="AH641" t="s" s="2">
         <v>38</v>
@@ -72239,13 +72204,13 @@
     </row>
     <row r="642">
       <c r="A642" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B642" t="s" s="2">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="C642" t="s" s="2">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="D642" s="2"/>
       <c r="E642" t="s" s="2">
@@ -72271,10 +72236,10 @@
         <v>716</v>
       </c>
       <c r="M642" t="s" s="2">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="N642" t="s" s="2">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="O642" s="2"/>
       <c r="P642" s="2"/>
@@ -72305,7 +72270,7 @@
       </c>
       <c r="Z642" s="2"/>
       <c r="AA642" t="s" s="2">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="AB642" t="s" s="2">
         <v>37</v>
@@ -72323,7 +72288,7 @@
         <v>37</v>
       </c>
       <c r="AG642" t="s" s="2">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="AH642" t="s" s="2">
         <v>38</v>
@@ -72335,18 +72300,18 @@
         <v>37</v>
       </c>
       <c r="AK642" t="s" s="2">
-        <v>1108</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B643" t="s" s="2">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="C643" t="s" s="2">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="D643" s="2"/>
       <c r="E643" t="s" s="2">
@@ -72372,16 +72337,16 @@
         <v>716</v>
       </c>
       <c r="M643" t="s" s="2">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="N643" t="s" s="2">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="O643" t="s" s="2">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="P643" t="s" s="2">
-        <v>1113</v>
+        <v>1107</v>
       </c>
       <c r="Q643" t="s" s="2">
         <v>37</v>
@@ -72410,7 +72375,7 @@
       </c>
       <c r="Z643" s="2"/>
       <c r="AA643" t="s" s="2">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="AB643" t="s" s="2">
         <v>37</v>
@@ -72428,7 +72393,7 @@
         <v>37</v>
       </c>
       <c r="AG643" t="s" s="2">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="AH643" t="s" s="2">
         <v>38</v>
@@ -72440,18 +72405,18 @@
         <v>37</v>
       </c>
       <c r="AK643" t="s" s="2">
-        <v>1108</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B644" t="s" s="2">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="C644" t="s" s="2">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="D644" s="2"/>
       <c r="E644" t="s" s="2">
@@ -72474,13 +72439,13 @@
         <v>37</v>
       </c>
       <c r="L644" t="s" s="2">
-        <v>1116</v>
+        <v>724</v>
       </c>
       <c r="M644" t="s" s="2">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="N644" t="s" s="2">
-        <v>1117</v>
+        <v>1110</v>
       </c>
       <c r="O644" s="2"/>
       <c r="P644" s="2"/>
@@ -72531,7 +72496,7 @@
         <v>37</v>
       </c>
       <c r="AG644" t="s" s="2">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="AH644" t="s" s="2">
         <v>38</v>
@@ -72548,13 +72513,13 @@
     </row>
     <row r="645">
       <c r="A645" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B645" t="s" s="2">
-        <v>1118</v>
+        <v>1111</v>
       </c>
       <c r="C645" t="s" s="2">
-        <v>1118</v>
+        <v>1111</v>
       </c>
       <c r="D645" s="2"/>
       <c r="E645" t="s" s="2">
@@ -72577,16 +72542,16 @@
         <v>37</v>
       </c>
       <c r="L645" t="s" s="2">
-        <v>1119</v>
+        <v>1112</v>
       </c>
       <c r="M645" t="s" s="2">
-        <v>1120</v>
+        <v>1113</v>
       </c>
       <c r="N645" t="s" s="2">
-        <v>1121</v>
+        <v>1114</v>
       </c>
       <c r="O645" t="s" s="2">
-        <v>1122</v>
+        <v>1115</v>
       </c>
       <c r="P645" s="2"/>
       <c r="Q645" t="s" s="2">
@@ -72636,7 +72601,7 @@
         <v>37</v>
       </c>
       <c r="AG645" t="s" s="2">
-        <v>1118</v>
+        <v>1111</v>
       </c>
       <c r="AH645" t="s" s="2">
         <v>38</v>
@@ -72653,7 +72618,7 @@
     </row>
     <row r="646">
       <c r="A646" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B646" t="s" s="2">
         <v>610</v>
@@ -72758,13 +72723,13 @@
     </row>
     <row r="647">
       <c r="A647" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B647" t="s" s="2">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="C647" t="s" s="2">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="D647" s="2"/>
       <c r="E647" t="s" s="2">
@@ -72863,13 +72828,13 @@
     </row>
     <row r="648">
       <c r="A648" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B648" t="s" s="2">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="C648" t="s" s="2">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="D648" s="2"/>
       <c r="E648" t="s" s="2">
@@ -72966,13 +72931,13 @@
     </row>
     <row r="649">
       <c r="A649" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B649" t="s" s="2">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="C649" t="s" s="2">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="D649" s="2"/>
       <c r="E649" t="s" s="2">
@@ -73069,13 +73034,13 @@
     </row>
     <row r="650">
       <c r="A650" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B650" t="s" s="2">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C650" t="s" s="2">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D650" s="2"/>
       <c r="E650" t="s" s="2">
@@ -73174,13 +73139,13 @@
     </row>
     <row r="651">
       <c r="A651" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B651" t="s" s="2">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="C651" t="s" s="2">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="D651" s="2"/>
       <c r="E651" t="s" s="2">
@@ -73206,7 +73171,7 @@
         <v>47</v>
       </c>
       <c r="M651" t="s" s="2">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="N651" t="s" s="2">
         <v>76</v>
@@ -73279,13 +73244,13 @@
     </row>
     <row r="652">
       <c r="A652" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B652" t="s" s="2">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="C652" t="s" s="2">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="D652" s="2"/>
       <c r="E652" t="s" s="2">
@@ -73384,13 +73349,13 @@
     </row>
     <row r="653">
       <c r="A653" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B653" t="s" s="2">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="C653" t="s" s="2">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="D653" s="2"/>
       <c r="E653" t="s" s="2">
@@ -73489,13 +73454,13 @@
     </row>
     <row r="654">
       <c r="A654" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B654" t="s" s="2">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="C654" t="s" s="2">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="D654" s="2"/>
       <c r="E654" t="s" s="2">
@@ -73594,13 +73559,13 @@
     </row>
     <row r="655">
       <c r="A655" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B655" t="s" s="2">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="C655" t="s" s="2">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="D655" s="2"/>
       <c r="E655" t="s" s="2">
@@ -73699,13 +73664,13 @@
     </row>
     <row r="656">
       <c r="A656" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B656" t="s" s="2">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="C656" t="s" s="2">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="D656" s="2"/>
       <c r="E656" t="s" s="2">
@@ -73804,13 +73769,13 @@
     </row>
     <row r="657">
       <c r="A657" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B657" t="s" s="2">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="C657" t="s" s="2">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="D657" s="2"/>
       <c r="E657" t="s" s="2">
@@ -73909,13 +73874,13 @@
     </row>
     <row r="658">
       <c r="A658" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B658" t="s" s="2">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="C658" t="s" s="2">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="D658" s="2"/>
       <c r="E658" t="s" s="2">
@@ -74014,13 +73979,13 @@
     </row>
     <row r="659">
       <c r="A659" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B659" t="s" s="2">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="C659" t="s" s="2">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="D659" s="2"/>
       <c r="E659" t="s" s="2">
@@ -74119,17 +74084,17 @@
     </row>
     <row r="660">
       <c r="A660" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B660" t="s" s="2">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="C660" t="s" s="2">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="D660" s="2"/>
       <c r="E660" t="s" s="2">
-        <v>800</v>
+        <v>669</v>
       </c>
       <c r="F660" s="2"/>
       <c r="G660" t="s" s="2">
@@ -74151,13 +74116,13 @@
         <v>188</v>
       </c>
       <c r="M660" t="s" s="2">
-        <v>801</v>
+        <v>1122</v>
       </c>
       <c r="N660" t="s" s="2">
-        <v>802</v>
+        <v>671</v>
       </c>
       <c r="O660" t="s" s="2">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="P660" s="2"/>
       <c r="Q660" t="s" s="2">
@@ -74207,7 +74172,7 @@
         <v>37</v>
       </c>
       <c r="AG660" t="s" s="2">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="AH660" t="s" s="2">
         <v>38</v>
@@ -74224,13 +74189,13 @@
     </row>
     <row r="661">
       <c r="A661" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B661" t="s" s="2">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="C661" t="s" s="2">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="D661" s="2"/>
       <c r="E661" t="s" s="2">
@@ -74308,7 +74273,7 @@
         <v>71</v>
       </c>
       <c r="AG661" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AH661" t="s" s="2">
         <v>38</v>
@@ -74325,16 +74290,16 @@
     </row>
     <row r="662">
       <c r="A662" t="s" s="2">
+        <v>1116</v>
+      </c>
+      <c r="B662" t="s" s="2">
         <v>1123</v>
       </c>
-      <c r="B662" t="s" s="2">
-        <v>1129</v>
-      </c>
       <c r="C662" t="s" s="2">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="D662" t="s" s="2">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E662" t="s" s="2">
         <v>37</v>
@@ -74356,10 +74321,10 @@
         <v>37</v>
       </c>
       <c r="L662" t="s" s="2">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="M662" t="s" s="2">
-        <v>1130</v>
+        <v>1124</v>
       </c>
       <c r="N662" t="s" s="2">
         <v>543</v>
@@ -74413,7 +74378,7 @@
         <v>37</v>
       </c>
       <c r="AG662" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AH662" t="s" s="2">
         <v>38</v>
@@ -74430,13 +74395,13 @@
     </row>
     <row r="663">
       <c r="A663" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B663" t="s" s="2">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="C663" t="s" s="2">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="D663" s="2"/>
       <c r="E663" t="s" s="2">
@@ -74533,13 +74498,13 @@
     </row>
     <row r="664">
       <c r="A664" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B664" t="s" s="2">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="C664" t="s" s="2">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="D664" s="2"/>
       <c r="E664" t="s" s="2">
@@ -74565,16 +74530,16 @@
         <v>689</v>
       </c>
       <c r="M664" t="s" s="2">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="N664" t="s" s="2">
         <v>691</v>
       </c>
       <c r="O664" t="s" s="2">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="P664" t="s" s="2">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="Q664" t="s" s="2">
         <v>37</v>
@@ -74623,7 +74588,7 @@
         <v>37</v>
       </c>
       <c r="AG664" t="s" s="2">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="AH664" t="s" s="2">
         <v>38</v>
@@ -74640,13 +74605,13 @@
     </row>
     <row r="665">
       <c r="A665" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B665" t="s" s="2">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="C665" t="s" s="2">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="D665" s="2"/>
       <c r="E665" t="s" s="2">
@@ -74672,10 +74637,10 @@
         <v>129</v>
       </c>
       <c r="M665" t="s" s="2">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="N665" t="s" s="2">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="O665" s="2"/>
       <c r="P665" s="2"/>
@@ -74724,7 +74689,7 @@
         <v>71</v>
       </c>
       <c r="AG665" t="s" s="2">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="AH665" t="s" s="2">
         <v>38</v>
@@ -74741,13 +74706,13 @@
     </row>
     <row r="666">
       <c r="A666" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B666" t="s" s="2">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="C666" t="s" s="2">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="D666" t="s" s="2">
         <v>693</v>
@@ -74775,7 +74740,7 @@
         <v>694</v>
       </c>
       <c r="M666" t="s" s="2">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="N666" t="s" s="2">
         <v>691</v>
@@ -74829,7 +74794,7 @@
         <v>37</v>
       </c>
       <c r="AG666" t="s" s="2">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="AH666" t="s" s="2">
         <v>38</v>
@@ -74846,13 +74811,13 @@
     </row>
     <row r="667">
       <c r="A667" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B667" t="s" s="2">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="C667" t="s" s="2">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="D667" s="2"/>
       <c r="E667" t="s" s="2">
@@ -74878,13 +74843,13 @@
         <v>120</v>
       </c>
       <c r="M667" t="s" s="2">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="N667" t="s" s="2">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="O667" t="s" s="2">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="P667" s="2"/>
       <c r="Q667" t="s" s="2">
@@ -74914,7 +74879,7 @@
       </c>
       <c r="Z667" s="2"/>
       <c r="AA667" t="s" s="2">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="AB667" t="s" s="2">
         <v>37</v>
@@ -74932,7 +74897,7 @@
         <v>37</v>
       </c>
       <c r="AG667" t="s" s="2">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="AH667" t="s" s="2">
         <v>45</v>
@@ -74949,13 +74914,13 @@
     </row>
     <row r="668">
       <c r="A668" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B668" t="s" s="2">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="C668" t="s" s="2">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="D668" s="2"/>
       <c r="E668" t="s" s="2">
@@ -74981,13 +74946,13 @@
         <v>120</v>
       </c>
       <c r="M668" t="s" s="2">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="N668" t="s" s="2">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="O668" t="s" s="2">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="P668" s="2"/>
       <c r="Q668" t="s" s="2">
@@ -75016,10 +74981,10 @@
         <v>138</v>
       </c>
       <c r="Z668" t="s" s="2">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="AA668" t="s" s="2">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="AB668" t="s" s="2">
         <v>37</v>
@@ -75037,7 +75002,7 @@
         <v>37</v>
       </c>
       <c r="AG668" t="s" s="2">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="AH668" t="s" s="2">
         <v>38</v>
@@ -75054,13 +75019,13 @@
     </row>
     <row r="669">
       <c r="A669" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B669" t="s" s="2">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="C669" t="s" s="2">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="D669" s="2"/>
       <c r="E669" t="s" s="2">
@@ -75086,13 +75051,13 @@
         <v>716</v>
       </c>
       <c r="M669" t="s" s="2">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="N669" t="s" s="2">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="O669" t="s" s="2">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="P669" s="2"/>
       <c r="Q669" t="s" s="2">
@@ -75122,7 +75087,7 @@
       </c>
       <c r="Z669" s="2"/>
       <c r="AA669" t="s" s="2">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="AB669" t="s" s="2">
         <v>37</v>
@@ -75140,7 +75105,7 @@
         <v>37</v>
       </c>
       <c r="AG669" t="s" s="2">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="AH669" t="s" s="2">
         <v>38</v>
@@ -75152,22 +75117,22 @@
         <v>37</v>
       </c>
       <c r="AK669" t="s" s="2">
-        <v>951</v>
+        <v>947</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B670" t="s" s="2">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="C670" t="s" s="2">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="D670" s="2"/>
       <c r="E670" t="s" s="2">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="F670" s="2"/>
       <c r="G670" t="s" s="2">
@@ -75189,13 +75154,13 @@
         <v>716</v>
       </c>
       <c r="M670" t="s" s="2">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="N670" t="s" s="2">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="O670" t="s" s="2">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="P670" s="2"/>
       <c r="Q670" t="s" s="2">
@@ -75225,7 +75190,7 @@
       </c>
       <c r="Z670" s="2"/>
       <c r="AA670" t="s" s="2">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="AB670" t="s" s="2">
         <v>37</v>
@@ -75243,7 +75208,7 @@
         <v>37</v>
       </c>
       <c r="AG670" t="s" s="2">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="AH670" t="s" s="2">
         <v>38</v>
@@ -75255,18 +75220,18 @@
         <v>37</v>
       </c>
       <c r="AK670" t="s" s="2">
-        <v>958</v>
+        <v>954</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B671" t="s" s="2">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="C671" t="s" s="2">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="D671" s="2"/>
       <c r="E671" t="s" s="2">
@@ -75292,10 +75257,10 @@
         <v>724</v>
       </c>
       <c r="M671" t="s" s="2">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="N671" t="s" s="2">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="O671" s="2"/>
       <c r="P671" s="2"/>
@@ -75346,7 +75311,7 @@
         <v>37</v>
       </c>
       <c r="AG671" t="s" s="2">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="AH671" t="s" s="2">
         <v>38</v>
@@ -75358,22 +75323,22 @@
         <v>37</v>
       </c>
       <c r="AK671" t="s" s="2">
-        <v>1136</v>
+        <v>57</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B672" t="s" s="2">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="C672" t="s" s="2">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="D672" s="2"/>
       <c r="E672" t="s" s="2">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="F672" s="2"/>
       <c r="G672" t="s" s="2">
@@ -75395,13 +75360,13 @@
         <v>80</v>
       </c>
       <c r="M672" t="s" s="2">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="N672" t="s" s="2">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="O672" t="s" s="2">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="P672" s="2"/>
       <c r="Q672" t="s" s="2">
@@ -75451,7 +75416,7 @@
         <v>37</v>
       </c>
       <c r="AG672" t="s" s="2">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="AH672" t="s" s="2">
         <v>38</v>
@@ -75468,13 +75433,13 @@
     </row>
     <row r="673">
       <c r="A673" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B673" t="s" s="2">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="C673" t="s" s="2">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="D673" s="2"/>
       <c r="E673" t="s" s="2">
@@ -75497,16 +75462,16 @@
         <v>46</v>
       </c>
       <c r="L673" t="s" s="2">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="M673" t="s" s="2">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="N673" t="s" s="2">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="O673" t="s" s="2">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="P673" s="2"/>
       <c r="Q673" t="s" s="2">
@@ -75556,7 +75521,7 @@
         <v>37</v>
       </c>
       <c r="AG673" t="s" s="2">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="AH673" t="s" s="2">
         <v>38</v>
@@ -75568,18 +75533,18 @@
         <v>37</v>
       </c>
       <c r="AK673" t="s" s="2">
-        <v>972</v>
+        <v>57</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B674" t="s" s="2">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="C674" t="s" s="2">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="D674" s="2"/>
       <c r="E674" t="s" s="2">
@@ -75602,16 +75567,16 @@
         <v>37</v>
       </c>
       <c r="L674" t="s" s="2">
-        <v>1137</v>
+        <v>1130</v>
       </c>
       <c r="M674" t="s" s="2">
-        <v>1138</v>
+        <v>1131</v>
       </c>
       <c r="N674" t="s" s="2">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="O674" t="s" s="2">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="P674" s="2"/>
       <c r="Q674" t="s" s="2">
@@ -75661,7 +75626,7 @@
         <v>37</v>
       </c>
       <c r="AG674" t="s" s="2">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="AH674" t="s" s="2">
         <v>38</v>
@@ -75673,18 +75638,18 @@
         <v>37</v>
       </c>
       <c r="AK674" t="s" s="2">
-        <v>978</v>
+        <v>57</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B675" t="s" s="2">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="C675" t="s" s="2">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="D675" s="2"/>
       <c r="E675" t="s" s="2">
@@ -75707,16 +75672,16 @@
         <v>37</v>
       </c>
       <c r="L675" t="s" s="2">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="M675" t="s" s="2">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="N675" t="s" s="2">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="O675" t="s" s="2">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="P675" s="2"/>
       <c r="Q675" t="s" s="2">
@@ -75766,7 +75731,7 @@
         <v>37</v>
       </c>
       <c r="AG675" t="s" s="2">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="AH675" t="s" s="2">
         <v>38</v>
@@ -75783,13 +75748,13 @@
     </row>
     <row r="676">
       <c r="A676" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B676" t="s" s="2">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="C676" t="s" s="2">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="D676" s="2"/>
       <c r="E676" t="s" s="2">
@@ -75815,13 +75780,13 @@
         <v>152</v>
       </c>
       <c r="M676" t="s" s="2">
-        <v>1139</v>
+        <v>1132</v>
       </c>
       <c r="N676" t="s" s="2">
-        <v>1140</v>
+        <v>1133</v>
       </c>
       <c r="O676" t="s" s="2">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="P676" s="2"/>
       <c r="Q676" t="s" s="2">
@@ -75871,7 +75836,7 @@
         <v>37</v>
       </c>
       <c r="AG676" t="s" s="2">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="AH676" t="s" s="2">
         <v>38</v>
@@ -75883,18 +75848,18 @@
         <v>37</v>
       </c>
       <c r="AK676" t="s" s="2">
-        <v>1141</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B677" t="s" s="2">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="C677" t="s" s="2">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="D677" s="2"/>
       <c r="E677" t="s" s="2">
@@ -75991,13 +75956,13 @@
     </row>
     <row r="678">
       <c r="A678" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B678" t="s" s="2">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="C678" t="s" s="2">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="D678" s="2"/>
       <c r="E678" t="s" s="2">
@@ -76096,13 +76061,13 @@
     </row>
     <row r="679">
       <c r="A679" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B679" t="s" s="2">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="C679" t="s" s="2">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="D679" s="2"/>
       <c r="E679" t="s" s="2">
@@ -76203,13 +76168,13 @@
     </row>
     <row r="680">
       <c r="A680" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B680" t="s" s="2">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="C680" t="s" s="2">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="D680" s="2"/>
       <c r="E680" t="s" s="2">
@@ -76235,13 +76200,13 @@
         <v>120</v>
       </c>
       <c r="M680" t="s" s="2">
-        <v>1142</v>
+        <v>1135</v>
       </c>
       <c r="N680" t="s" s="2">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="O680" t="s" s="2">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="P680" s="2"/>
       <c r="Q680" t="s" s="2">
@@ -76270,10 +76235,10 @@
         <v>138</v>
       </c>
       <c r="Z680" t="s" s="2">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="AA680" t="s" s="2">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="AB680" t="s" s="2">
         <v>37</v>
@@ -76291,7 +76256,7 @@
         <v>37</v>
       </c>
       <c r="AG680" t="s" s="2">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="AH680" t="s" s="2">
         <v>45</v>
@@ -76308,13 +76273,13 @@
     </row>
     <row r="681">
       <c r="A681" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B681" t="s" s="2">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="C681" t="s" s="2">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="D681" s="2"/>
       <c r="E681" t="s" s="2">
@@ -76337,13 +76302,13 @@
         <v>46</v>
       </c>
       <c r="L681" t="s" s="2">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="M681" t="s" s="2">
-        <v>1143</v>
+        <v>1136</v>
       </c>
       <c r="N681" t="s" s="2">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="O681" s="2"/>
       <c r="P681" s="2"/>
@@ -76394,7 +76359,7 @@
         <v>37</v>
       </c>
       <c r="AG681" t="s" s="2">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="AH681" t="s" s="2">
         <v>45</v>
@@ -76406,18 +76371,18 @@
         <v>37</v>
       </c>
       <c r="AK681" t="s" s="2">
-        <v>1144</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B682" t="s" s="2">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="C682" t="s" s="2">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="D682" s="2"/>
       <c r="E682" t="s" s="2">
@@ -76443,16 +76408,16 @@
         <v>59</v>
       </c>
       <c r="M682" t="s" s="2">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="N682" t="s" s="2">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="O682" t="s" s="2">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="P682" t="s" s="2">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="Q682" t="s" s="2">
         <v>37</v>
@@ -76501,7 +76466,7 @@
         <v>37</v>
       </c>
       <c r="AG682" t="s" s="2">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="AH682" t="s" s="2">
         <v>38</v>
@@ -76518,13 +76483,13 @@
     </row>
     <row r="683">
       <c r="A683" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B683" t="s" s="2">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="C683" t="s" s="2">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D683" s="2"/>
       <c r="E683" t="s" s="2">
@@ -76550,16 +76515,16 @@
         <v>716</v>
       </c>
       <c r="M683" t="s" s="2">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="N683" t="s" s="2">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="O683" t="s" s="2">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="P683" t="s" s="2">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="Q683" t="s" s="2">
         <v>37</v>
@@ -76608,7 +76573,7 @@
         <v>37</v>
       </c>
       <c r="AG683" t="s" s="2">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="AH683" t="s" s="2">
         <v>38</v>
@@ -76620,18 +76585,18 @@
         <v>37</v>
       </c>
       <c r="AK683" t="s" s="2">
-        <v>1011</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B684" t="s" s="2">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="C684" t="s" s="2">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="D684" s="2"/>
       <c r="E684" t="s" s="2">
@@ -76657,10 +76622,10 @@
         <v>152</v>
       </c>
       <c r="M684" t="s" s="2">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="N684" t="s" s="2">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="O684" s="2"/>
       <c r="P684" s="2"/>
@@ -76711,7 +76676,7 @@
         <v>37</v>
       </c>
       <c r="AG684" t="s" s="2">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="AH684" t="s" s="2">
         <v>45</v>
@@ -76728,13 +76693,13 @@
     </row>
     <row r="685">
       <c r="A685" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B685" t="s" s="2">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="C685" t="s" s="2">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="D685" s="2"/>
       <c r="E685" t="s" s="2">
@@ -76831,13 +76796,13 @@
     </row>
     <row r="686">
       <c r="A686" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B686" t="s" s="2">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="C686" t="s" s="2">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="D686" s="2"/>
       <c r="E686" t="s" s="2">
@@ -76936,13 +76901,13 @@
     </row>
     <row r="687">
       <c r="A687" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B687" t="s" s="2">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="C687" t="s" s="2">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="D687" s="2"/>
       <c r="E687" t="s" s="2">
@@ -77043,13 +77008,13 @@
     </row>
     <row r="688">
       <c r="A688" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B688" t="s" s="2">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="C688" t="s" s="2">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="D688" s="2"/>
       <c r="E688" t="s" s="2">
@@ -77072,13 +77037,13 @@
         <v>46</v>
       </c>
       <c r="L688" t="s" s="2">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="M688" t="s" s="2">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="N688" t="s" s="2">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="O688" s="2"/>
       <c r="P688" s="2"/>
@@ -77129,7 +77094,7 @@
         <v>37</v>
       </c>
       <c r="AG688" t="s" s="2">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="AH688" t="s" s="2">
         <v>45</v>
@@ -77146,13 +77111,13 @@
     </row>
     <row r="689">
       <c r="A689" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B689" t="s" s="2">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="C689" t="s" s="2">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="D689" s="2"/>
       <c r="E689" t="s" s="2">
@@ -77249,13 +77214,13 @@
     </row>
     <row r="690">
       <c r="A690" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B690" t="s" s="2">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="C690" t="s" s="2">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="D690" s="2"/>
       <c r="E690" t="s" s="2">
@@ -77354,13 +77319,13 @@
     </row>
     <row r="691">
       <c r="A691" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B691" t="s" s="2">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="C691" t="s" s="2">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="D691" s="2"/>
       <c r="E691" t="s" s="2">
@@ -77386,14 +77351,14 @@
         <v>120</v>
       </c>
       <c r="M691" t="s" s="2">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="N691" t="s" s="2">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="O691" s="2"/>
       <c r="P691" t="s" s="2">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="Q691" t="s" s="2">
         <v>37</v>
@@ -77406,7 +77371,7 @@
         <v>37</v>
       </c>
       <c r="U691" t="s" s="2">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="V691" t="s" s="2">
         <v>37</v>
@@ -77421,10 +77386,10 @@
         <v>138</v>
       </c>
       <c r="Z691" t="s" s="2">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="AA691" t="s" s="2">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="AB691" t="s" s="2">
         <v>37</v>
@@ -77442,7 +77407,7 @@
         <v>37</v>
       </c>
       <c r="AG691" t="s" s="2">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="AH691" t="s" s="2">
         <v>38</v>
@@ -77459,13 +77424,13 @@
     </row>
     <row r="692">
       <c r="A692" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B692" t="s" s="2">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="C692" t="s" s="2">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="D692" s="2"/>
       <c r="E692" t="s" s="2">
@@ -77491,14 +77456,14 @@
         <v>120</v>
       </c>
       <c r="M692" t="s" s="2">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="N692" t="s" s="2">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="O692" s="2"/>
       <c r="P692" t="s" s="2">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="Q692" t="s" s="2">
         <v>37</v>
@@ -77511,7 +77476,7 @@
         <v>37</v>
       </c>
       <c r="U692" t="s" s="2">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="V692" t="s" s="2">
         <v>37</v>
@@ -77547,7 +77512,7 @@
         <v>37</v>
       </c>
       <c r="AG692" t="s" s="2">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="AH692" t="s" s="2">
         <v>38</v>
@@ -77564,13 +77529,13 @@
     </row>
     <row r="693">
       <c r="A693" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B693" t="s" s="2">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="C693" t="s" s="2">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="D693" s="2"/>
       <c r="E693" t="s" s="2">
@@ -77593,19 +77558,19 @@
         <v>37</v>
       </c>
       <c r="L693" t="s" s="2">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="M693" t="s" s="2">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="N693" t="s" s="2">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="O693" t="s" s="2">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="P693" t="s" s="2">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="Q693" t="s" s="2">
         <v>37</v>
@@ -77654,7 +77619,7 @@
         <v>37</v>
       </c>
       <c r="AG693" t="s" s="2">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="AH693" t="s" s="2">
         <v>38</v>
@@ -77671,13 +77636,13 @@
     </row>
     <row r="694">
       <c r="A694" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B694" t="s" s="2">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="C694" t="s" s="2">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="D694" s="2"/>
       <c r="E694" t="s" s="2">
@@ -77700,19 +77665,19 @@
         <v>46</v>
       </c>
       <c r="L694" t="s" s="2">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="M694" t="s" s="2">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="N694" t="s" s="2">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="O694" t="s" s="2">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="P694" t="s" s="2">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="Q694" t="s" s="2">
         <v>37</v>
@@ -77725,7 +77690,7 @@
         <v>37</v>
       </c>
       <c r="U694" t="s" s="2">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="V694" t="s" s="2">
         <v>37</v>
@@ -77761,7 +77726,7 @@
         <v>37</v>
       </c>
       <c r="AG694" t="s" s="2">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="AH694" t="s" s="2">
         <v>38</v>
@@ -77773,18 +77738,18 @@
         <v>37</v>
       </c>
       <c r="AK694" t="s" s="2">
-        <v>1148</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B695" t="s" s="2">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="C695" t="s" s="2">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="D695" s="2"/>
       <c r="E695" t="s" s="2">
@@ -77810,16 +77775,16 @@
         <v>146</v>
       </c>
       <c r="M695" t="s" s="2">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="N695" t="s" s="2">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="O695" t="s" s="2">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="P695" t="s" s="2">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="Q695" t="s" s="2">
         <v>37</v>
@@ -77868,7 +77833,7 @@
         <v>37</v>
       </c>
       <c r="AG695" t="s" s="2">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="AH695" t="s" s="2">
         <v>38</v>
@@ -77885,13 +77850,13 @@
     </row>
     <row r="696">
       <c r="A696" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B696" t="s" s="2">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="C696" t="s" s="2">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="D696" s="2"/>
       <c r="E696" t="s" s="2">
@@ -77914,19 +77879,19 @@
         <v>46</v>
       </c>
       <c r="L696" t="s" s="2">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="M696" t="s" s="2">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="N696" t="s" s="2">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="O696" t="s" s="2">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="P696" t="s" s="2">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="Q696" t="s" s="2">
         <v>37</v>
@@ -77975,7 +77940,7 @@
         <v>37</v>
       </c>
       <c r="AG696" t="s" s="2">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="AH696" t="s" s="2">
         <v>38</v>
@@ -77992,13 +77957,13 @@
     </row>
     <row r="697">
       <c r="A697" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B697" t="s" s="2">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="C697" t="s" s="2">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="D697" s="2"/>
       <c r="E697" t="s" s="2">
@@ -78024,14 +77989,14 @@
         <v>59</v>
       </c>
       <c r="M697" t="s" s="2">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="N697" t="s" s="2">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="O697" s="2"/>
       <c r="P697" t="s" s="2">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="Q697" t="s" s="2">
         <v>37</v>
@@ -78044,7 +78009,7 @@
         <v>37</v>
       </c>
       <c r="U697" t="s" s="2">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="V697" t="s" s="2">
         <v>37</v>
@@ -78080,7 +78045,7 @@
         <v>37</v>
       </c>
       <c r="AG697" t="s" s="2">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="AH697" t="s" s="2">
         <v>38</v>
@@ -78097,13 +78062,13 @@
     </row>
     <row r="698">
       <c r="A698" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B698" t="s" s="2">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="C698" t="s" s="2">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="D698" s="2"/>
       <c r="E698" t="s" s="2">
@@ -78129,14 +78094,14 @@
         <v>734</v>
       </c>
       <c r="M698" t="s" s="2">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="N698" t="s" s="2">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="O698" s="2"/>
       <c r="P698" t="s" s="2">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="Q698" t="s" s="2">
         <v>37</v>
@@ -78185,7 +78150,7 @@
         <v>37</v>
       </c>
       <c r="AG698" t="s" s="2">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="AH698" t="s" s="2">
         <v>38</v>
@@ -78202,13 +78167,13 @@
     </row>
     <row r="699">
       <c r="A699" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B699" t="s" s="2">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="C699" t="s" s="2">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="D699" s="2"/>
       <c r="E699" t="s" s="2">
@@ -78234,13 +78199,13 @@
         <v>98</v>
       </c>
       <c r="M699" t="s" s="2">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="N699" t="s" s="2">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="O699" t="s" s="2">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="P699" s="2"/>
       <c r="Q699" t="s" s="2">
@@ -78270,7 +78235,7 @@
       </c>
       <c r="Z699" s="2"/>
       <c r="AA699" t="s" s="2">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="AB699" t="s" s="2">
         <v>37</v>
@@ -78288,7 +78253,7 @@
         <v>37</v>
       </c>
       <c r="AG699" t="s" s="2">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="AH699" t="s" s="2">
         <v>38</v>
@@ -78300,18 +78265,18 @@
         <v>37</v>
       </c>
       <c r="AK699" t="s" s="2">
-        <v>1081</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B700" t="s" s="2">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="C700" t="s" s="2">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="D700" s="2"/>
       <c r="E700" t="s" s="2">
@@ -78337,13 +78302,13 @@
         <v>152</v>
       </c>
       <c r="M700" t="s" s="2">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="N700" t="s" s="2">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="O700" t="s" s="2">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="P700" s="2"/>
       <c r="Q700" t="s" s="2">
@@ -78393,7 +78358,7 @@
         <v>37</v>
       </c>
       <c r="AG700" t="s" s="2">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="AH700" t="s" s="2">
         <v>38</v>
@@ -78410,13 +78375,13 @@
     </row>
     <row r="701">
       <c r="A701" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B701" t="s" s="2">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="C701" t="s" s="2">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="D701" s="2"/>
       <c r="E701" t="s" s="2">
@@ -78513,13 +78478,13 @@
     </row>
     <row r="702">
       <c r="A702" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B702" t="s" s="2">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="C702" t="s" s="2">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="D702" s="2"/>
       <c r="E702" t="s" s="2">
@@ -78618,13 +78583,13 @@
     </row>
     <row r="703">
       <c r="A703" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B703" t="s" s="2">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="C703" t="s" s="2">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="D703" s="2"/>
       <c r="E703" t="s" s="2">
@@ -78725,13 +78690,13 @@
     </row>
     <row r="704">
       <c r="A704" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B704" t="s" s="2">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="C704" t="s" s="2">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="D704" s="2"/>
       <c r="E704" t="s" s="2">
@@ -78754,13 +78719,13 @@
         <v>37</v>
       </c>
       <c r="L704" t="s" s="2">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="M704" t="s" s="2">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="N704" t="s" s="2">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="O704" s="2"/>
       <c r="P704" s="2"/>
@@ -78811,7 +78776,7 @@
         <v>37</v>
       </c>
       <c r="AG704" t="s" s="2">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="AH704" t="s" s="2">
         <v>38</v>
@@ -78828,13 +78793,13 @@
     </row>
     <row r="705">
       <c r="A705" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B705" t="s" s="2">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="C705" t="s" s="2">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="D705" s="2"/>
       <c r="E705" t="s" s="2">
@@ -78860,13 +78825,13 @@
         <v>716</v>
       </c>
       <c r="M705" t="s" s="2">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="N705" t="s" s="2">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="O705" t="s" s="2">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="P705" s="2"/>
       <c r="Q705" t="s" s="2">
@@ -78895,10 +78860,10 @@
         <v>110</v>
       </c>
       <c r="Z705" t="s" s="2">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="AA705" t="s" s="2">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="AB705" t="s" s="2">
         <v>37</v>
@@ -78916,7 +78881,7 @@
         <v>37</v>
       </c>
       <c r="AG705" t="s" s="2">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="AH705" t="s" s="2">
         <v>38</v>
@@ -78928,18 +78893,18 @@
         <v>37</v>
       </c>
       <c r="AK705" t="s" s="2">
-        <v>1099</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B706" t="s" s="2">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="C706" t="s" s="2">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="D706" s="2"/>
       <c r="E706" t="s" s="2">
@@ -78962,13 +78927,13 @@
         <v>46</v>
       </c>
       <c r="L706" t="s" s="2">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="M706" t="s" s="2">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="N706" t="s" s="2">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="O706" s="2"/>
       <c r="P706" s="2"/>
@@ -79019,7 +78984,7 @@
         <v>37</v>
       </c>
       <c r="AG706" t="s" s="2">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="AH706" t="s" s="2">
         <v>38</v>
@@ -79036,13 +79001,13 @@
     </row>
     <row r="707">
       <c r="A707" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B707" t="s" s="2">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="C707" t="s" s="2">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="D707" s="2"/>
       <c r="E707" t="s" s="2">
@@ -79139,13 +79104,13 @@
     </row>
     <row r="708">
       <c r="A708" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B708" t="s" s="2">
-        <v>1151</v>
+        <v>1144</v>
       </c>
       <c r="C708" t="s" s="2">
-        <v>1151</v>
+        <v>1144</v>
       </c>
       <c r="D708" s="2"/>
       <c r="E708" t="s" s="2">
@@ -79244,13 +79209,13 @@
     </row>
     <row r="709">
       <c r="A709" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B709" t="s" s="2">
-        <v>1152</v>
+        <v>1145</v>
       </c>
       <c r="C709" t="s" s="2">
-        <v>1152</v>
+        <v>1145</v>
       </c>
       <c r="D709" s="2"/>
       <c r="E709" t="s" s="2">
@@ -79276,13 +79241,13 @@
         <v>734</v>
       </c>
       <c r="M709" t="s" s="2">
-        <v>1153</v>
+        <v>1146</v>
       </c>
       <c r="N709" t="s" s="2">
-        <v>1154</v>
+        <v>1147</v>
       </c>
       <c r="O709" t="s" s="2">
-        <v>1155</v>
+        <v>1148</v>
       </c>
       <c r="P709" s="2"/>
       <c r="Q709" t="s" s="2">
@@ -79332,7 +79297,7 @@
         <v>37</v>
       </c>
       <c r="AG709" t="s" s="2">
-        <v>1156</v>
+        <v>1149</v>
       </c>
       <c r="AH709" t="s" s="2">
         <v>38</v>
@@ -79341,7 +79306,7 @@
         <v>45</v>
       </c>
       <c r="AJ709" t="s" s="2">
-        <v>1157</v>
+        <v>1150</v>
       </c>
       <c r="AK709" t="s" s="2">
         <v>57</v>
@@ -79349,13 +79314,13 @@
     </row>
     <row r="710">
       <c r="A710" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B710" t="s" s="2">
-        <v>1158</v>
+        <v>1151</v>
       </c>
       <c r="C710" t="s" s="2">
-        <v>1158</v>
+        <v>1151</v>
       </c>
       <c r="D710" s="2"/>
       <c r="E710" t="s" s="2">
@@ -79381,20 +79346,20 @@
         <v>734</v>
       </c>
       <c r="M710" t="s" s="2">
-        <v>1159</v>
+        <v>1152</v>
       </c>
       <c r="N710" t="s" s="2">
-        <v>1160</v>
+        <v>1153</v>
       </c>
       <c r="O710" t="s" s="2">
-        <v>1161</v>
+        <v>1154</v>
       </c>
       <c r="P710" s="2"/>
       <c r="Q710" t="s" s="2">
         <v>37</v>
       </c>
       <c r="R710" t="s" s="2">
-        <v>1162</v>
+        <v>1155</v>
       </c>
       <c r="S710" t="s" s="2">
         <v>37</v>
@@ -79439,7 +79404,7 @@
         <v>37</v>
       </c>
       <c r="AG710" t="s" s="2">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="AH710" t="s" s="2">
         <v>38</v>
@@ -79448,7 +79413,7 @@
         <v>45</v>
       </c>
       <c r="AJ710" t="s" s="2">
-        <v>1157</v>
+        <v>1150</v>
       </c>
       <c r="AK710" t="s" s="2">
         <v>57</v>
@@ -79456,13 +79421,13 @@
     </row>
     <row r="711">
       <c r="A711" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B711" t="s" s="2">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="C711" t="s" s="2">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="D711" s="2"/>
       <c r="E711" t="s" s="2">
@@ -79488,10 +79453,10 @@
         <v>716</v>
       </c>
       <c r="M711" t="s" s="2">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="N711" t="s" s="2">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="O711" s="2"/>
       <c r="P711" s="2"/>
@@ -79522,7 +79487,7 @@
       </c>
       <c r="Z711" s="2"/>
       <c r="AA711" t="s" s="2">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="AB711" t="s" s="2">
         <v>37</v>
@@ -79540,7 +79505,7 @@
         <v>37</v>
       </c>
       <c r="AG711" t="s" s="2">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="AH711" t="s" s="2">
         <v>38</v>
@@ -79552,18 +79517,18 @@
         <v>37</v>
       </c>
       <c r="AK711" t="s" s="2">
-        <v>1164</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B712" t="s" s="2">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="C712" t="s" s="2">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="D712" s="2"/>
       <c r="E712" t="s" s="2">
@@ -79589,16 +79554,16 @@
         <v>716</v>
       </c>
       <c r="M712" t="s" s="2">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="N712" t="s" s="2">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="O712" t="s" s="2">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="P712" t="s" s="2">
-        <v>1113</v>
+        <v>1107</v>
       </c>
       <c r="Q712" t="s" s="2">
         <v>37</v>
@@ -79627,7 +79592,7 @@
       </c>
       <c r="Z712" s="2"/>
       <c r="AA712" t="s" s="2">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="AB712" t="s" s="2">
         <v>37</v>
@@ -79645,7 +79610,7 @@
         <v>37</v>
       </c>
       <c r="AG712" t="s" s="2">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="AH712" t="s" s="2">
         <v>38</v>
@@ -79657,18 +79622,18 @@
         <v>37</v>
       </c>
       <c r="AK712" t="s" s="2">
-        <v>1164</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B713" t="s" s="2">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="C713" t="s" s="2">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="D713" s="2"/>
       <c r="E713" t="s" s="2">
@@ -79691,13 +79656,13 @@
         <v>37</v>
       </c>
       <c r="L713" t="s" s="2">
-        <v>1116</v>
+        <v>1158</v>
       </c>
       <c r="M713" t="s" s="2">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="N713" t="s" s="2">
-        <v>1117</v>
+        <v>1110</v>
       </c>
       <c r="O713" s="2"/>
       <c r="P713" s="2"/>
@@ -79748,7 +79713,7 @@
         <v>37</v>
       </c>
       <c r="AG713" t="s" s="2">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="AH713" t="s" s="2">
         <v>38</v>
@@ -79765,13 +79730,13 @@
     </row>
     <row r="714">
       <c r="A714" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B714" t="s" s="2">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="C714" t="s" s="2">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="D714" s="2"/>
       <c r="E714" t="s" s="2">
@@ -79868,13 +79833,13 @@
     </row>
     <row r="715">
       <c r="A715" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B715" t="s" s="2">
-        <v>1166</v>
+        <v>1160</v>
       </c>
       <c r="C715" t="s" s="2">
-        <v>1166</v>
+        <v>1160</v>
       </c>
       <c r="D715" s="2"/>
       <c r="E715" t="s" s="2">
@@ -79973,13 +79938,13 @@
     </row>
     <row r="716">
       <c r="A716" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B716" t="s" s="2">
-        <v>1167</v>
+        <v>1161</v>
       </c>
       <c r="C716" t="s" s="2">
-        <v>1167</v>
+        <v>1161</v>
       </c>
       <c r="D716" s="2"/>
       <c r="E716" t="s" s="2">
@@ -80005,13 +79970,13 @@
         <v>59</v>
       </c>
       <c r="M716" t="s" s="2">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="N716" t="s" s="2">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="O716" t="s" s="2">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="P716" s="2"/>
       <c r="Q716" t="s" s="2">
@@ -80061,7 +80026,7 @@
         <v>37</v>
       </c>
       <c r="AG716" t="s" s="2">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="AH716" t="s" s="2">
         <v>38</v>
@@ -80070,7 +80035,7 @@
         <v>45</v>
       </c>
       <c r="AJ716" t="s" s="2">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="AK716" t="s" s="2">
         <v>57</v>
@@ -80078,13 +80043,13 @@
     </row>
     <row r="717">
       <c r="A717" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B717" t="s" s="2">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="C717" t="s" s="2">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="D717" s="2"/>
       <c r="E717" t="s" s="2">
@@ -80110,13 +80075,13 @@
         <v>86</v>
       </c>
       <c r="M717" t="s" s="2">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="N717" t="s" s="2">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="O717" t="s" s="2">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="P717" s="2"/>
       <c r="Q717" t="s" s="2">
@@ -80145,10 +80110,10 @@
         <v>102</v>
       </c>
       <c r="Z717" t="s" s="2">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="AA717" t="s" s="2">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="AB717" t="s" s="2">
         <v>37</v>
@@ -80166,7 +80131,7 @@
         <v>37</v>
       </c>
       <c r="AG717" t="s" s="2">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="AH717" t="s" s="2">
         <v>38</v>
@@ -80183,13 +80148,13 @@
     </row>
     <row r="718">
       <c r="A718" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B718" t="s" s="2">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="C718" t="s" s="2">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="D718" s="2"/>
       <c r="E718" t="s" s="2">
@@ -80215,13 +80180,13 @@
         <v>129</v>
       </c>
       <c r="M718" t="s" s="2">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="N718" t="s" s="2">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="O718" t="s" s="2">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="P718" s="2"/>
       <c r="Q718" t="s" s="2">
@@ -80271,7 +80236,7 @@
         <v>37</v>
       </c>
       <c r="AG718" t="s" s="2">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="AH718" t="s" s="2">
         <v>38</v>
@@ -80288,13 +80253,13 @@
     </row>
     <row r="719">
       <c r="A719" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B719" t="s" s="2">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="C719" t="s" s="2">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="D719" s="2"/>
       <c r="E719" t="s" s="2">
@@ -80320,13 +80285,13 @@
         <v>59</v>
       </c>
       <c r="M719" t="s" s="2">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="N719" t="s" s="2">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="O719" t="s" s="2">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="P719" s="2"/>
       <c r="Q719" t="s" s="2">
@@ -80376,7 +80341,7 @@
         <v>37</v>
       </c>
       <c r="AG719" t="s" s="2">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="AH719" t="s" s="2">
         <v>38</v>
@@ -80393,13 +80358,13 @@
     </row>
     <row r="720">
       <c r="A720" t="s" s="2">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="B720" t="s" s="2">
-        <v>1118</v>
+        <v>1111</v>
       </c>
       <c r="C720" t="s" s="2">
-        <v>1118</v>
+        <v>1111</v>
       </c>
       <c r="D720" s="2"/>
       <c r="E720" t="s" s="2">
@@ -80422,16 +80387,16 @@
         <v>37</v>
       </c>
       <c r="L720" t="s" s="2">
-        <v>1119</v>
+        <v>1112</v>
       </c>
       <c r="M720" t="s" s="2">
-        <v>1120</v>
+        <v>1113</v>
       </c>
       <c r="N720" t="s" s="2">
-        <v>1121</v>
+        <v>1114</v>
       </c>
       <c r="O720" t="s" s="2">
-        <v>1122</v>
+        <v>1115</v>
       </c>
       <c r="P720" s="2"/>
       <c r="Q720" t="s" s="2">
@@ -80481,7 +80446,7 @@
         <v>37</v>
       </c>
       <c r="AG720" t="s" s="2">
-        <v>1118</v>
+        <v>1111</v>
       </c>
       <c r="AH720" t="s" s="2">
         <v>38</v>
@@ -80498,7 +80463,7 @@
     </row>
     <row r="721">
       <c r="A721" t="s" s="2">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="B721" t="s" s="2">
         <v>545</v>
@@ -80530,10 +80495,10 @@
         <v>40</v>
       </c>
       <c r="M721" t="s" s="2">
-        <v>827</v>
+        <v>1168</v>
       </c>
       <c r="N721" t="s" s="2">
-        <v>827</v>
+        <v>1168</v>
       </c>
       <c r="O721" s="2"/>
       <c r="P721" s="2"/>
@@ -80601,7 +80566,7 @@
     </row>
     <row r="722">
       <c r="A722" t="s" s="2">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="B722" t="s" s="2">
         <v>551</v>
@@ -80704,7 +80669,7 @@
     </row>
     <row r="723">
       <c r="A723" t="s" s="2">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="B723" t="s" s="2">
         <v>552</v>
@@ -80807,7 +80772,7 @@
     </row>
     <row r="724">
       <c r="A724" t="s" s="2">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="B724" t="s" s="2">
         <v>554</v>
@@ -80853,7 +80818,7 @@
       </c>
       <c r="R724" s="2"/>
       <c r="S724" t="s" s="2">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="T724" t="s" s="2">
         <v>37</v>
@@ -80912,7 +80877,7 @@
     </row>
     <row r="725">
       <c r="A725" t="s" s="2">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="B725" t="s" s="2">
         <v>558</v>
@@ -80941,7 +80906,7 @@
         <v>37</v>
       </c>
       <c r="L725" t="s" s="2">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="M725" t="s" s="2">
         <v>560</v>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-31T15:37:29+00:00</t>
+    <t>2023-09-01T08:10:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.1</t>
+    <t>3.1.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-11T18:40:37+00:00</t>
+    <t>2023-10-12T08:02:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12T08:02:08+00:00</t>
+    <t>2023-10-12T08:32:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12T08:32:10+00:00</t>
+    <t>2023-10-12T11:55:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12T11:55:23+00:00</t>
+    <t>2023-10-12T12:01:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12T12:01:54+00:00</t>
+    <t>2023-10-20T13:13:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T13:13:17+00:00</t>
+    <t>2023-11-02T15:09:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/all-profiles.xlsx
+++ b/ig/main/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-04T15:20:04+00:00</t>
+    <t>2023-12-08T10:00:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
